--- a/TP1/Dados/Encriptacao/Encrypt/encoded_from_api.xlsx
+++ b/TP1/Dados/Encriptacao/Encrypt/encoded_from_api.xlsx
@@ -192,64 +192,64 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>V2lyZWQ=</t>
+          <t>R2l6bW9kby5jb20=</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TWlsbGlvbnMgb2YgVmVoaWNsZXMgQ291bGQgQmUgSGFja2VkIGFuZCBUcmFja2VkIFRoYW5rcyB0byBhIFNpbXBsZSBXZWJzaXRlIEJ1Zw==</t>
+          <t>Rm9yIFByaW1lIERheSwgdGhlIGJlc3Qgc2VjdXJpdHkgc29mdHdhcmUgZm9yIGEgTWFjIGlzIG9uIHNhbGUgYXQgNjAlIG9mZg==</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>QW5keSBHcmVlbmJlcmc=</t>
+          <t>R2l6bW9kbyBEZWFscw==</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>UmVzZWFyY2hlcnMgZm91bmQgYSBmbGF3IGluIGEgS2lhIHdlYiBwb3J0YWwgdGhhdCBsZXQgdGhlbSB0cmFjayBtaWxsaW9ucyBvZiBjYXJzLCB1bmxvY2sgZG9vcnMsIGFuZCBzdGFydCBlbmdpbmVzIGF0IHdpbGzigJR0aGUgbGF0ZXN0IGluIGEgcGxhZ3VlIG9mIHdlYiBidWdzIHRoYXTigJlzIGFmZmVjdGVkIGEgZG96ZW4gY2FybWFrZXJzLg==</t>
+          <t>T3ZlciA0MCBtaWxsaW9uIGNsaWVudHMgdHJ1c3QgdGhlIEludGVnbyBhbnRpdmlydXMgc29mdHdhcmUu</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SW4gSmFudWFyeSAyMDIzLCB0aGV5IHB1Ymxpc2hlZCB0aGUgaW5pdGlhbCByZXN1bHRzIG9mIHRoZWlyIHdvcmssIGFuIGVub3Jtb3VzIGNvbGxlY3Rpb24gb2Ygd2ViIHZ1bG5lcmFiaWxpdGllcyBhZmZlY3RpbmcgS2lhLCBIb25kYSwgSW5maW5pdGksIE5pc3NhbiwgQWN1cmEsIE1lcmNlZGVzLUJlbnosIEh5dW5kYWksIEdlbmVzaXMsIEJNVywgUuKApiBbKzM2MzQgY2hhcnNd</t>
+          <t>QXMgUHJpbWUgRGF5IHdlZWtlbmQgaXMgaGVyZSwgSW50ZWdvIGlzIHJvbGxpbmcgb3V0IGFuIGV4Y2VwdGlvbmFsIG9mZmVyIHRoYXQgTWFjIHVzZXJzIHNob3VsZG7igJl0IG1pc3MuIFRoZSB3b3JsZCByZW5vd25lZCBhbnRpdmlydXMgcHJvdmlkZXIgZm9yIE1hYyBpcyBzbGFzaGluZyBwcmljZXMgb24gaXRzIGZsYWdzaGlwIHNvZnR3YXJlIGFuZCBv4oCmIFsrMjM4MyBjaGFyc10=</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cud2lyZWQuY29tL3N0b3J5L2tpYS13ZWItdnVsbmVyYWJpbGl0eS12ZWhpY2xlLWhhY2stdHJhY2sv</t>
+          <t>aHR0cHM6Ly9naXptb2RvLmNvbS9mb3ItcHJpbWUtZGF5LXRoZS1iZXN0LXNlY3VyaXR5LXNvZnR3YXJlLWZvci1hLW1hYy1pcy1vbi1zYWxlLWF0LTYwLW9mZi0yMDAwNTA3NTMx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R2l6bW9kby5jb20=</t>
+          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rm9yIFByaW1lIERheSwgdGhlIGJlc3Qgc2VjdXJpdHkgc29mdHdhcmUgZm9yIGEgTWFjIGlzIG9uIHNhbGUgYXQgNjAlIG9mZg==</t>
+          <t>Q2hlbHNlYSBNYW5uaW5nIGF2b2lkcyBHb29nbGUgYW5kIE1pY3Jvc29mdCDigJQgYW5kIHNheXMgc2hlIHByZWZlcnMgQXBwbGUgcHJvZHVjdHMgZm9yIGN5YmVyc2VjdXJpdHk=</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R2l6bW9kbyBEZWFscw==</t>
+          <t>S2F0aGVyaW5lIFRhbmdhbGFraXMtTGlwcGVydA==</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T3ZlciA0MCBtaWxsaW9uIGNsaWVudHMgdHJ1c3QgdGhlIEludGVnbyBhbnRpdmlydXMgc29mdHdhcmUu</t>
+          <t>Q2hlbHNlYSBNYW5uaW5nIGlzIHRoZSBmYWNlIG9mIGEgbmV3IFZQTiBjYWxsZWQgTnltLiBTaGUncyBhbHNvIHNwZWFraW5nIG91dCBhYm91dCBjeWJlcnNlY3VyaXR5IGluIGdlbmVyYWwsIHNheWluZyBzaGUgZGVlbXMgQXBwbGUgcHJvZHVjdHMgdGhlIGJlc3Qu</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>QXMgUHJpbWUgRGF5IHdlZWtlbmQgaXMgaGVyZSwgSW50ZWdvIGlzIHJvbGxpbmcgb3V0IGFuIGV4Y2VwdGlvbmFsIG9mZmVyIHRoYXQgTWFjIHVzZXJzIHNob3VsZG7igJl0IG1pc3MuIFRoZSB3b3JsZCByZW5vd25lZCBhbnRpdmlydXMgcHJvdmlkZXIgZm9yIE1hYyBpcyBzbGFzaGluZyBwcmljZXMgb24gaXRzIGZsYWdzaGlwIHNvZnR3YXJlIGFuZCBv4oCmIFsrMjM4MyBjaGFyc10=</t>
+          <t>Q2hlbHNlYSBNYW5uaW5nIHNheXMgc2hlIHRoaW5rcyBBcHBsZSBoYXMgdGhlIGJlc3Qgc2VjdXJpdHkgYW1vbmcgQmlnIFRlY2ggY29tcGFuaWVzIOKAlCBhbmQgc2F5cyBzaGUgYXZvaWRzIE1pY3Jvc29mdCBhbmQgR29vZ2xlIHByb2R1Y3RzLkdldHR5IEltYWdlcw0KPHVsPjxsaT5DaGVsc2VhIE1hbm5pbmcgaXMgdGhlIGZhY2Ugb2YgYSBuZXcgVlBO4oCmIFsrNTEyNiBjaGFyc10=</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9naXptb2RvLmNvbS9mb3ItcHJpbWUtZGF5LXRoZS1iZXN0LXNlY3VyaXR5LXNvZnR3YXJlLWZvci1hLW1hYy1pcy1vbi1zYWxlLWF0LTYwLW9mZi0yMDAwNTA3NTMx</t>
+          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9jeWJlcnNlY3VyaXR5LWNoZWxzZWEtbWFubmluZy1hdm9pZC1nb29nbGUtbWljcm9zb2Z0LWZhdm9yLWFwcGxlLXZwbi1wcml2YWN5LTIwMjQtMTA=</t>
         </is>
       </c>
     </row>
@@ -261,691 +261,691 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Q2hlbHNlYSBNYW5uaW5nIGF2b2lkcyBHb29nbGUgYW5kIE1pY3Jvc29mdCDigJQgYW5kIHNheXMgc2hlIHByZWZlcnMgQXBwbGUgcHJvZHVjdHMgZm9yIGN5YmVyc2VjdXJpdHk=</t>
+          <t>SSdtIGEgZm9ybWVyIEZCSSBhZ2VudCBhbmQgY3liZXJzZWN1cml0eSBleHBlcnQuIEhlcmUgYXJlIDUgdGhpbmdzIGV2ZXJ5b25lIHNob3VsZCBkbyB0byBvdXRzbWFydCBvbmxpbmUgY3JpbWluYWxzLg==</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>S2F0aGVyaW5lIFRhbmdhbGFraXMtTGlwcGVydA==</t>
+          <t>SGFubmFoIEFicmFoYW0=</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Q2hlbHNlYSBNYW5uaW5nIGlzIHRoZSBmYWNlIG9mIGEgbmV3IFZQTiBjYWxsZWQgTnltLiBTaGUncyBhbHNvIHNwZWFraW5nIG91dCBhYm91dCBjeWJlcnNlY3VyaXR5IGluIGdlbmVyYWwsIHNheWluZyBzaGUgZGVlbXMgQXBwbGUgcHJvZHVjdHMgdGhlIGJlc3Qu</t>
+          <t>QSBmb3JtZXIgRkJJIGFnZW50IGFuZCBjeWJlcnNlY3VyaXR5IGV4cGVydCBzaGFyZXMga2V5IGludGVybmV0IHNhZmV0eSB0aXBzIHRvIHByb3RlY3QgYWdhaW5zdCBmaW5hbmNpYWwgY3JpbWVzLCBkZWVwZmFrZXMsIGFuZCBvbmxpbmUgdGhyZWF0cy4=</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Q2hlbHNlYSBNYW5uaW5nIHNheXMgc2hlIHRoaW5rcyBBcHBsZSBoYXMgdGhlIGJlc3Qgc2VjdXJpdHkgYW1vbmcgQmlnIFRlY2ggY29tcGFuaWVzIOKAlCBhbmQgc2F5cyBzaGUgYXZvaWRzIE1pY3Jvc29mdCBhbmQgR29vZ2xlIHByb2R1Y3RzLkdldHR5IEltYWdlcw0KPHVsPjxsaT5DaGVsc2VhIE1hbm5pbmcgaXMgdGhlIGZhY2Ugb2YgYSBuZXcgVlBO4oCmIFsrNTEyNiBjaGFyc10=</t>
+          <t>U29tZSBzYWZldHkgbWVhc3VyZXMgYXJlIHNvIHNpbXBsZSB3ZSBzb21ldGltZXMgZm9yZ2V0IHRvIHRha2UgdGhlbSBhdCBhbGwsIHNheXMgZm9ybWVyIEZCSSBhZ2VudCBKYXNvbiBIb2dnLkphc29uIEhvZ2cNCjx1bD48bGk+Rm9ybWVyIEZCSSBhZ2VudCBKYXNvbiBIb2dnIHNoYXJlZCBmaXZlIHRpcHMgdG8gc3RheSBzYWZlIG9ubGluZS48L2xpPuKApiBbKzQyNjQgY2hhcnNd</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9jeWJlcnNlY3VyaXR5LWNoZWxzZWEtbWFubmluZy1hdm9pZC1nb29nbGUtbWljcm9zb2Z0LWZhdm9yLWFwcGxlLXZwbi1wcml2YWN5LTIwMjQtMTA=</t>
+          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9mb3JtZXItZmJpLWFnZW50LXNoYXJlcy01LXByZWNhdXRpb25zLWhlLXdvdWxkLXRha2Utb25saW5lLTIwMjQtOQ==</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
+          <t>U2xhc2hkb3Qub3Jn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SSd2ZSBidWlsdCBhIGNhcmVlciBpbiBldGhpY2FsIGhhY2tpbmcuIE9ubGluZSBzY2FtcyBhcmUgZ2V0dGluZyBtdWNoLCBtdWNoIHdvcnNlIOKAlCBhbmQgQUkgaXNuJ3QgaGVscGluZy4=</t>
+          <t>QXBwbGUgRml4ZXMgQnVncyBpbiBtYWNPUyBTZXF1b2lhIFRoYXQgQnJva2UgU29tZSBDeWJlcnNlY3VyaXR5IFRvb2xz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RW1tYSBNYWdudXM=</t>
+          <t>bXNtYXNo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TGF1cmEgS2Fua2FhbGEsIHdob3NlIHdvcmtlZCBpbiBjeWJlcnNlY3VyaXR5IGZvciAxMCB5ZWFycywgc2FpZCB0aGF0IG9ubGluZSBzY2FtcyBhcmUgYmVjb21pbmcgbW9yZSBjb21wbGV4IGFuZCBlYXNpZXIgZm9yIGNyaW1pbmFscyB0byBleGVjdXRlLg==</t>
+          <t>QXBwbGUgaGFzIHJvbGxlZCBvdXQgYW4gdXBkYXRlIHRvIG1hY09TIDE1IFNlcXVvaWEgdGhhdCBhZGRyZXNzZXMgY29tcGF0aWJpbGl0eSBpc3N1ZXMgd2l0aCB0aGlyZC1wYXJ0eSBzZWN1cml0eSBzb2Z0d2FyZSB0aGF0IGVtZXJnZWQgaW4gdGhlIGluaXRpYWwgcmVsZWFzZS4gVGhlIHVwZGF0ZSwgbWFjT1MgMTUuMC4xLCBhaW1zIHRvIHJlc29sdmUgcHJvYmxlbXMgYWZmZWN0aW5nIHByb2R1Y3RzIGZyb20gQ3Jvd2RTdHJpa2UgYW5kIE1pY3Jvc29mdOKApg==</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TGF1cmEgS2Fua2FhbGEsIGhlYWQgb2YgdGhyZWF0IGF0IGEgRmlubmlzaCBjeWJlcnNlY3VyaXR5IGZpcm0sIGhhcyBiZWVuIHdvcmtpbmcgaW4gdGhlIGluZHVzdHJ5IGZvciAxMCB5ZWFycy5Db3VydGVzeSBvZiBGLVNlY3VyZQ0KPHVsPjxsaT5MYXVyYSBLYW5rYWFsYSBzdGFydGVkIGFzIGEgd2hpdGUtaGF0IGhhY2tlciBhbmQgbm93IHdvcmtzIOKApiBbKzU4NDUgY2hhcnNd</t>
+          <t>VGhlIEZpbmUgUHJpbnQ6IFRoZSBmb2xsb3dpbmcgY29tbWVudHMgYXJlIG93bmVkIGJ5IHdob2V2ZXIgcG9zdGVkIHRoZW0uIFdlIGFyZSBub3QgcmVzcG9uc2libGUgZm9yIHRoZW0gaW4gYW55IHdheS4=</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9oYWNrZXItb25saW5lLXNjYW1zLWdldHRpbmctd29yc2UtYWktY3liZXJzZWN1cml0eS1leHBlcnQtMjAyNC05</t>
+          <t>aHR0cHM6Ly9hcHBsZS5zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMTAvMDcvMTg0NzIyOS9hcHBsZS1maXhlcy1idWdzLWluLW1hY29zLXNlcXVvaWEtdGhhdC1icm9rZS1zb21lLWN5YmVyc2VjdXJpdHktdG9vbHM=</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
+          <t>U2xhc2hkb3Qub3Jn</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SSdtIGEgZm9ybWVyIEZCSSBhZ2VudCBhbmQgY3liZXJzZWN1cml0eSBleHBlcnQuIEhlcmUgYXJlIDUgdGhpbmdzIGV2ZXJ5b25lIHNob3VsZCBkbyB0byBvdXRzbWFydCBvbmxpbmUgY3JpbWluYWxzLg==</t>
+          <t>RmFrZSBHb29nbGUgTWVldCBDb25mZXJlbmNlIEVycm9ycyBQdXNoIEluZm9zdGVhbGluZyBNYWx3YXJl</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SGFubmFoIEFicmFoYW0=</t>
+          <t>QmVhdUhE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>QSBmb3JtZXIgRkJJIGFnZW50IGFuZCBjeWJlcnNlY3VyaXR5IGV4cGVydCBzaGFyZXMga2V5IGludGVybmV0IHNhZmV0eSB0aXBzIHRvIHByb3RlY3QgYWdhaW5zdCBmaW5hbmNpYWwgY3JpbWVzLCBkZWVwZmFrZXMsIGFuZCBvbmxpbmUgdGhyZWF0cy4=</t>
+          <t>QW4gYW5vbnltb3VzIHJlYWRlciBxdW90ZXMgYSByZXBvcnQgZnJvbSBCbGVlcGluZ0NvbXB1dGVyOiBBIG5ldyBDbGlja0ZpeCBjYW1wYWlnbiBpcyBsdXJpbmcgdXNlcnMgdG8gZnJhdWR1bGVudCBHb29nbGUgTWVldCBjb25mZXJlbmNlIHBhZ2VzIHNob3dpbmcgZmFrZSBjb25uZWN0aXZpdHkgZXJyb3JzIHRoYXQgZGVsaXZlciBpbmZvLXN0ZWFsaW5nIG1hbHdhcmUgZm9yIFdpbmRvd3MgYW5kIG1hY09TIG9wZXJhdGluZyBzeXN0ZW1zLiBDbGlja0ZpeOKApg==</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>U29tZSBzYWZldHkgbWVhc3VyZXMgYXJlIHNvIHNpbXBsZSB3ZSBzb21ldGltZXMgZm9yZ2V0IHRvIHRha2UgdGhlbSBhdCBhbGwsIHNheXMgZm9ybWVyIEZCSSBhZ2VudCBKYXNvbiBIb2dnLkphc29uIEhvZ2cNCjx1bD48bGk+Rm9ybWVyIEZCSSBhZ2VudCBKYXNvbiBIb2dnIHNoYXJlZCBmaXZlIHRpcHMgdG8gc3RheSBzYWZlIG9ubGluZS48L2xpPuKApiBbKzQyNjQgY2hhcnNd</t>
+          <t>QSBuZXcgQ2xpY2tGaXggY2FtcGFpZ24gaXMgbHVyaW5nIHVzZXJzIHRvIGZyYXVkdWxlbnQgR29vZ2xlIE1lZXQgY29uZmVyZW5jZSBwYWdlcyBzaG93aW5nIGZha2UgY29ubmVjdGl2aXR5IGVycm9ycyB0aGF0IGRlbGl2ZXIgaW5mby1zdGVhbGluZyBtYWx3YXJlIGZvciBXaW5kb3dzIGFuZCBtYWNPUyBvcGVyYXRpbmcgc3lzdGVtcy4gQ2xpY2tGaeKApiBbKzExNTkgY2hhcnNd</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9mb3JtZXItZmJpLWFnZW50LXNoYXJlcy01LXByZWNhdXRpb25zLWhlLXdvdWxkLXRha2Utb25saW5lLTIwMjQtOQ==</t>
+          <t>aHR0cHM6Ly9pdC5zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMTAvMTcvMjE1NjIxNC9mYWtlLWdvb2dsZS1tZWV0LWNvbmZlcmVuY2UtZXJyb3JzLXB1c2gtaW5mb3N0ZWFsaW5nLW1hbHdhcmU=</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>U2xhc2hkb3Qub3Jn</t>
+          <t>V2lyZWQ=</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>QXBwbGUgRml4ZXMgQnVncyBpbiBtYWNPUyBTZXF1b2lhIFRoYXQgQnJva2UgU29tZSBDeWJlcnNlY3VyaXR5IFRvb2xz</t>
+          <t>SGFja2VyIENoYXJnZWQgV2l0aCBTZWVraW5nIHRvIEtpbGwgVXNpbmcgQ3liZXJhdHRhY2tzIG9uIEhvc3BpdGFscw==</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>bXNtYXNo</t>
+          <t>QW5keSBHcmVlbmJlcmc=</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>QXBwbGUgaGFzIHJvbGxlZCBvdXQgYW4gdXBkYXRlIHRvIG1hY09TIDE1IFNlcXVvaWEgdGhhdCBhZGRyZXNzZXMgY29tcGF0aWJpbGl0eSBpc3N1ZXMgd2l0aCB0aGlyZC1wYXJ0eSBzZWN1cml0eSBzb2Z0d2FyZSB0aGF0IGVtZXJnZWQgaW4gdGhlIGluaXRpYWwgcmVsZWFzZS4gVGhlIHVwZGF0ZSwgbWFjT1MgMTUuMC4xLCBhaW1zIHRvIHJlc29sdmUgcHJvYmxlbXMgYWZmZWN0aW5nIHByb2R1Y3RzIGZyb20gQ3Jvd2RTdHJpa2UgYW5kIE1pY3Jvc29mdOKApg==</t>
+          <t>VGhlIFVTIGhhcyBhY2N1c2VkIHR3byBicm90aGVycyBvZiBiZWluZyBwYXJ0IG9mIHRoZSBoYWNrZXIgZ3JvdXAgQW5vbnltb3VzIFN1ZGFuLCB3aGljaCBhbGxlZ2VkbHkgd2VudCBvbiBhIHdpbGQgY3liZXJhdHRhY2sgc3ByZWUgdGhhdCBoaXQgdGhvdXNhbmRzIG9mIHRhcmdldHPigJRhbmQsIGZvciBvbmUgb2YgdGhlIHR3byBtZW4sIGV2ZW4gcHV0IGxpdmVzIGF0IHJpc2su</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>VGhlIEZpbmUgUHJpbnQ6IFRoZSBmb2xsb3dpbmcgY29tbWVudHMgYXJlIG93bmVkIGJ5IHdob2V2ZXIgcG9zdGVkIHRoZW0uIFdlIGFyZSBub3QgcmVzcG9uc2libGUgZm9yIHRoZW0gaW4gYW55IHdheS4=</t>
+          <t>V2Ugd2lsbCBjb250aW51ZSB0YXJnZXRpbmcgQ2hhdEdQVCB1bnRpbCB0aGUgZ2Vub2NpZGUgc3VwcG9ydGVyLCBUYWwgQnJvZGEsIGlzIGZpcmVkIGFuZCBDaGF0R1BUIHN0b3BzIGhhdmluZyBkZWh1bWFuaXppbmcgdmlld3Mgb2YgUGFsZXN0aW5pYW5zLCIgQW5vbnltb3VzIFN1ZGFuIHJlc3BvbmRlZCBpbiBhIFRlbGVncmFtIHBvc3QgZXhwbGFpbuKApiBbKzMwNjEgY2hhcnNd</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9hcHBsZS5zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMTAvMDcvMTg0NzIyOS9hcHBsZS1maXhlcy1idWdzLWluLW1hY29zLXNlcXVvaWEtdGhhdC1icm9rZS1zb21lLWN5YmVyc2VjdXJpdHktdG9vbHM=</t>
+          <t>aHR0cHM6Ly93d3cud2lyZWQuY29tL3N0b3J5L2Fub255bW91cy1zdWRhbi1kZG9zLWluZGljdG1lbnQtdGFrZWRvd24v</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VmVudHVyZUJlYXQ=</t>
+          <t>R2l6bW9kby5jb20=</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>QnVpbGRpbmcgYW5kIHNlY3VyaW5nIGEgZ292ZXJuZWQgQUkgaW5mcmFzdHJ1Y3R1cmUgZm9yIHRoZSBmdXR1cmU=</t>
+          <t>QW4gRXhwbG9pdCBpbiBRdWFsY29tbSBDaGlwcyBMZXQgSGFja2VycyBQb3RlbnRpYWxseSBBY2Nlc3MgSGlnaC1FbmQgQW5kcm9pZCBQaG9uZXM=</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TG91aXMgQ29sdW1idXM=</t>
+          <t>S3lsZSBCYXJy</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R2V0dGluZyBjb21wbGlhbmNlLCBjeWJlcnNlY3VyaXR5LCBhbmQgZ292ZXJuYW5jZSBvcmNoZXN0cmF0ZWQgYXMgcGFydCBvZiBhbiBBSSBpbmZyYXN0cnVjdHVyZSBoZWxwcyBBSSB0ZWFtcyBmaW5kIHJvYWRibG9ja3Mu</t>
+          <t>UXVhbGNvbW0gY2hpcHMgZm91bmQgaW4gU2Ftc3VuZywgTW90b3JvbGEsIE9uZVBsdXMsIGFuZCBtb3JlIGJyYW5kc+KAmSBwaG9uZXMgY291bGQgaGF2ZSBiZWVuIGV4cGxvaXRlZCwgYnV0IHdlIGRvbuKAmXQga25vdyB0byB3aGF0IGV4dGVudC4=</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sm9pbiBvdXIgZGFpbHkgYW5kIHdlZWtseSBuZXdzbGV0dGVycyBmb3IgdGhlIGxhdGVzdCB1cGRhdGVzIGFuZCBleGNsdXNpdmUgY29udGVudCBvbiBpbmR1c3RyeS1sZWFkaW5nIEFJIGNvdmVyYWdlLiBMZWFybiBNb3JlDQpVbmxvY2tpbmcgQUlzIHBvdGVudGlhbCB0byBkZWxpdmVyIGdyZWF0ZXIgZWZmaWNpZW5jeSwgY29zdCBzYXZpbmdzIGFuZOKApiBbKzg5NDEgY2hhcnNd</t>
+          <t>UXVhbGNvbW0gb2ZmZXJlZCBhIGZldyBzcGFyc2UgZGV0YWlscyBhYm91dCBhIHNlY3VyaXR5IGV4cGxvaXQgaGFja2VycyBjb3VsZCBoYXZlIHVzZWQgb24gYSBtdWx0aXR1ZGUgb2YgcGhvbmVzIGFuZCB0YWJsZXRzIGZyb20gbWFqb3IgZGV2aWNlIG1ha2Vycy4gVGhlIGlzc3VlIGhhcyBiZWVuIHBhdGNoZWQsIGJ1dCB3ZSBzdGlsbCBkb250IGhhduKApiBbKzIwNDcgY2hhcnNd</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly92ZW50dXJlYmVhdC5jb20vc2VjdXJpdHkvYnVpbGRpbmctYW5kLXNlY3VyaW5nLWEtZ292ZXJuZWQtYWktaW5mcmFzdHJ1Y3R1cmUtZm9yLXRoZS1mdXR1cmUv</t>
+          <t>aHR0cHM6Ly9naXptb2RvLmNvbS9hbi1leHBsb2l0LWluLXF1YWxjb21tLWNoaXBzLWxldC1oYWNrZXJzLXBvdGVudGlhbGx5LWFjY2Vzcy1oaWdoLWVuZC1hbmRyb2lkLXBob25lcy0yMDAwNTEwMzEz</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>U2xhc2hkb3Qub3Jn</t>
+          <t>Rm94IE5ld3M=</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RmFrZSBHb29nbGUgTWVldCBDb25mZXJlbmNlIEVycm9ycyBQdXNoIEluZm9zdGVhbGluZyBNYWx3YXJl</t>
+          <t>VGhlc2UgYXJlIHRoZSA3IG1vc3QgZGV2YXN0YXRpbmcgZGF0YSBicmVhY2hlcy4gTm93IHdoYXQ/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>QmVhdUhE</t>
+          <t>S3VydCBLbnV0c3NvbiwgQ3liZXJHdXkgUmVwb3J0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>QW4gYW5vbnltb3VzIHJlYWRlciBxdW90ZXMgYSByZXBvcnQgZnJvbSBCbGVlcGluZ0NvbXB1dGVyOiBBIG5ldyBDbGlja0ZpeCBjYW1wYWlnbiBpcyBsdXJpbmcgdXNlcnMgdG8gZnJhdWR1bGVudCBHb29nbGUgTWVldCBjb25mZXJlbmNlIHBhZ2VzIHNob3dpbmcgZmFrZSBjb25uZWN0aXZpdHkgZXJyb3JzIHRoYXQgZGVsaXZlciBpbmZvLXN0ZWFsaW5nIG1hbHdhcmUgZm9yIFdpbmRvd3MgYW5kIG1hY09TIG9wZXJhdGluZyBzeXN0ZW1zLiBDbGlja0ZpeOKApg==</t>
+          <t>S3VydCDigJxDeWJlckd1eSIgS251dHNzb246IERhdGEgYnJlYWNoZXMgaW4gMjAyNCBleHBvc2VkIGluZm8gb2YgbWlsbGlvbnMsIHN0cmVzc2luZyB0aGUgbmVlZCBmb3IgYmV0dGVyIGN5YmVyc2VjdXJpdHku</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>QSBuZXcgQ2xpY2tGaXggY2FtcGFpZ24gaXMgbHVyaW5nIHVzZXJzIHRvIGZyYXVkdWxlbnQgR29vZ2xlIE1lZXQgY29uZmVyZW5jZSBwYWdlcyBzaG93aW5nIGZha2UgY29ubmVjdGl2aXR5IGVycm9ycyB0aGF0IGRlbGl2ZXIgaW5mby1zdGVhbGluZyBtYWx3YXJlIGZvciBXaW5kb3dzIGFuZCBtYWNPUyBvcGVyYXRpbmcgc3lzdGVtcy4gQ2xpY2tGaeKApiBbKzExNTkgY2hhcnNd</t>
+          <t>SW4gcmVjZW50IG1vbnRocywgd2UndmUgd2l0bmVzc2VkIGEgc2hvY2tpbmcgd2F2ZSBvZiBkYXRhIGJyZWFjaGVzIHRoYXQgaGF2ZSBwdXQgdGhlIHBlcnNvbmFsIGluZm9ybWF0aW9uIG9mIG1pbGxpb25zIGF0IHJpc2suIFdpdGggb3VyIG9ubGluZSBsaXZlcyBiZWNvbWluZyBtb3JlIGV4cG9zZWQgdGhhbiBldmVyLCBpdCdzIGVzc2VudGlhbCB0b+KApiBbKzE0ODc1IGNoYXJzXQ==</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9pdC5zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMTAvMTcvMjE1NjIxNC9mYWtlLWdvb2dsZS1tZWV0LWNvbmZlcmVuY2UtZXJyb3JzLXB1c2gtaW5mb3N0ZWFsaW5nLW1hbHdhcmU=</t>
+          <t>aHR0cHM6Ly93d3cuZm94bmV3cy5jb20vdGVjaC83LW1vc3QtZGV2YXN0YXRpbmctZGF0YS1icmVhY2hlcy1ub3ctd2hhdA==</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>V2lyZWQ=</t>
+          <t>Rm94IE5ld3M=</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SGFja2VyIENoYXJnZWQgV2l0aCBTZWVraW5nIHRvIEtpbGwgVXNpbmcgQ3liZXJhdHRhY2tzIG9uIEhvc3BpdGFscw==</t>
+          <t>RGVjZXB0aW9uIGluIGRlbW9jcmFjeTogQmV3YXJlIHRoZSBtb3N0IGNvbW1vbiB0eXBlcyBvZiBlbGVjdGlvbi1yZWxhdGVkIHNjYW1z</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>QW5keSBHcmVlbmJlcmc=</t>
+          <t>S3VydCBLbnV0c3NvbiwgQ3liZXJHdXkgUmVwb3J0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VGhlIFVTIGhhcyBhY2N1c2VkIHR3byBicm90aGVycyBvZiBiZWluZyBwYXJ0IG9mIHRoZSBoYWNrZXIgZ3JvdXAgQW5vbnltb3VzIFN1ZGFuLCB3aGljaCBhbGxlZ2VkbHkgd2VudCBvbiBhIHdpbGQgY3liZXJhdHRhY2sgc3ByZWUgdGhhdCBoaXQgdGhvdXNhbmRzIG9mIHRhcmdldHPigJRhbmQsIGZvciBvbmUgb2YgdGhlIHR3byBtZW4sIGV2ZW4gcHV0IGxpdmVzIGF0IHJpc2su</t>
+          <t>Q3liZXJzZWN1cml0eSByaXNrcyBhcmUgcmFtcGluZyB1cCBhcyB0aGUgTm92LiA1IFUuUy4gZ2VuZXJhbCBlbGVjdGlvbiBhcHByb2FjaGVzLiBTb2NpYWwgbWVkaWEgYW5kIHRoZSBpbnRlcm5ldCBhcmUgdXNlZCB0byBzcHJlYWQgcHJvcGFnYW5kYS4=</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>V2Ugd2lsbCBjb250aW51ZSB0YXJnZXRpbmcgQ2hhdEdQVCB1bnRpbCB0aGUgZ2Vub2NpZGUgc3VwcG9ydGVyLCBUYWwgQnJvZGEsIGlzIGZpcmVkIGFuZCBDaGF0R1BUIHN0b3BzIGhhdmluZyBkZWh1bWFuaXppbmcgdmlld3Mgb2YgUGFsZXN0aW5pYW5zLCIgQW5vbnltb3VzIFN1ZGFuIHJlc3BvbmRlZCBpbiBhIFRlbGVncmFtIHBvc3QgZXhwbGFpbuKApiBbKzMwNjEgY2hhcnNd</t>
+          <t>RWxlY3Rpb25zIGFyZSBvbmUgb2YgdGhlIG1vc3QgY3J1Y2lhbCBwYXJ0cyBvZiBhbnkgZGVtb2NyYWN5LCBhbmQgdW5mb3J0dW5hdGVseSB0aGF0IGFsc28gbWVhbnMgYmFkIGFjdG9ycyB0cnkgdG8gdHdpc3QgdGhpbmdzIGZvciB0aGVpciBvd24gZ2Fpbi7CoA0KV2l0aCB0aGUgVS5TLiBnZW5lcmFsIGVsZWN0aW9ucyBqdXN0IGFyb3VuZCB0aGUgY2/igKYgWysxMTA4NSBjaGFyc10=</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cud2lyZWQuY29tL3N0b3J5L2Fub255bW91cy1zdWRhbi1kZG9zLWluZGljdG1lbnQtdGFrZWRvd24v</t>
+          <t>aHR0cHM6Ly93d3cuZm94bmV3cy5jb20vdGVjaC9kZWNlcHRpb24tZGVtb2NyYWN5LWJld2FyZS1tb3N0LWNvbW1vbi10eXBlcy1lbGVjdGlvbi1yZWxhdGVkLXNjYW1z</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R2l6bW9kby5jb20=</t>
+          <t>QW5kcm9pZCBQb2xpY2U=</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>QW4gRXhwbG9pdCBpbiBRdWFsY29tbSBDaGlwcyBMZXQgSGFja2VycyBQb3RlbnRpYWxseSBBY2Nlc3MgSGlnaC1FbmQgQW5kcm9pZCBQaG9uZXM=</t>
+          <t>VC1Nb2JpbGUganVzdCBnb3QgaGl0IHdpdGggYSAkMTVNTSByZW1pbmRlciBmcm9tIHRoZSBGQ0MgdG8gbm90IGdldCBoYWNrZWQgYXMgb2Z0ZW4=</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>S3lsZSBCYXJy</t>
+          <t>QW51cmFnIFNpbmdo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>UXVhbGNvbW0gY2hpcHMgZm91bmQgaW4gU2Ftc3VuZywgTW90b3JvbGEsIE9uZVBsdXMsIGFuZCBtb3JlIGJyYW5kc+KAmSBwaG9uZXMgY291bGQgaGF2ZSBiZWVuIGV4cGxvaXRlZCwgYnV0IHdlIGRvbuKAmXQga25vdyB0byB3aGF0IGV4dGVudC4=</t>
+          <t>VGhlIHNhbWUgYW1vdW50IGhhcyB0byBiZSBpbnZlc3RlZCBpbiBjeWJlcnNlY3VyaXR5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>UXVhbGNvbW0gb2ZmZXJlZCBhIGZldyBzcGFyc2UgZGV0YWlscyBhYm91dCBhIHNlY3VyaXR5IGV4cGxvaXQgaGFja2VycyBjb3VsZCBoYXZlIHVzZWQgb24gYSBtdWx0aXR1ZGUgb2YgcGhvbmVzIGFuZCB0YWJsZXRzIGZyb20gbWFqb3IgZGV2aWNlIG1ha2Vycy4gVGhlIGlzc3VlIGhhcyBiZWVuIHBhdGNoZWQsIGJ1dCB3ZSBzdGlsbCBkb250IGhhduKApiBbKzIwNDcgY2hhcnNd</t>
+          <t>S2V5IFRha2Vhd2F5cw0KPHVsPjxsaT4gVC1Nb2JpbGUgaXMgaW52ZXN0aW5nICQxNS43NU1NIGluIGN5YmVyc2VjdXJpdHkgdXBncmFkZXMgYXMgcGFydCBvZiBhIHNldHRsZW1lbnQgd2l0aCB0aGUgRkNDLCBhbHNvIHBheWluZyB0aGUgc2FtZSBhbW91bnQgaW4gY2l2aWwgcGVuYWx0aWVzLiA8L2xpPjxsaT4gVGhlIHNldHRsZW1lbnQgZm9sbG93c+KApiBbKzI4NDggY2hhcnNd</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9naXptb2RvLmNvbS9hbi1leHBsb2l0LWluLXF1YWxjb21tLWNoaXBzLWxldC1oYWNrZXJzLXBvdGVudGlhbGx5LWFjY2Vzcy1oaWdoLWVuZC1hbmRyb2lkLXBob25lcy0yMDAwNTEwMzEz</t>
+          <t>aHR0cHM6Ly93d3cuYW5kcm9pZHBvbGljZS5jb20vZmNjLWZvcmNpbmctdC1tb2JpbGUtc3RvcC1nZXR0aW5nLWhhY2tlZC8=</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>QUJDIE5ld3M=</t>
+          <t>V2lyZWQ=</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Q3Jvd2RTdHJpa2UgZXhlY3V0aXZlIGFwb2xvZ2l6ZXMgdG8gQ29uZ3Jlc3MgZm9yIEp1bHkgZ2xvYmFsIHRlY2ggb3V0YWdl</t>
+          <t>V2hhdCBHb29nbGUncyBVLVR1cm4gb24gVGhpcmQtUGFydHkgQ29va2llcyBNZWFucyBmb3IgQ2hyb21lIFByaXZhY3k=</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>VGhlIEFzc29jaWF0ZWQgUHJlc3M=</t>
+          <t>S2F0ZSBPJ0ZsYWhlcnR5</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>QW4gZXhlY3V0aXZlIGF0IGN5YmVyc2VjdXJpdHkgY29tcGFueSBDcm93ZFN0cmlrZSBhcG9sb2dpemVkIGluIHRlc3RpbW9ueSB0byBDb25ncmVzcyBmb3Igc3BhcmtpbmcgYSBnbG9iYWwgdGVjaG5vbG9neSBvdXRhZ2Ugb3ZlciB0aGUgc3VtbWVy</t>
+          <t>RWFybGllciB0aGlzIHllYXIsIEdvb2dsZSBkaXRjaGVkIGl0cyBwbGFucyB0byBhYm9saXNoIHN1cHBvcnQgZm9yIHRoaXJkLXBhcnR5IGNvb2tpZXMgaW4gaXRzIENocm9tZSBicm93c2VyLiBXaGlsZSBwcml2YWN5IGFkdm9jYXRlcyBjYWxsZWQgZm91bCwgdGhlIGltcGxpY2F0aW9ucyBmb3IgdXNlcnMgaXMgbm90IHNvIGNsZWFyIGN1dC4=</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>V0FTSElOR1RPTiAtLSBBbiBleGVjdXRpdmUgYXQgY3liZXJzZWN1cml0eSBjb21wYW55IENyb3dkU3RyaWtlIGFwb2xvZ2l6ZWQgaW4gdGVzdGltb255IHRvIENvbmdyZXNzIGZvciBzcGFya2luZyBhIGdsb2JhbCB0ZWNobm9sb2d5IG91dGFnZSBvdmVyIHRoZSBzdW1tZXIuDQpXZSBsZXQgb3VyIGN1c3RvbWVycyBkb3duLCBzYWlkIEFkYW0gTWV5ZeKApiBbKzg5MCBjaGFyc10=</t>
+          <t>VGhlIGFwcGFyZW50IGRlYXRoIG9mIGNvb2tpZXMgYWxzbyB3b250IG1hdHRlciBtdWNoIHRvIEdvb2dsZSwgd2hpY2ggaGFzIGEgdG9uIG9mIGRhdGEgZnJvbSBtdWx0aXBsZSBzZXJ2aWNlcyBpbiBhZGRpdGlvbiB0byBDaHJvbWUgYW5kIGNhbiB0YXJnZXQgcGVvcGxlIHdpdGhvdXQgY29va2llcy4NCkFjY29yZGluZyB0b8KgR29vZ2xlJ3MgMjAyMyDigKYgWyszNzI5IGNoYXJzXQ==</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9hYmNuZXdzLmdvLmNvbS9VUy93aXJlU3RvcnkvY3Jvd2RzdHJpa2UtZXhlY3V0aXZlLWFwb2xvZ2l6ZXMtY29uZ3Jlc3MtanVseS1nbG9iYWwtdGVjaC1vdXRhZ2UtMTE0MDc3NzU4</t>
+          <t>aHR0cHM6Ly93d3cud2lyZWQuY29tL3N0b3J5L2dvb2dsZS1jaHJvbWUtdGhpcmQtcGFydHktY29va2llcy1wcml2YWN5LXJvbGxiYWNrLw==</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rm94IE5ld3M=</t>
+          <t>U2xhc2hkb3Qub3Jn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VGhlc2UgYXJlIHRoZSA3IG1vc3QgZGV2YXN0YXRpbmcgZGF0YSBicmVhY2hlcy4gTm93IHdoYXQ/</t>
+          <t>T3BlbkFJIFNheXMgQ2hpbmEtTGlua2VkIEdyb3VwIFRyaWVkIHRvIFBoaXNoIEl0cyBFbXBsb3llZXM=</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>S3VydCBLbnV0c3NvbiwgQ3liZXJHdXkgUmVwb3J0</t>
+          <t>bXNtYXNo</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>S3VydCDigJxDeWJlckd1eSIgS251dHNzb246IERhdGEgYnJlYWNoZXMgaW4gMjAyNCBleHBvc2VkIGluZm8gb2YgbWlsbGlvbnMsIHN0cmVzc2luZyB0aGUgbmVlZCBmb3IgYmV0dGVyIGN5YmVyc2VjdXJpdHku</t>
+          <t>T3BlbkFJIHNhaWQgYSBncm91cCB3aXRoIGFwcGFyZW50IHRpZXMgdG8gQ2hpbmEgdHJpZWQgdG8gY2Fycnkgb3V0IGEgcGhpc2hpbmcgYXR0YWNrIG9uIGl0cyBlbXBsb3llZXMsIHJlaWduaXRpbmcgY29uY2VybnMgdGhhdCBiYWQgYWN0b3JzIGluIEJlaWppbmcgd2FudCB0byBzdGVhbCBzZW5zaXRpdmUgaW5mb3JtYXRpb24gZnJvbSB0b3AgVVMgYXJ0aWZpY2lhbCBpbnRlbGxpZ2VuY2UgY29tcGFuaWVzLiBGcm9tIGEgcmVwb3J0OiBUaGUgQUkgc3RhcuKApg==</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SW4gcmVjZW50IG1vbnRocywgd2UndmUgd2l0bmVzc2VkIGEgc2hvY2tpbmcgd2F2ZSBvZiBkYXRhIGJyZWFjaGVzIHRoYXQgaGF2ZSBwdXQgdGhlIHBlcnNvbmFsIGluZm9ybWF0aW9uIG9mIG1pbGxpb25zIGF0IHJpc2suIFdpdGggb3VyIG9ubGluZSBsaXZlcyBiZWNvbWluZyBtb3JlIGV4cG9zZWQgdGhhbiBldmVyLCBpdCdzIGVzc2VudGlhbCB0b+KApiBbKzE0ODc1IGNoYXJzXQ==</t>
+          <t>VGhlIEFJIHN0YXJ0dXAgc2FpZCBXZWRuZXNkYXkgdGhhdCBhIHN1c3BlY3RlZCBDaGluYS1iYXNlZCBncm91cCBjYWxsZWQgU3dlZXRTcGVjdGVyIHBvc2VkIGFzIGEgdXNlciBvZiBPcGVuQUkncyBjaGF0Ym90IENoYXRHUFQgZWFybGllciB0aGlzIHllYXIgYW5kIHNlbnQgY3VzdG9tZXIgc3VwcG9ydCBlbWFpbHMgdG8gc3RhZmYuIFRoZSBlbWFpbOKApiBbKzY5MiBjaGFyc10=</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZm94bmV3cy5jb20vdGVjaC83LW1vc3QtZGV2YXN0YXRpbmctZGF0YS1icmVhY2hlcy1ub3ctd2hhdA==</t>
+          <t>aHR0cHM6Ly9pdC5zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMTAvMDkvMTUxNTIyNi9vcGVuYWktc2F5cy1jaGluYS1saW5rZWQtZ3JvdXAtdHJpZWQtdG8tcGhpc2gtaXRzLWVtcGxveWVlcw==</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rm94IE5ld3M=</t>
+          <t>R2l6bW9kby5jb20=</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RGVjZXB0aW9uIGluIGRlbW9jcmFjeTogQmV3YXJlIHRoZSBtb3N0IGNvbW1vbiB0eXBlcyBvZiBlbGVjdGlvbi1yZWxhdGVkIHNjYW1z</t>
+          <t>U3RheSBTYWZlIGluIGEgRGFuZ2Vyb3VzIFdvcmxkOiBCaXRkZWZlbmRlciBVbmxlYXNoZXMgYSBCbGFjayBGcmlkYXkgRGVhbCBvbiBJdHMgQW50aXZpcnVzIFNvbHV0aW9ucyAoNTAlIE9mZik=</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>S3VydCBLbnV0c3NvbiwgQ3liZXJHdXkgUmVwb3J0</t>
+          <t>R2l6bW9kbyBEZWFscw==</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSByaXNrcyBhcmUgcmFtcGluZyB1cCBhcyB0aGUgTm92LiA1IFUuUy4gZ2VuZXJhbCBlbGVjdGlvbiBhcHByb2FjaGVzLiBTb2NpYWwgbWVkaWEgYW5kIHRoZSBpbnRlcm5ldCBhcmUgdXNlZCB0byBzcHJlYWQgcHJvcGFnYW5kYS4=</t>
+          <t>SW4gYSB3b3JsZCB3aGVyZSBjeWJlciB0aHJlYXRzIGFyZSBvbiB0aGUgcmlzZSwgQml0ZGVmZW5kZXIncyByYXJlIG9mZmVycyBwcmVzZW50IGEgdGltZWx5IG9wcG9ydHVuaXR5IHRvIGJvbHN0ZXIgeW91ciBkaWdpdGFsIHNlY3VyaXR5Lg==</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RWxlY3Rpb25zIGFyZSBvbmUgb2YgdGhlIG1vc3QgY3J1Y2lhbCBwYXJ0cyBvZiBhbnkgZGVtb2NyYWN5LCBhbmQgdW5mb3J0dW5hdGVseSB0aGF0IGFsc28gbWVhbnMgYmFkIGFjdG9ycyB0cnkgdG8gdHdpc3QgdGhpbmdzIGZvciB0aGVpciBvd24gZ2Fpbi7CoA0KV2l0aCB0aGUgVS5TLiBnZW5lcmFsIGVsZWN0aW9ucyBqdXN0IGFyb3VuZCB0aGUgY2/igKYgWysxMTA4NSBjaGFyc10=</t>
+          <t>Qml0ZGVmZW5kZXIgaXMgYSBsZWFkaW5nIG5hbWUgaW4gdGhlIGN5YmVyc2VjdXJpdHkgaW5kdXN0cnkgd2l0aCBvdmVyIDQwMCBtaWxsaW9uIHVzZXJzIHdvcmxkd2lkZSBhbmQgaXQgaXMgY3VycmVudGx5IHJ1bm5pbmcgZXhjaXRpbmcgcHJvbW90aW9ucyBvbiBpdHMgYW50aXZpcnVzIHNvbHV0aW9ucy4gVGhlc2Ugb2ZmZXJzIHByZXNlbnQgYW4gZeKApiBbKzM4OTIgY2hhcnNd</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZm94bmV3cy5jb20vdGVjaC9kZWNlcHRpb24tZGVtb2NyYWN5LWJld2FyZS1tb3N0LWNvbW1vbi10eXBlcy1lbGVjdGlvbi1yZWxhdGVkLXNjYW1z</t>
+          <t>aHR0cHM6Ly9naXptb2RvLmNvbS9zdGF5LXNhZmUtaW4tYS1kYW5nZXJvdXMtd29ybGQtYml0ZGVmZW5kZXItdW5sZWFzaGVzLWEtYmxhY2stZnJpZGF5LWRlYWwtb24taXRzLWFudGl2aXJ1cy1zb2x1dGlvbnMtNTAtb2ZmLTIwMDA1MDU1MzU=</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>QW5kcm9pZCBQb2xpY2U=</t>
+          <t>QW5kcm9pZCBDZW50cmFs</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VC1Nb2JpbGUganVzdCBnb3QgaGl0IHdpdGggYSAkMTVNTSByZW1pbmRlciBmcm9tIHRoZSBGQ0MgdG8gbm90IGdldCBoYWNrZWQgYXMgb2Z0ZW4=</t>
+          <t>R29vZ2xlIHdhbnRzIHVzZXJzIFNBSUYgYXMgYSByaXNrIGFzc2Vzc21lbnQgcm9sbHMgaW4gdG8gaWRlbnRpZnkgc2VjdXJpdHkgdGhyZWF0cw==</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>QW51cmFnIFNpbmdo</t>
+          <t>bmlja29kaWF6QHNiY2dsb2JhbC5uZXQgKE5pY2tvbGFzIERpYXop</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VGhlIHNhbWUgYW1vdW50IGhhcyB0byBiZSBpbnZlc3RlZCBpbiBjeWJlcnNlY3VyaXR5</t>
+          <t>R29vZ2xlIGFsd2F5cyB3YW50ZWQgdG8gc2V0IGNsZWFyICJzZWN1cml0eSBzdGFuZGFyZHMiIHdpdGggU0FJRiwgYW5kIHRoaXMgbmV3IHF1ZXN0aW9ubmFpcmUgbWlnaHQgaGVscC4=</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>S2V5IFRha2Vhd2F5cw0KPHVsPjxsaT4gVC1Nb2JpbGUgaXMgaW52ZXN0aW5nICQxNS43NU1NIGluIGN5YmVyc2VjdXJpdHkgdXBncmFkZXMgYXMgcGFydCBvZiBhIHNldHRsZW1lbnQgd2l0aCB0aGUgRkNDLCBhbHNvIHBheWluZyB0aGUgc2FtZSBhbW91bnQgaW4gY2l2aWwgcGVuYWx0aWVzLiA8L2xpPjxsaT4gVGhlIHNldHRsZW1lbnQgZm9sbG93c+KApiBbKzI4NDggY2hhcnNd</t>
+          <t>V2hhdCB5b3UgbmVlZCB0byBrbm93DQo8dWw+PGxpPkdvb2dsZSBoaWdobGlnaHRlZCB0aGUgcm9sbG91dCBvZiBpdHMgbmV3IFNBSUYgUmlzayBBc3Nlc3NtZW50IHF1ZXN0aW9ubmFpcmUgZm9yIEFJIHN5c3RlbSBjcmVhdG9ycy48L2xpPjxsaT5UaGUgYXNzZXNzbWVudCB3aWxsIGFzayBhIHNlcmllcyBvZiBpbi1kZXB0aCBxdWVzdGlvbnMgYWJvdeKApiBbKzMyMjQgY2hhcnNd</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYW5kcm9pZHBvbGljZS5jb20vZmNjLWZvcmNpbmctdC1tb2JpbGUtc3RvcC1nZXR0aW5nLWhhY2tlZC8=</t>
+          <t>aHR0cHM6Ly93d3cuYW5kcm9pZGNlbnRyYWwuY29tL2FwcHMtc29mdHdhcmUvZ29vZ2xlLXNhaWYtcmlzay1hc3Nlc3NtZW50LXNlY3VyaXR5LXRocmVhdHMtZGV0YWlscw==</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>V2lyZWQ=</t>
+          <t>QkJDIE5ld3M=</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>V2hhdCBHb29nbGUncyBVLVR1cm4gb24gVGhpcmQtUGFydHkgQ29va2llcyBNZWFucyBmb3IgQ2hyb21lIFByaXZhY3k=</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>S2F0ZSBPJ0ZsYWhlcnR5</t>
-        </is>
-      </c>
+          <t>TWljcm9zb2Z0IHJlLWxhdW5jaGVzIOKAmHByaXZhY3kgbmlnaHRtYXJl4oCZIEFJIHNjcmVlbnNob3QgdG9vbA==</t>
+        </is>
+      </c>
+      <c r="C19"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RWFybGllciB0aGlzIHllYXIsIEdvb2dsZSBkaXRjaGVkIGl0cyBwbGFucyB0byBhYm9saXNoIHN1cHBvcnQgZm9yIHRoaXJkLXBhcnR5IGNvb2tpZXMgaW4gaXRzIENocm9tZSBicm93c2VyLiBXaGlsZSBwcml2YWN5IGFkdm9jYXRlcyBjYWxsZWQgZm91bCwgdGhlIGltcGxpY2F0aW9ucyBmb3IgdXNlcnMgaXMgbm90IHNvIGNsZWFyIGN1dC4=</t>
+          <t>SXQgc2F5cyBpdCBoYXMgbGlzdGVuZWQgdG8gY29uY2VybnMgYWJvdXQgdGhlIHRvb2wsIHdoaWNoIGNvbnRpbnVvdXNseSBzY3JlZW5zaG90cyBvbmxpbmUgYWN0aXZpdHku</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VGhlIGFwcGFyZW50IGRlYXRoIG9mIGNvb2tpZXMgYWxzbyB3b250IG1hdHRlciBtdWNoIHRvIEdvb2dsZSwgd2hpY2ggaGFzIGEgdG9uIG9mIGRhdGEgZnJvbSBtdWx0aXBsZSBzZXJ2aWNlcyBpbiBhZGRpdGlvbiB0byBDaHJvbWUgYW5kIGNhbiB0YXJnZXQgcGVvcGxlIHdpdGhvdXQgY29va2llcy4NCkFjY29yZGluZyB0b8KgR29vZ2xlJ3MgMjAyMyDigKYgWyszNzI5IGNoYXJzXQ==</t>
+          <t>TWljcm9zb2Z0IHNheXMgaXQgaGFzIGxpc3RlbmVkIHRvIGZlZWRiYWNrIGZvbGxvd2luZyBhIHByaXZhY3kgcm93IG92ZXIgYSBuZXcgdG9vbCB3aGljaCB0YWtlcyByZWd1bGFyIHNjcmVlbnNob3RzIG9mIHVzZXJzIG9ubGluZSBhY3Rpdml0eS4NCkl0IHdhcyBsYWJlbGxlZCBhIHBvdGVudGlhbCBwcml2YWN5IG5pZ2h0bWFyZSBieSBjcml0aWNzIOKApiBbKzI5MTYgY2hhcnNd</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cud2lyZWQuY29tL3N0b3J5L2dvb2dsZS1jaHJvbWUtdGhpcmQtcGFydHktY29va2llcy1wcml2YWN5LXJvbGxiYWNrLw==</t>
+          <t>aHR0cHM6Ly93d3cuYmJjLmNvbS9uZXdzL2FydGljbGVzL2M4NjlnbHg4ZW5kbw==</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R2l6bW9kby5jb20=</t>
+          <t>aGVpc2Ugb25saW5l</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VGhlIFNhZ2Egb2YgYSBUZWNoIEV4ZWPigJlzIFN1bmtlbiBZYWNodCBKdXN0IEdvdCBhIExvdCBNb3JlIEludGVyZXN0aW5n</t>
+          <t>aGVpc2UtQW5nZWJvdDogRsO8ciBlaW5lIHN0YWJpbGUgWnVrdW5mdCBJaHJlciBJVDogQmVzdWNoZW4gU2llIGRlbiBJVCBTdW1taXQgYnkgaGVpc2U=</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>THVjYXMgUm9wZWs=</t>
+          <t>QWxleGFuZGVyIE5ldW1hbm4=</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>U3VwZXItZW5jcnlwdGVkIGhhcmQgZHJpdmVzLCB3YXRlciB0aWdodCBzYWZlcywgYW5kIGNsYXNzaWZpZWQgZG9jdW1lbnRzIGhhdmUgZW50ZXJlZCB0aGUgcGljdHVyZS4=</t>
+          <t>QW0gMTguIHVuZCAxOS4gTm92ZW1iZXIga29tbWVuIGluIE3DvG5jaGVuIElULUxlaXRlciB1bmQgQWRtaW5pc3RyYXRvcmVuIHp1c2FtbWVuLCB1bSBzaWNoIMO8YmVyIFRoZW1lbiB3aWUgS0ksIFJlZ3VsaWVydW5nZW4gdW5kIEN5YmVyc2VjdXJpdHkgYXVzenV0YXVzY2hlbi4=</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>QSBsaXR0bGUgb3ZlciBhIG1vbnRoIGFnbywgdGhlIDE4NC1mb290IHlhY2h0IGJlbG9uZ2luZyB0byB0ZWNoIG1pbGxpb25haXJlIE1pa2UgTHluY2ggYWJydXB0bHkgc2Fuay4gVGhlIGJvYXQgaGFkIGJlZW4gYW5jaG9yZWQgb2ZmIHRoZSBjb2FzdCBvZiBTaWNpbHksIHdoZXJlIGl0IGhhZCBiZWVuIHBhcmtlZCBmb3IgYSBuaWdodCBvZiBwYXJ0eeKApiBbKzM0MjggY2hhcnNd</t>
+          <t>QW0gMTguIHVuZCAxOS4gTm92ZW1iZXIgMjAyNCBmaW5kZXQgaW4gTcO8bmNoZW4gZGllIEVyc3RhdWZsYWdlIGRlcyBJVCBTdW1taXQgYnkgaGVpc2Ugc3RhdHQuIERpZSBLb25mZXJlbnogcmljaHRldCBzaWNoIGFuIElULSB1bmQgUmVjaGVuemVudHJ1bXNsZWl0ZXIgYXVzIE1pdHRlbHN0YW5kIHVuZCBLb256ZXJuZW4sIElULVNlY3VyaXR5LSwgTmXigKYgWyszNTY0IGNoYXJzXQ==</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9naXptb2RvLmNvbS90aGUtc2FnYS1vZi1hLXRlY2gtZXhlY3Mtc3Vua2VuLXlhY2h0LWp1c3QtZ290LWEtbG90LW1vcmUtaW50ZXJlc3RpbmctMjAwMDUwMzMzNg==</t>
+          <t>aHR0cHM6Ly93d3cuaGVpc2UuZGUvbmV3cy9GdWVyLWVpbmUtc3RhYmlsZS1adWt1bmZ0LUlocmVyLUlULUJlc3VjaGVuLVNpZS1kZW4tSVQtU3VtbWl0LWJ5LWhlaXNlLTk5Nzc0NDEuaHRtbA==</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>U2xhc2hkb3Qub3Jn</t>
+          <t>QUJDIE5ld3M=</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S2FzcGVyc2t5IERlZmVuZHMgU3RlYWx0aCBTd2FwIG9mIEFudGl2aXJ1cyBTb2Z0d2FyZSBvbiBVUyBDb21wdXRlcnM=</t>
+          <t>Q2hpbmVzZSBoYWNrZXJzIGJlbGlldmVkIHRvIGhhdmUgdGFyZ2V0ZWQgVHJ1bXAsIFZhbmNlIGNlbGxwaG9uZXM6IFNvdXJjZXM=</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>bXNtYXNo</t>
+          <t>THVrZSBCYXJyLCBLYXRoZXJpbmUgRmF1bGRlcnMsIEpvaG4gU2FudHVjY2k=</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSBmaXJtIEthc3BlcnNreSBoYXMgZGVmZW5kZWQgaXRzIGRlY2lzaW9uIHRvIGF1dG9tYXRpY2FsbHkgcmVwbGFjZSBpdHMgYW50aXZpcnVzIHNvZnR3YXJlIG9uIFUuUy4gY3VzdG9tZXJzJyBjb21wdXRlcnMgd2l0aCBVbHRyYUFWLCBhIHByb2R1Y3QgZnJvbSBBbWVyaWNhbiBjb21wYW55IFBhbmdvLCB3aXRob3V0IGV4cGxpY2l0IHVzZXIgY29uc2VudC4gVGhlIGZvcmNlZCBzd2l0Y2gsIGFmZmVjdGluZyBuZWFybHkgb25lIG1pbOKApg==</t>
+          <t>Q2hpbmVzZSBoYWNrZXJzIGJlbGlldmVkIHRvIGhhdmUgdGFyZ2V0ZWQgVHJ1bXAsIFZhbmNlIGNlbGwgcGhvbmVzLCBhY2NvcmRpbmcgdG8gcmVwb3J0cy4=</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSBmaXJtIEthc3BlcnNreSBoYXMgZGVmZW5kZWQgaXRzIGRlY2lzaW9uIHRvIGF1dG9tYXRpY2FsbHkgcmVwbGFjZSBpdHMgYW50aXZpcnVzIHNvZnR3YXJlIG9uIFUuUy4gY3VzdG9tZXJzJyBjb21wdXRlcnMgd2l0aCBVbHRyYUFWLCBhIHByb2R1Y3QgZnJvbSBBbWVyaWNhbiBjb21wYW55IFBhbmdvLCB3aXRob3V0IGV4cGxpY+KApiBbKzgwNiBjaGFyc10=</t>
+          <t>Q2hpbmVzZSBoYWNrZXJzIGFyZSBiZWxpZXZlZCB0byBoYXZlIHRhcmdldGVkIGNlbGxwaG9uZXMgdXNlZCBieSBmb3JtZXIgUHJlc2lkZW50IERvbmFsZCBUcnVtcCBhbmQgaGlzIHJ1bm5pbmcgbWF0ZSwgU2VuLiBKRCBWYW5jZSwgYWNjb3JkaW5nIHRvIHNvdXJjZXMgZmFtaWxpYXIgd2l0aCB0aGUgbWF0dGVyLg0KVGhlIFRydW1wL1ZhbmNlIGNhbeKApiBbKzE0NDUgY2hhcnNd</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9pdC5zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMDkvMjYvMTgyNTI0OS9rYXNwZXJza3ktZGVmZW5kcy1zdGVhbHRoLXN3YXAtb2YtYW50aXZpcnVzLXNvZnR3YXJlLW9uLXVzLWNvbXB1dGVycw==</t>
+          <t>aHR0cHM6Ly9hYmNuZXdzLmdvLmNvbS9Qb2xpdGljcy9jaGluZXNlLWhhY2tlcnMtYmVsaWV2ZWQtdGFyZ2V0ZWQtdHJ1bXAtdmFuY2UtY2VsbC1waG9uZXMvc3Rvcnk/aWQ9MTE1MTU4NjI5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>U2xhc2hkb3Qub3Jn</t>
+          <t>W1JlbW92ZWRd</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T3BlbkFJIFNheXMgQ2hpbmEtTGlua2VkIEdyb3VwIFRyaWVkIHRvIFBoaXNoIEl0cyBFbXBsb3llZXM=</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>bXNtYXNo</t>
-        </is>
-      </c>
+          <t>W1JlbW92ZWRd</t>
+        </is>
+      </c>
+      <c r="C22"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T3BlbkFJIHNhaWQgYSBncm91cCB3aXRoIGFwcGFyZW50IHRpZXMgdG8gQ2hpbmEgdHJpZWQgdG8gY2Fycnkgb3V0IGEgcGhpc2hpbmcgYXR0YWNrIG9uIGl0cyBlbXBsb3llZXMsIHJlaWduaXRpbmcgY29uY2VybnMgdGhhdCBiYWQgYWN0b3JzIGluIEJlaWppbmcgd2FudCB0byBzdGVhbCBzZW5zaXRpdmUgaW5mb3JtYXRpb24gZnJvbSB0b3AgVVMgYXJ0aWZpY2lhbCBpbnRlbGxpZ2VuY2UgY29tcGFuaWVzLiBGcm9tIGEgcmVwb3J0OiBUaGUgQUkgc3RhcuKApg==</t>
+          <t>W1JlbW92ZWRd</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>VGhlIEFJIHN0YXJ0dXAgc2FpZCBXZWRuZXNkYXkgdGhhdCBhIHN1c3BlY3RlZCBDaGluYS1iYXNlZCBncm91cCBjYWxsZWQgU3dlZXRTcGVjdGVyIHBvc2VkIGFzIGEgdXNlciBvZiBPcGVuQUkncyBjaGF0Ym90IENoYXRHUFQgZWFybGllciB0aGlzIHllYXIgYW5kIHNlbnQgY3VzdG9tZXIgc3VwcG9ydCBlbWFpbHMgdG8gc3RhZmYuIFRoZSBlbWFpbOKApiBbKzY5MiBjaGFyc10=</t>
+          <t>W1JlbW92ZWRd</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9pdC5zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMTAvMDkvMTUxNTIyNi9vcGVuYWktc2F5cy1jaGluYS1saW5rZWQtZ3JvdXAtdHJpZWQtdG8tcGhpc2gtaXRzLWVtcGxveWVlcw==</t>
+          <t>aHR0cHM6Ly9yZW1vdmVkLmNvbQ==</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R2l6bW9kby5jb20=</t>
+          <t>U2xhc2hkb3Qub3Jn</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>U3RheSBTYWZlIGluIGEgRGFuZ2Vyb3VzIFdvcmxkOiBCaXRkZWZlbmRlciBVbmxlYXNoZXMgYSBCbGFjayBGcmlkYXkgRGVhbCBvbiBJdHMgQW50aXZpcnVzIFNvbHV0aW9ucyAoNTAlIE9mZik=</t>
+          <t>Um9ib3QgVmFjdXVtcyBIYWNrZWQgVG8gU2hvdXQgU2x1cnMgQXQgVGhlaXIgT3duZXJz</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>R2l6bW9kbyBEZWFscw==</t>
+          <t>QmVhdUhE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SW4gYSB3b3JsZCB3aGVyZSBjeWJlciB0aHJlYXRzIGFyZSBvbiB0aGUgcmlzZSwgQml0ZGVmZW5kZXIncyByYXJlIG9mZmVycyBwcmVzZW50IGEgdGltZWx5IG9wcG9ydHVuaXR5IHRvIGJvbHN0ZXIgeW91ciBkaWdpdGFsIHNlY3VyaXR5Lg==</t>
+          <t>RWNvdmFjcyByb2JvdCB2YWN1dW1zIGhhdmUgYmVlbiBoYWNrZWQgYWNyb3NzIHRoZSBVLlMuIHRvIHNob3V0IHJhY2lhbCBzbHVycyBhdCB1bnN1c3BlY3RpbmcgcGVvcGxlLiBWSUNFIE5ld3MgcmVwb3J0czogVGhlIGlzc3VlIGlzIHNwZWNpZmljYWxseSB3aXRoIEVjb3ZhY3MnIERlZWJvdCBYMiBtb2RlbC4gVGhlIGhhY2tlcnMgZ2FpbmVkIGNvbnRyb2wgb2YgdGhlIGRldmljZXMgYW5kIHVzZWQgdGhlIG9uYm9hcmQgc3BlYWtlcnMgdG8gYmxhc3QgcuKApg==</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Qml0ZGVmZW5kZXIgaXMgYSBsZWFkaW5nIG5hbWUgaW4gdGhlIGN5YmVyc2VjdXJpdHkgaW5kdXN0cnkgd2l0aCBvdmVyIDQwMCBtaWxsaW9uIHVzZXJzIHdvcmxkd2lkZSBhbmQgaXQgaXMgY3VycmVudGx5IHJ1bm5pbmcgZXhjaXRpbmcgcHJvbW90aW9ucyBvbiBpdHMgYW50aXZpcnVzIHNvbHV0aW9ucy4gVGhlc2Ugb2ZmZXJzIHByZXNlbnQgYW4gZeKApiBbKzM4OTIgY2hhcnNd</t>
+          <t>VGhlIGlzc3VlIGlzIHNwZWNpZmljYWxseSB3aXRoIEVjb3ZhY3MnIERlZWJvdCBYMiBtb2RlbC4gVGhlIGhhY2tlcnMgZ2FpbmVkIGNvbnRyb2wgb2YgdGhlIGRldmljZXMgYW5kIHVzZWQgdGhlIG9uYm9hcmQgc3BlYWtlcnMgdG8gYmxhc3QgcmFjaWFsIHNsdXJzIGF0IGFueW9uZSB3aXRoaW4gZWFyc2hvdC4gT25lIHN1Y2ggcGVyc29uIHdhcyBhIOKApiBbKzk3MyBjaGFyc10=</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9naXptb2RvLmNvbS9zdGF5LXNhZmUtaW4tYS1kYW5nZXJvdXMtd29ybGQtYml0ZGVmZW5kZXItdW5sZWFzaGVzLWEtYmxhY2stZnJpZGF5LWRlYWwtb24taXRzLWFudGl2aXJ1cy1zb2x1dGlvbnMtNTAtb2ZmLTIwMDA1MDU1MzU=</t>
+          <t>aHR0cHM6Ly9oYXJkd2FyZS5zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMTAvMTEvMjAxMTI0OS9yb2JvdC12YWN1dW1zLWhhY2tlZC10by1zaG91dC1zbHVycy1hdC10aGVpci1vd25lcnM=</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>QW5kcm9pZCBDZW50cmFs</t>
+          <t>WWFob28gRW50ZXJ0YWlubWVudA==</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R29vZ2xlIHdhbnRzIHVzZXJzIFNBSUYgYXMgYSByaXNrIGFzc2Vzc21lbnQgcm9sbHMgaW4gdG8gaWRlbnRpZnkgc2VjdXJpdHkgdGhyZWF0cw==</t>
+          <t>WW91J2xsIHNvb24gYmUgYWJsZSB0byBzYWZlbHkgYW5kIGVhc2lseSBtb3ZlIHlvdXIgcGFzc2tleXMgYmV0d2VlbiBwYXNzd29yZCBtYW5hZ2Vycw==</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>bmlja29kaWF6QHNiY2dsb2JhbC5uZXQgKE5pY2tvbGFzIERpYXop</t>
+          <t>SWdvciBCb25pZmFjaWM=</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R29vZ2xlIGFsd2F5cyB3YW50ZWQgdG8gc2V0IGNsZWFyICJzZWN1cml0eSBzdGFuZGFyZHMiIHdpdGggU0FJRiwgYW5kIHRoaXMgbmV3IHF1ZXN0aW9ubmFpcmUgbWlnaHQgaGVscC4=</t>
+          <t>Qnkgbm93LCBtb3N0IHBlb3BsZSBrbm93IHBhc3NrZXlzIG9mZmVyIGEgYmV0dGVyIHdheSB0byBwcm90ZWN0IHRoZWlyIG9ubGluZSBjcmVkZW50aWFscyB0aGFuIHBhc3N3b3Jkcy4gTmVhcmx5IGV2ZXJ5IHRlY2ggY29tcGFueSBvZiBub3RlLCBpbmNsdWRpbmcgQXBwbGUsIEdvb2dsZSBhbmQgTWljcm9zb2Z0LCBzdXBwb3J0cyB0aGUgcHJvdG9jb2wuIE1vcmVvdmVyLCBkZXNwaXRlIGEgc2xvdyBzdGFydCwgYWRvcHRpb24gaGFzIGRyYW1hdGljYWxseeKApg==</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>V2hhdCB5b3UgbmVlZCB0byBrbm93DQo8dWw+PGxpPkdvb2dsZSBoaWdobGlnaHRlZCB0aGUgcm9sbG91dCBvZiBpdHMgbmV3IFNBSUYgUmlzayBBc3Nlc3NtZW50IHF1ZXN0aW9ubmFpcmUgZm9yIEFJIHN5c3RlbSBjcmVhdG9ycy48L2xpPjxsaT5UaGUgYXNzZXNzbWVudCB3aWxsIGFzayBhIHNlcmllcyBvZiBpbi1kZXB0aCBxdWVzdGlvbnMgYWJvdeKApiBbKzMyMjQgY2hhcnNd</t>
+          <t>SWYgeW91IGNsaWNrICdBY2NlcHQgYWxsJywgd2UgYW5kIG91ciBwYXJ0bmVycywgaW5jbHVkaW5nIDIzOCB3aG8gYXJlIHBhcnQgb2YgdGhlIElBQiBUcmFuc3BhcmVuY3kgJmFtcDsgQ29uc2VudCBGcmFtZXdvcmssIHdpbGwgYWxzbyBzdG9yZSBhbmQvb3IgYWNjZXNzIGluZm9ybWF0aW9uIG9uIGEgZGV2aWNlIChpbiBvdGhlciB3b3JkcywgdXNlIOKApiBbKzY3OCBjaGFyc10=</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYW5kcm9pZGNlbnRyYWwuY29tL2FwcHMtc29mdHdhcmUvZ29vZ2xlLXNhaWYtcmlzay1hc3Nlc3NtZW50LXNlY3VyaXR5LXRocmVhdHMtZGV0YWlscw==</t>
+          <t>aHR0cHM6Ly9jb25zZW50LnlhaG9vLmNvbS92Mi9jb2xsZWN0Q29uc2VudD9zZXNzaW9uSWQ9MV9jYy1zZXNzaW9uX2M5NDMwMDI0LTAzNmUtNGMxZS04ZTkzLWZiNmFlMzQ3Zjk0Ng==</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>QkJDIE5ld3M=</t>
+          <t>WWFob28gRW50ZXJ0YWlubWVudA==</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TWljcm9zb2Z0IHJlLWxhdW5jaGVzIOKAmHByaXZhY3kgbmlnaHRtYXJl4oCZIEFJIHNjcmVlbnNob3QgdG9vbA==</t>
-        </is>
-      </c>
-      <c r="C25"/>
+          <t>SW50ZWwgc3RvY2sgdW5kZXIgcHJlc3N1cmUgYW1pZCBwbGFucyB0byBsYXkgb2ZmIDEsMzAwIGVtcGxveWVlcw==</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SnVsaWUgSHltYW4=</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SXQgc2F5cyBpdCBoYXMgbGlzdGVuZWQgdG8gY29uY2VybnMgYWJvdXQgdGhlIHRvb2wsIHdoaWNoIGNvbnRpbnVvdXNseSBzY3JlZW5zaG90cyBvbmxpbmUgYWN0aXZpdHku</t>
+          <t>U2hhcmVzIG9mIEludGVsIChJTlRDKSBhcmUgdW5kZXIgcHJlc3N1cmUgYWZ0ZXIgdGhlIGNvbXBhbnkgYW5ub3VuY2VkIGl0IHdpbGwgYmUgbGF5aW5nIG9mZiByb3VnaGx5IDEsMzAwIGVtcGxveWVlcy4gVGhpcyBjb21lcyBhbG9uZ3NpZGUgbmV3cyBmcm9tIENoaW5hLi4u</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TWljcm9zb2Z0IHNheXMgaXQgaGFzIGxpc3RlbmVkIHRvIGZlZWRiYWNrIGZvbGxvd2luZyBhIHByaXZhY3kgcm93IG92ZXIgYSBuZXcgdG9vbCB3aGljaCB0YWtlcyByZWd1bGFyIHNjcmVlbnNob3RzIG9mIHVzZXJzIG9ubGluZSBhY3Rpdml0eS4NCkl0IHdhcyBsYWJlbGxlZCBhIHBvdGVudGlhbCBwcml2YWN5IG5pZ2h0bWFyZSBieSBjcml0aWNzIOKApiBbKzI5MTYgY2hhcnNd</t>
+          <t>U2hhcmVzIG9mIEludGVsIChJTlRDKSBhcmUgdW5kZXIgcHJlc3N1cmUgYWZ0ZXIgdGhlIGNvbXBhbnkgYW5ub3VuY2VkIGl0IHdpbGwgYmUgbGF5aW5nIG9mZiByb3VnaGx5IDEsMzAwIGVtcGxveWVlcy4gVGhpcyBjb21lcyBhbG9uZ3NpZGUgbmV3cyBmcm9tIENoaW5hIHRoYXQgYSBjeWJlcnNlY3VyaXR5IGdyb3VwIGlzIGNhbGxpbmcgZm9yIGNoZeKApiBbKzM2MSBjaGFyc10=</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYmJjLmNvbS9uZXdzL2FydGljbGVzL2M4NjlnbHg4ZW5kbw==</t>
+          <t>aHR0cHM6Ly9maW5hbmNlLnlhaG9vLmNvbS92aWRlby9pbnRlbC1zdG9jay11bmRlci1wcmVzc3VyZS1hbWlkLTIwNDEyNDk0My5odG1s</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>aGVpc2Ugb25saW5l</t>
+          <t>RmFzdCBDb21wYW55</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>aGVpc2UtQW5nZWJvdDogTmV1ZSBLb25mZXJlbnogdm9uIGhlaXNlOiBKZXR6dCB2b20gRWFybHktQmlyZC1SYWJhdHQgZGVzIElUIFN1bW1pdCBwcm9maXRpZXJlbg==</t>
+          <t>TWljcm9zb2Z0IGFuZCB0aGUgRE9KIGludGVyY2VwdCB0aGlzIFJ1c3NpYW4gaGFja2luZyBncm91cOKAmXMgc3BlYXIgcGhpc2hpbmcgY2FtcGFpZ24=</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>QWxleGFuZGVyIE5ldW1hbm4=</t>
+          <t>QXNzb2NpYXRlZCBQcmVzcw==</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>QW0gMTguIHVuZCAxOS4gTm92ZW1iZXIga29tbWVuIGluIE3DvG5jaGVuIElULUxlaXRlciB1bmQgQWRtaW5pc3RyYXRvcmVuIHp1c2FtbWVuLCB1bSBzaWNoIMO8YmVyIFRoZW1lbiB3aWUgS0ksIFJlZ3VsaWVydW5nZW4gdW5kIEN5YmVyc2VjdXJpdHkgYXVzenV0YXVzY2hlbi4=</t>
+          <t>UnVzc2lhbiBoYWNraW5nIGdyb3VwIFN0YXIgQmxpenphcmQgaXMgdGFyZ2V0aW5nIGdyb3VwcyBpbmNsdWRpbmcgQW1lcmljYW4gbWlsaXRhcnkgY29udHJhY3RvcnMgYW5kIHRoZSBEZXBhcnRtZW50IG9mIEVuZXJneS4KCkEgaGFja2luZyBncm91cCB0aWVkIHRvIFJ1c3NpYW4gaW50ZWxsaWdlbmNlIHRyaWVkIHRvIHdvcm0gaXRzIHdheSBpbnRvIHRoZSBzeXN0ZW1zIG9mIGRvemVucyBvZiBXZXN0ZXJuIHRoaW5rIHRhbmtzLCBqb3VybmFsaXN0cyBhbuKApg==</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>QW0gMTguIHVuZCAxOS4gTm92ZW1iZXIgMjAyNCBmaW5kZXQgaW4gTcO8bmNoZW4gZGllIGVyc3RlIEF1c2dhYmUgZGVzIElUIFN1bW1pdCBieSBoZWlzZSBzdGF0dC4gRGllIEtvbmZlcmVueiByaWNodGV0IHNpY2ggdm9ycmFuZ2lnIGFuIElULUxlaXRlciBzb3dpZSBBZG1pbmlzdHJhdG9yZW4uIFNpZSB3aWxsIGRlbSBQdWJsaWt1bSB3aWNodGlnZSDigKYgWysyOTUzIGNoYXJzXQ==</t>
+          <t>QSBoYWNraW5nIGdyb3VwIHRpZWQgdG8gUnVzc2lhbiBpbnRlbGxpZ2VuY2UgdHJpZWQgdG8gd29ybSBpdHMgd2F5IGludG8gdGhlIHN5c3RlbXMgb2YgZG96ZW5zIG9mIFdlc3Rlcm4gdGhpbmsgdGFua3MsIGpvdXJuYWxpc3RzIGFuZCBmb3JtZXIgbWlsaXRhcnkgYW5kIGludGVsbGlnZW5jZSBvZmZpY2lhbHMsIE1pY3Jvc29mdCBhbmQgVS5TLiBhdeKApiBbKzI3MzMgY2hhcnNd</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuaGVpc2UuZGUvbmV3cy9OZXVlLUtvbmZlcmVuei12b24taGVpc2UtSmV0enQtdm9tLUVhcmx5LUJpcmQtUmFiYXR0LWRlcy1JVC1TdW1taXQtcHJvZml0aWVyZW4tOTk1MjUyMi5odG1s</t>
+          <t>aHR0cHM6Ly93d3cuZmFzdGNvbXBhbnkuY29tLzkxMjAzMzY1L21pY3Jvc29mdC1kb2otaW50ZXJjZXB0LXJ1c3NpYW4taGFja2luZy1ncm91cHMtc3BlYXItcGhpc2hpbmctY2FtcGFpZ24=</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>aGVpc2Ugb25saW5l</t>
+          <t>VGhlcmVnaXN0ZXIuY29t</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>aGVpc2UtQW5nZWJvdDogRsO8ciBlaW5lIHN0YWJpbGUgWnVrdW5mdCBJaHJlciBJVDogQmVzdWNoZW4gU2llIGRlbiBJVCBTdW1taXQgYnkgaGVpc2U=</t>
+          <t>SGVhbHRoY2FyZSBTZXJ2aWNlcyBHcm91cCBkaXNjbG9zZXMgJ2N5YmVyc2VjdXJpdHkgaW5jaWRlbnQnIGluIFNFQyBmaWxpbmc=</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>QWxleGFuZGVyIE5ldW1hbm4=</t>
+          <t>Q29ubm9yIEpvbmVz</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>QW0gMTguIHVuZCAxOS4gTm92ZW1iZXIga29tbWVuIGluIE3DvG5jaGVuIElULUxlaXRlciB1bmQgQWRtaW5pc3RyYXRvcmVuIHp1c2FtbWVuLCB1bSBzaWNoIMO8YmVyIFRoZW1lbiB3aWUgS0ksIFJlZ3VsaWVydW5nZW4gdW5kIEN5YmVyc2VjdXJpdHkgYXVzenV0YXVzY2hlbi4=</t>
+          <t>TGF1bmRyeSBhbmQgZGluaW5nIHByb3ZpZGVyIHN0aWxsIGludmVzdGlnYXRpbmcgY2F1c2UgYW5kIHNjb3BlCkhlYWx0aGNhcmUgU2VydmljZXMgR3JvdXAgKEhTRykgaGFzIGRpc2Nsb3NlZCAidW5hdXRob3JpemVkIGFjdGl2aXR5IHdpdGhpbiBzb21lIG9mIGl0cyBzeXN0ZW1zIiBpbiBhIFNlY3VyaXRpZXMgYW5kIEV4Y2hhbmdlIENvbW1pc3Npb24gKFNFQykgZmlsaW5nLuKApg==</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>QW0gMTguIHVuZCAxOS4gTm92ZW1iZXIgMjAyNCBmaW5kZXQgaW4gTcO8bmNoZW4gZGllIEVyc3RhdWZsYWdlIGRlcyBJVCBTdW1taXQgYnkgaGVpc2Ugc3RhdHQuIERpZSBLb25mZXJlbnogcmljaHRldCBzaWNoIGFuIElULSB1bmQgUmVjaGVuemVudHJ1bXNsZWl0ZXIgYXVzIE1pdHRlbHN0YW5kIHVuZCBLb256ZXJuZW4sIElULVNlY3VyaXR5LSwgTmXigKYgWyszNTY0IGNoYXJzXQ==</t>
+          <t>SGVhbHRoY2FyZSBTZXJ2aWNlcyBHcm91cCAoSFNHKSBoYXMgZGlzY2xvc2VkICJ1bmF1dGhvcml6ZWQgYWN0aXZpdHkgd2l0aGluIHNvbWUgb2YgaXRzIHN5c3RlbXMiIGluIGEgU2VjdXJpdGllcyBhbmQgRXhjaGFuZ2UgQ29tbWlzc2lvbiAoU0VDKSBmaWxpbmcuDQpUaGUgY29tcGFueSwgd2hpY2ggcHJvdmlkZXMgaG91c2VrZWVwaW5nLCBsYXVuZOKApiBbKzIwMjIgY2hhcnNd</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuaGVpc2UuZGUvbmV3cy9GdWVyLWVpbmUtc3RhYmlsZS1adWt1bmZ0LUlocmVyLUlULUJlc3VjaGVuLVNpZS1kZW4tSVQtU3VtbWl0LWJ5LWhlaXNlLTk5Nzc0NDEuaHRtbA==</t>
+          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMTgvaGVhbHRoY2FyZV9zZXJ2aWNlc19ncm91cF9hdHRhY2sv</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>W1JlbW92ZWRd</t>
+          <t>VGhlcmVnaXN0ZXIuY29t</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>W1JlbW92ZWRd</t>
-        </is>
-      </c>
-      <c r="C28"/>
+          <t>RXh0cmFjdGluZyB2ZW5kb3IgcHJvbWlzZXMgd29uJ3QgZml4IGN5YmVyc2VjdXJpdHkuIEV4dHJhY3RpbmcgdGVldGggbWlnaHQ=</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>UnVwZXJ0IEdvb2R3aW5z</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>W1JlbW92ZWRd</t>
+          <t>T25lIGJyYW5jaCBvZiB0ZWNoIGhhcyBsZWFybmVkIHRvIHdvcmsgdG9nZXRoZXIgdG8gc29sdmUgdGhlIG5lYXItaW1wb3NzaWJsZS4gTm93IGl0J3Mgb3VyIHR1cm4KT3BpbmlvbiBUbyBzYXkgY3liZXJzZWN1cml0eSBpcyBtb3N0bHkgdmVyeSBnb29kIGlzIGxpa2Ugc2F5aW5nIEJvZWluZydzIFN0YXJsaW5lciBwYXJ0cyBtb3N0bHkgd29yayDigJMgdHJ1ZSwgYnV0IHlvdSdyZSBzdGlsbCBnb2luZyB0byBiZSBzbGVlcGluZyBpbiB0aGUgb2ZmaWNlLiBN4oCm</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>W1JlbW92ZWRd</t>
+          <t>T3BpbmlvbiBUbyBzYXkgY3liZXJzZWN1cml0eSBpcyBtb3N0bHkgdmVyeSBnb29kIGlzIGxpa2Ugc2F5aW5nIEJvZWluZydzIFN0YXJsaW5lciBwYXJ0cyBtb3N0bHkgd29yayB0cnVlLCBidXQgeW91J3JlIHN0aWxsIGdvaW5nIHRvIGJlIHNsZWVwaW5nIGluIHRoZSBvZmZpY2UuIE1vcmVvdmVyLCBpdCdzIHF1ZXN0aW9uYWJsZSB3aGV0aGVyIGVpdOKApiBbKzQ5MjEgY2hhcnNd</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9yZW1vdmVkLmNvbQ==</t>
+          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMDkvMzAvc2VjdXJpdHlfb3Bpbmlvbi8=</t>
         </is>
       </c>
     </row>
@@ -957,535 +957,535 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Um9ib3QgVmFjdXVtcyBIYWNrZWQgVG8gU2hvdXQgU2x1cnMgQXQgVGhlaXIgT3duZXJz</t>
+          <t>RkJJIEludmVzdGlnYXRlcyBDbGFpbXMgQ2hpbmEgVHJpZWQgVG8gSGFjayBEb25hbGQgVHJ1bXAncyBQaG9uZQ==</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>QmVhdUhE</t>
+          <t>bXNtYXNo</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RWNvdmFjcyByb2JvdCB2YWN1dW1zIGhhdmUgYmVlbiBoYWNrZWQgYWNyb3NzIHRoZSBVLlMuIHRvIHNob3V0IHJhY2lhbCBzbHVycyBhdCB1bnN1c3BlY3RpbmcgcGVvcGxlLiBWSUNFIE5ld3MgcmVwb3J0czogVGhlIGlzc3VlIGlzIHNwZWNpZmljYWxseSB3aXRoIEVjb3ZhY3MnIERlZWJvdCBYMiBtb2RlbC4gVGhlIGhhY2tlcnMgZ2FpbmVkIGNvbnRyb2wgb2YgdGhlIGRldmljZXMgYW5kIHVzZWQgdGhlIG9uYm9hcmQgc3BlYWtlcnMgdG8gYmxhc3QgcuKApg==</t>
+          <t>Sm9lIEJpZGVuJ3MgYWRtaW5pc3RyYXRpb24gaXMgaW52ZXN0aWdhdGluZyBhbGxlZ2VkIENoaW5lc2UgZWZmb3J0cyB0byBoYWNrIFVTIHRlbGVjb21zIGluZnJhc3RydWN0dXJlIGFtaWQgcmVwb3J0cyBoYWNrZXJzIGhhZCB0YXJnZXRlZCB0aGUgcGhvbmVzIG9mIGZvcm1lciBwcmVzaWRlbnQgRG9uYWxkIFRydW1wIGFuZCBoaXMgcnVubmluZyBtYXRlIEpEIFZhbmNlLiBGaW5hbmNpYWwgVGltZXM6IFRoZSBGQkkgYW5kIHRoZSBDeWJlcnNlY3VyaXR5IOKApg==</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>VGhlIGlzc3VlIGlzIHNwZWNpZmljYWxseSB3aXRoIEVjb3ZhY3MnIERlZWJvdCBYMiBtb2RlbC4gVGhlIGhhY2tlcnMgZ2FpbmVkIGNvbnRyb2wgb2YgdGhlIGRldmljZXMgYW5kIHVzZWQgdGhlIG9uYm9hcmQgc3BlYWtlcnMgdG8gYmxhc3QgcmFjaWFsIHNsdXJzIGF0IGFueW9uZSB3aXRoaW4gZWFyc2hvdC4gT25lIHN1Y2ggcGVyc29uIHdhcyBhIOKApiBbKzk3MyBjaGFyc10=</t>
+          <t>Sm9lIEJpZGVuJ3MgYWRtaW5pc3RyYXRpb24gaXMgaW52ZXN0aWdhdGluZyBhbGxlZ2VkIENoaW5lc2UgZWZmb3J0cyB0byBoYWNrIFVTIHRlbGVjb21zIGluZnJhc3RydWN0dXJlIGFtaWQgcmVwb3J0cyBoYWNrZXJzIGhhZCB0YXJnZXRlZCB0aGUgcGhvbmVzIG9mIGZvcm1lciBwcmVzaWRlbnQgRG9uYWxkIFRydW1wIGFuZCBoaXMgcnVubmluZyBtYeKApiBbKzE3NDggY2hhcnNd</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9oYXJkd2FyZS5zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMTAvMTEvMjAxMTI0OS9yb2JvdC12YWN1dW1zLWhhY2tlZC10by1zaG91dC1zbHVycy1hdC10aGVpci1vd25lcnM=</t>
+          <t>aHR0cHM6Ly9uZXdzLnNsYXNoZG90Lm9yZy9zdG9yeS8yNC8xMC8yNS8yMDU1MjQxL2ZiaS1pbnZlc3RpZ2F0ZXMtY2xhaW1zLWNoaW5hLXRyaWVkLXRvLWhhY2stZG9uYWxkLXRydW1wcy1waG9uZQ==</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>WWFob28gRW50ZXJ0YWlubWVudA==</t>
+          <t>VGVjaGRpcnQ=</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WW91J2xsIHNvb24gYmUgYWJsZSB0byBzYWZlbHkgYW5kIGVhc2lseSBtb3ZlIHlvdXIgcGFzc2tleXMgYmV0d2VlbiBwYXNzd29yZCBtYW5hZ2Vycw==</t>
+          <t>RGFpbHkgRGVhbDogQ3liZXJzZWN1cml0eSBQcm9qZWN0cyBCdW5kbGU=</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SWdvciBCb25pZmFjaWM=</t>
+          <t>R3JldGNoZW4gSGVja21hbm4=</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Qnkgbm93LCBtb3N0IHBlb3BsZSBrbm93IHBhc3NrZXlzIG9mZmVyIGEgYmV0dGVyIHdheSB0byBwcm90ZWN0IHRoZWlyIG9ubGluZSBjcmVkZW50aWFscyB0aGFuIHBhc3N3b3Jkcy4gTmVhcmx5IGV2ZXJ5IHRlY2ggY29tcGFueSBvZiBub3RlLCBpbmNsdWRpbmcgQXBwbGUsIEdvb2dsZSBhbmQgTWljcm9zb2Z0LCBzdXBwb3J0cyB0aGUgcHJvdG9jb2wuIE1vcmVvdmVyLCBkZXNwaXRlIGEgc2xvdyBzdGFydCwgYWRvcHRpb24gaGFzIGRyYW1hdGljYWxseeKApg==</t>
+          <t>VGhlIEN5YmVyc2VjdXJpdHkgUHJvamVjdHMgQnVuZGxlIG9mZmVycyBhIGhhbmRzLW9uIHByb2dyYW0gZmVhdHVyaW5nIGZpdmUgcmVhbC13b3JsZCBjeWJlcnNlY3VyaXR5IHByb2plY3RzLCB0b3RhbGluZyAzNSB0YXNrcy4gUGFydGljaXBhbnRzIHN0YXJ0IHdpdGggYW4gaW50cm9kdWN0b3J5IHZpZGVvIGZvciBlYWNoIHByb2plY3QsIGRldGFpbGluZyBvYmplY3RpdmVzIGFuZCByZXF1aXJlbWVudHMsIGZvbGxvd2VkIGJ5IHRhc2sgY29tcGxldGlvbuKApg==</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SWYgeW91IGNsaWNrICdBY2NlcHQgYWxsJywgd2UgYW5kIG91ciBwYXJ0bmVycywgaW5jbHVkaW5nIDIzOCB3aG8gYXJlIHBhcnQgb2YgdGhlIElBQiBUcmFuc3BhcmVuY3kgJmFtcDsgQ29uc2VudCBGcmFtZXdvcmssIHdpbGwgYWxzbyBzdG9yZSBhbmQvb3IgYWNjZXNzIGluZm9ybWF0aW9uIG9uIGEgZGV2aWNlIChpbiBvdGhlciB3b3JkcywgdXNlIOKApiBbKzY3OCBjaGFyc10=</t>
+          <t>ZnJvbSB0aGUgZ29vZC1kZWFscy1vbi1jb29sLXN0dWZmIGRlcHQNClRoZSBDeWJlcnNlY3VyaXR5IFByb2plY3RzIEJ1bmRsZSBvZmZlcnMgYSBoYW5kcy1vbiBwcm9ncmFtIGZlYXR1cmluZyBmaXZlIHJlYWwtd29ybGQgY3liZXJzZWN1cml0eSBwcm9qZWN0cywgdG90YWxpbmcgMzUgdGFza3MuIFBhcnRpY2lwYW50cyBzdGFydCB3aXRoIGFuIGludOKApiBbKzcwOCBjaGFyc10=</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9jb25zZW50LnlhaG9vLmNvbS92Mi9jb2xsZWN0Q29uc2VudD9zZXNzaW9uSWQ9MV9jYy1zZXNzaW9uX2M5NDMwMDI0LTAzNmUtNGMxZS04ZTkzLWZiNmFlMzQ3Zjk0Ng==</t>
+          <t>aHR0cHM6Ly93d3cudGVjaGRpcnQuY29tLzIwMjQvMTAvMDkvZGFpbHktZGVhbC1jeWJlcnNlY3VyaXR5LXByb2plY3RzLWJ1bmRsZS0yLw==</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WWFob28gRW50ZXJ0YWlubWVudA==</t>
+          <t>Q05FVA==</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SW50ZWwgc3RvY2sgdW5kZXIgcHJlc3N1cmUgYW1pZCBwbGFucyB0byBsYXkgb2ZmIDEsMzAwIGVtcGxveWVlcw==</t>
+          <t>TG9jayBEb3duIFlvdXIgRGF0YTogV2h5IEV2ZXJ5IEJ1c2luZXNzIE5lZWRzIGEgUGFzc3dvcmQgTWFuYWdlciBUb2RheQ==</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SnVsaWUgSHltYW4=</t>
+          <t>YnkgQ05FVCBQYWlkIENvbnRlbnQgU3R1ZGlv</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>U2hhcmVzIG9mIEludGVsIChJTlRDKSBhcmUgdW5kZXIgcHJlc3N1cmUgYWZ0ZXIgdGhlIGNvbXBhbnkgYW5ub3VuY2VkIGl0IHdpbGwgYmUgbGF5aW5nIG9mZiByb3VnaGx5IDEsMzAwIGVtcGxveWVlcy4gVGhpcyBjb21lcyBhbG9uZ3NpZGUgbmV3cyBmcm9tIENoaW5hLi4u</t>
+          <t>Q29tcHJlaGVuc2l2ZSBwYXNzd29yZCBtYW5hZ2VtZW50IGFjcm9zcyBhbiBlbnRpcmUgb3JnYW5pemF0aW9uIGhlbHBzIHlvdXIgY29tcGFueSBkZWZlbmQgYWdhaW5zdCBjeWJlcnNlY3VyaXR5IHRocmVhdHMuIFNlZSBob3cgd2l0aCBDTkVUJ3MgaGlnaGVzdC1yYW5rZWQgb3ZlcmFsbCBwYXNzd29yZCBtYW5hZ2VyLg==</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>U2hhcmVzIG9mIEludGVsIChJTlRDKSBhcmUgdW5kZXIgcHJlc3N1cmUgYWZ0ZXIgdGhlIGNvbXBhbnkgYW5ub3VuY2VkIGl0IHdpbGwgYmUgbGF5aW5nIG9mZiByb3VnaGx5IDEsMzAwIGVtcGxveWVlcy4gVGhpcyBjb21lcyBhbG9uZ3NpZGUgbmV3cyBmcm9tIENoaW5hIHRoYXQgYSBjeWJlcnNlY3VyaXR5IGdyb3VwIGlzIGNhbGxpbmcgZm9yIGNoZeKApiBbKzM2MSBjaGFyc10=</t>
+          <t>Q3liZXJzZWN1cml0eSBhdHRhY2tzIGFyZSByYXBpZGx5IGluY3JlYXNpbmcgYWNyb3NzIGluZHVzdHJpZXMsIGRyaXZlbiBieSB3ZWFrIG9yIHJldXNlZCBwYXNzd29yZHMgdGhhdCBvcGVuIGRvb3JzIHRvIHBvdGVudGlhbCB0aHJlYXRzLiBBIHJlY2VudCBzdXJ2ZXkgZm91bmQgdGhhdCBvdmVyIDkwIHBlcmNlbnQgb2YgZW1wbG95ZWVzIHJldXNlIOKApiBbKzY1MDEgY2hhcnNd</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9maW5hbmNlLnlhaG9vLmNvbS92aWRlby9pbnRlbC1zdG9jay11bmRlci1wcmVzc3VyZS1hbWlkLTIwNDEyNDk0My5odG1s</t>
+          <t>aHR0cHM6Ly93d3cuY25ldC5jb20vcGFpZC1jb250ZW50L25ld3MvYml0d2FyZGVuLWxvY2stZG93bi15b3VyLWRhdGEtd2h5LWV2ZXJ5LWJ1c2luZXNzLW5lZWRzLWEtcGFzc3dvcmQtbWFuYWdlci10b2RheS1zc28tcGFzc3dvcmQtYnJlYWNoZXMv</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RmFzdCBDb21wYW55</t>
+          <t>R2l6bW9kby5jb20=</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TWljcm9zb2Z0IGFuZCB0aGUgRE9KIGludGVyY2VwdCB0aGlzIFJ1c3NpYW4gaGFja2luZyBncm91cOKAmXMgc3BlYXIgcGhpc2hpbmcgY2FtcGFpZ24=</t>
+          <t>UHJpbWUgRGF5OiBBbWF6b24gQWNjaWRlbnRhbGx5IFJldmVhbHMgT2ZmZXJzLCBIZXJlIEFyZSB0aGUgMTAgQmVzdCBEZWFscyBUaGlzIFN1bmRheSBNb3JuaW5n</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>QXNzb2NpYXRlZCBQcmVzcw==</t>
+          <t>R2l6bW9kbyBEZWFscw==</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>UnVzc2lhbiBoYWNraW5nIGdyb3VwIFN0YXIgQmxpenphcmQgaXMgdGFyZ2V0aW5nIGdyb3VwcyBpbmNsdWRpbmcgQW1lcmljYW4gbWlsaXRhcnkgY29udHJhY3RvcnMgYW5kIHRoZSBEZXBhcnRtZW50IG9mIEVuZXJneS4KCkEgaGFja2luZyBncm91cCB0aWVkIHRvIFJ1c3NpYW4gaW50ZWxsaWdlbmNlIHRyaWVkIHRvIHdvcm0gaXRzIHdheSBpbnRvIHRoZSBzeXN0ZW1zIG9mIGRvemVucyBvZiBXZXN0ZXJuIHRoaW5rIHRhbmtzLCBqb3VybmFsaXN0cyBhbuKApg==</t>
+          <t>QW1hem9uIGlzIGxhdW5jaGluZyBpdHMgUHJpbWUgRGF5IGRlYWxzIGVhcmx5IGFuZCBhbGxvd3Mgbm9uLVByaW1lIG1lbWJlcnMgdG8gdGFrZSBhZHZhbnRhZ2Ugb2YgdGhlIGRpc2NvdW50cyBhcyB3ZWxsLg==</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>QSBoYWNraW5nIGdyb3VwIHRpZWQgdG8gUnVzc2lhbiBpbnRlbGxpZ2VuY2UgdHJpZWQgdG8gd29ybSBpdHMgd2F5IGludG8gdGhlIHN5c3RlbXMgb2YgZG96ZW5zIG9mIFdlc3Rlcm4gdGhpbmsgdGFua3MsIGpvdXJuYWxpc3RzIGFuZCBmb3JtZXIgbWlsaXRhcnkgYW5kIGludGVsbGlnZW5jZSBvZmZpY2lhbHMsIE1pY3Jvc29mdCBhbmQgVS5TLiBhdeKApiBbKzI3MzMgY2hhcnNd</t>
+          <t>QW1hem9u4oCZcyBQcmltZSAoQmlnIERlYWwpIERheXMgaXMgc2V0IGZvciBPY3RvYmVyIDgtOSwgMjAyNCBhbmQgaXQgaXMgc2hhcGluZyB1cCB0byBiZSBhbiBleGNpdGluZyBzaG9wcGluZyBldmVudCBmb3IgY29uc3VtZXJzIHdvcmxkd2lkZS4gV2hpbGUgdGhlIG9mZmljaWFsIGV2ZW50IGlzIHN0aWxsIGEgZmV3IGRheXMgYXdheSwgQW1hem9uIGhh4oCmIFsrMzk2OCBjaGFyc10=</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZmFzdGNvbXBhbnkuY29tLzkxMjAzMzY1L21pY3Jvc29mdC1kb2otaW50ZXJjZXB0LXJ1c3NpYW4taGFja2luZy1ncm91cHMtc3BlYXItcGhpc2hpbmctY2FtcGFpZ24=</t>
+          <t>aHR0cHM6Ly9naXptb2RvLmNvbS9wcmltZS1kYXktYW1hem9uLWFjY2lkZW50YWxseS1yZXZlYWxzLW9mZmVycy1oZXJlLWFyZS10aGUtMTAtYmVzdC1kZWFscy10aGlzLXN1bmRheS1tb3JuaW5nLTIwMDA1MDc5NDE=</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>VGhlcmVnaXN0ZXIuY29t</t>
+          <t>R2l6bW9kby5jb20=</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SGVhbHRoY2FyZSBTZXJ2aWNlcyBHcm91cCBkaXNjbG9zZXMgJ2N5YmVyc2VjdXJpdHkgaW5jaWRlbnQnIGluIFNFQyBmaWxpbmc=</t>
+          <t>U2NhcmxldHQgSm9oYW5zc29uLCBLeWxpZSBKZW5uZXIgYW5kIFRheWxvciBTd2lmdCBUb3AgTGlzdCBvZiBDZWxlYnJpdGllcyBVc2VkIGZvciBBSSBTY2Ftcw==</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q29ubm9yIEpvbmVz</t>
+          <t>TWF0dCBOb3Zhaw==</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TGF1bmRyeSBhbmQgZGluaW5nIHByb3ZpZGVyIHN0aWxsIGludmVzdGlnYXRpbmcgY2F1c2UgYW5kIHNjb3BlCkhlYWx0aGNhcmUgU2VydmljZXMgR3JvdXAgKEhTRykgaGFzIGRpc2Nsb3NlZCAidW5hdXRob3JpemVkIGFjdGl2aXR5IHdpdGhpbiBzb21lIG9mIGl0cyBzeXN0ZW1zIiBpbiBhIFNlY3VyaXRpZXMgYW5kIEV4Y2hhbmdlIENvbW1pc3Npb24gKFNFQykgZmlsaW5nLuKApg==</t>
+          <t>RnJvbSBzZWxsaW5nIGNyeXB0byB0byBtaXJhY2xlIGN1cmVzLCBkZWVwZmFrZSBjZWxlYnJpdHkgYWRzIGFyZSBldmVyeXdoZXJlLg==</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SGVhbHRoY2FyZSBTZXJ2aWNlcyBHcm91cCAoSFNHKSBoYXMgZGlzY2xvc2VkICJ1bmF1dGhvcml6ZWQgYWN0aXZpdHkgd2l0aGluIHNvbWUgb2YgaXRzIHN5c3RlbXMiIGluIGEgU2VjdXJpdGllcyBhbmQgRXhjaGFuZ2UgQ29tbWlzc2lvbiAoU0VDKSBmaWxpbmcuDQpUaGUgY29tcGFueSwgd2hpY2ggcHJvdmlkZXMgaG91c2VrZWVwaW5nLCBsYXVuZOKApiBbKzIwMjIgY2hhcnNd</t>
+          <t>WW914oCZcmUgcHJvYmFibHkgc2VlbiB0aGUgcmlkaWN1bG91cyB2aWRlb3Mgb24gc29jaWFsIG1lZGlhLiBUaGVyZeKAmXMgYSBjZWxlYnJpdHltYXliZSBpdOKAmXMgU3lkbmV5IFN3ZWVuZXkgb3IgVG9tIEhhbmtzdGFsa2luZyBkaXJlY3RseSB0byB0aGUgY2FtZXJhIGFib3V0IHNvbWUgcHJvZHVjdCwgYnV0IHNvbWV0aGluZyBzZWVtcyBhIGJpdCBvZmYuIOKApiBbKzQ2NDcgY2hhcnNd</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMTgvaGVhbHRoY2FyZV9zZXJ2aWNlc19ncm91cF9hdHRhY2sv</t>
+          <t>aHR0cHM6Ly9naXptb2RvLmNvbS9zY2FybGV0dC1qb2hhbnNzb24ta3lsaWUtamVubmVyLWFuZC10YXlsb3Itc3dpZnQtdG9wLWxpc3Qtb2YtY2VsZWJyaXRpZXMtdXNlZC1mb3ItYWktc2NhbXMtMjAwMDUwOTE1OA==</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>VGhlcmVnaXN0ZXIuY29t</t>
+          <t>R2l6bW9kby5jb20=</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RXh0cmFjdGluZyB2ZW5kb3IgcHJvbWlzZXMgd29uJ3QgZml4IGN5YmVyc2VjdXJpdHkuIEV4dHJhY3RpbmcgdGVldGggbWlnaHQ=</t>
+          <t>T3BlbkFJIFJhaXNlcyBCaWxsaW9ucyBXaGlsZSBQbGVkZ2luZyB0byBXb3JrIFdpdGgg4oCYVS5TLiBhbmQgQWxsaWVkIEdvdmVybm1lbnRz4oCZ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>UnVwZXJ0IEdvb2R3aW5z</t>
+          <t>TWF0dCBOb3Zhaw==</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>T25lIGJyYW5jaCBvZiB0ZWNoIGhhcyBsZWFybmVkIHRvIHdvcmsgdG9nZXRoZXIgdG8gc29sdmUgdGhlIG5lYXItaW1wb3NzaWJsZS4gTm93IGl0J3Mgb3VyIHR1cm4KT3BpbmlvbiBUbyBzYXkgY3liZXJzZWN1cml0eSBpcyBtb3N0bHkgdmVyeSBnb29kIGlzIGxpa2Ugc2F5aW5nIEJvZWluZydzIFN0YXJsaW5lciBwYXJ0cyBtb3N0bHkgd29yayDigJMgdHJ1ZSwgYnV0IHlvdSdyZSBzdGlsbCBnb2luZyB0byBiZSBzbGVlcGluZyBpbiB0aGUgb2ZmaWNlLiBN4oCm</t>
+          <t>T3BlbkFJIGlzIG5vdyB2YWx1ZWQgYXQgJDE1NyBiaWxsaW9uLCBhIGNsb3NlIHJlYWQgb2YgT3BlbkFJJ3Mgc3RhdGVtZW50IG1pZ2h0IHByb3ZpZGUgc29tZSBoaW50cyBhYm91dCB0aGUgZnV0dXJlLg==</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>T3BpbmlvbiBUbyBzYXkgY3liZXJzZWN1cml0eSBpcyBtb3N0bHkgdmVyeSBnb29kIGlzIGxpa2Ugc2F5aW5nIEJvZWluZydzIFN0YXJsaW5lciBwYXJ0cyBtb3N0bHkgd29yayB0cnVlLCBidXQgeW91J3JlIHN0aWxsIGdvaW5nIHRvIGJlIHNsZWVwaW5nIGluIHRoZSBvZmZpY2UuIE1vcmVvdmVyLCBpdCdzIHF1ZXN0aW9uYWJsZSB3aGV0aGVyIGVpdOKApiBbKzQ5MjEgY2hhcnNd</t>
+          <t>T3BlbkFJIGhhcyByYWlzZWQgJDYuNiBiaWxsaW9uIGF0IGEgJDE1NyBiaWxsaW9uIHBvc3QtbW9uZXkgdmFsdWF0aW9uLCBhY2NvcmRpbmcgdG8gYSBzdGF0ZW1lbnQgdGhlIGNvbXBhbnkgcG9zdGVkIG9ubGluZSBXZWRuZXNkYXkuIFRoZSBmdW5kaW5nIHJvdW5kIHdhcyBsZWQgYnkgVGhyaXZlIENhcGl0YWwsIHdoaWNoIGludmVzdGVkICQxLjI1IOKApiBbKzQzNzkgY2hhcnNd</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMDkvMzAvc2VjdXJpdHlfb3Bpbmlvbi8=</t>
+          <t>aHR0cHM6Ly9naXptb2RvLmNvbS9vcGVuYWktcmFpc2VzLWJpbGxpb25zLXdoaWxlLXBsZWRnaW5nLXRvLXdvcmstd2l0aC11LXMtYW5kLWFsbGllZC1nb3Zlcm5tZW50cy0yMDAwNTA2NTU2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VGVjaGRpcnQ=</t>
+          <t>VmVudHVyZUJlYXQ=</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RGFpbHkgRGVhbDogQ3liZXJzZWN1cml0eSBQcm9qZWN0cyBCdW5kbGU=</t>
+          <t>TnZpZGlhIG1ha2VzIDcgdGVjaCBhbm5vdW5jZW1lbnRzIGluIFdhc2hpbmd0b24gRC5DLiBhcyBhbnRpdHJ1c3QgbG9vbXM=</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>R3JldGNoZW4gSGVja21hbm4=</t>
+          <t>RGVhbiBUYWthaGFzaGk=</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VGhlIEN5YmVyc2VjdXJpdHkgUHJvamVjdHMgQnVuZGxlIG9mZmVycyBhIGhhbmRzLW9uIHByb2dyYW0gZmVhdHVyaW5nIGZpdmUgcmVhbC13b3JsZCBjeWJlcnNlY3VyaXR5IHByb2plY3RzLCB0b3RhbGluZyAzNSB0YXNrcy4gUGFydGljaXBhbnRzIHN0YXJ0IHdpdGggYW4gaW50cm9kdWN0b3J5IHZpZGVvIGZvciBlYWNoIHByb2plY3QsIGRldGFpbGluZyBvYmplY3RpdmVzIGFuZCByZXF1aXJlbWVudHMsIGZvbGxvd2VkIGJ5IHRhc2sgY29tcGxldGlvbuKApg==</t>
+          <t>TnZpZGlhIHNob3dlZCB0ZWNoIGluIHRoZSBuYXRpb24ncyBjYXBpdGFsIGF0IGl0cyBBSSBTdW1taXQgdG8gaGVscCBlZHVjYXRlIHRoZSBnb3Zlcm5tZW50IGF0IGEgdGltZSB3aGVuIE52aWRpYSBpcyBmYWNpbmcgYW4gYW50aXRydXN0IHByb2JlLg==</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ZnJvbSB0aGUgZ29vZC1kZWFscy1vbi1jb29sLXN0dWZmIGRlcHQNClRoZSBDeWJlcnNlY3VyaXR5IFByb2plY3RzIEJ1bmRsZSBvZmZlcnMgYSBoYW5kcy1vbiBwcm9ncmFtIGZlYXR1cmluZyBmaXZlIHJlYWwtd29ybGQgY3liZXJzZWN1cml0eSBwcm9qZWN0cywgdG90YWxpbmcgMzUgdGFza3MuIFBhcnRpY2lwYW50cyBzdGFydCB3aXRoIGFuIGludOKApiBbKzcwOCBjaGFyc10=</t>
+          <t>Sm9pbiBvdXIgZGFpbHkgYW5kIHdlZWtseSBuZXdzbGV0dGVycyBmb3IgdGhlIGxhdGVzdCB1cGRhdGVzIGFuZCBleGNsdXNpdmUgY29udGVudCBvbiBpbmR1c3RyeS1sZWFkaW5nIEFJIGNvdmVyYWdlLiBMZWFybiBNb3JlDQpOdmlkaWEgc2hvd2VkIG9mZiBpdHMgdGVjaG5vbG9neSBpbiBXYXNoaW5ndG9uLCBELkMuIHRvZGF5IGF0IGl0cyBBSSBTdeKApiBbKzEzNzM0IGNoYXJzXQ==</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGVjaGRpcnQuY29tLzIwMjQvMTAvMDkvZGFpbHktZGVhbC1jeWJlcnNlY3VyaXR5LXByb2plY3RzLWJ1bmRsZS0yLw==</t>
+          <t>aHR0cHM6Ly92ZW50dXJlYmVhdC5jb20vYWkvbnZpZGlhLXNob3djYXNlcy10ZWNoLWluLXdhc2hpbmd0b24tZC1jLWFzLWFudGl0cnVzdC1sb29tcy8=</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q05FVA==</t>
+          <t>TlBS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TG9jayBEb3duIFlvdXIgRGF0YTogV2h5IEV2ZXJ5IEJ1c2luZXNzIE5lZWRzIGEgUGFzc3dvcmQgTWFuYWdlciBUb2RheQ==</t>
+          <t>UnVzc2lhIGlzIGJlaGluZCBmYWtlIHZpZGVvIG9mIGJhbGxvdHMgYmVpbmcgZGVzdHJveWVkLCBVLlMuIG9mZmljaWFscyBzYXk=</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>YnkgQ05FVCBQYWlkIENvbnRlbnQgU3R1ZGlv</t>
+          <t>U2hhbm5vbiBCb25k</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Q29tcHJlaGVuc2l2ZSBwYXNzd29yZCBtYW5hZ2VtZW50IGFjcm9zcyBhbiBlbnRpcmUgb3JnYW5pemF0aW9uIGhlbHBzIHlvdXIgY29tcGFueSBkZWZlbmQgYWdhaW5zdCBjeWJlcnNlY3VyaXR5IHRocmVhdHMuIFNlZSBob3cgd2l0aCBDTkVUJ3MgaGlnaGVzdC1yYW5rZWQgb3ZlcmFsbCBwYXNzd29yZCBtYW5hZ2VyLg==</t>
+          <t>RmVkZXJhbCBpbnRlbGxpZ2VuY2Ugb2ZmaWNpYWxzIGFuZCB0aGUgRkJJIHNheSBSdXNzaWEgaXMgYmVoaW5kIHRoZSB2aWRlbywgd2hpY2ggaGFzIHNwcmVhZCB3aWRlbHkgb24gc29jaWFsIG1lZGlhLCBpbmNsdWRpbmcgRWxvbiBNdXNr4oCZcyBYLg==</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSBhdHRhY2tzIGFyZSByYXBpZGx5IGluY3JlYXNpbmcgYWNyb3NzIGluZHVzdHJpZXMsIGRyaXZlbiBieSB3ZWFrIG9yIHJldXNlZCBwYXNzd29yZHMgdGhhdCBvcGVuIGRvb3JzIHRvIHBvdGVudGlhbCB0aHJlYXRzLiBBIHJlY2VudCBzdXJ2ZXkgZm91bmQgdGhhdCBvdmVyIDkwIHBlcmNlbnQgb2YgZW1wbG95ZWVzIHJldXNlIOKApiBbKzY1MDEgY2hhcnNd</t>
+          <t>UnVzc2lhIG1hbnVmYWN0dXJlZCBhbmQgc3ByZWFkIGEgZmFrZSB2aWRlbyB0aGF0IHB1cnBvcnRzIHRvIHNob3cgc29tZW9uZSBkZXN0cm95aW5nIGJhbGxvdHMgbWFya2VkIGZvciBmb3JtZXIgUHJlc2lkZW50IERvbmFsZCBUcnVtcCBpbiBQZW5uc3lsdmFuaWEsIFUuUy4gb2ZmaWNpYWxzIHNhaWQgb24gRnJpZGF5Lg0KVGhlIHBob255IHZpZGVvIOKApiBbKzI0NjggY2hhcnNd</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuY25ldC5jb20vcGFpZC1jb250ZW50L25ld3MvYml0d2FyZGVuLWxvY2stZG93bi15b3VyLWRhdGEtd2h5LWV2ZXJ5LWJ1c2luZXNzLW5lZWRzLWEtcGFzc3dvcmQtbWFuYWdlci10b2RheS1zc28tcGFzc3dvcmQtYnJlYWNoZXMv</t>
+          <t>aHR0cHM6Ly93d3cubnByLm9yZy8yMDI0LzEwLzI1L254LXMxLTUxNjU1OTMvcnVzc2lhLWJhbGxvdC12aWRlby1idWNrcy1jb3VudHk=</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R2l6bW9kby5jb20=</t>
+          <t>U2xhc2hkb3Qub3Jn</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>UHJpbWUgRGF5OiBBbWF6b24gQWNjaWRlbnRhbGx5IFJldmVhbHMgT2ZmZXJzLCBIZXJlIEFyZSB0aGUgMTAgQmVzdCBEZWFscyBUaGlzIFN1bmRheSBNb3JuaW5n</t>
+          <t>VS5TLiBXaXJldGFwIFN5c3RlbXMgVGFyZ2V0ZWQgaW4gQ2hpbmEtTGlua2VkIEhhY2s=</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>R2l6bW9kbyBEZWFscw==</t>
+          <t>RWRpdG9yRGF2aWQ=</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>QW1hem9uIGlzIGxhdW5jaGluZyBpdHMgUHJpbWUgRGF5IGRlYWxzIGVhcmx5IGFuZCBhbGxvd3Mgbm9uLVByaW1lIG1lbWJlcnMgdG8gdGFrZSBhZHZhbnRhZ2Ugb2YgdGhlIGRpc2NvdW50cyBhcyB3ZWxsLg==</t>
+          <t>IkEgY3liZXJhdHRhY2sgdGllZCB0byB0aGUgQ2hpbmVzZSBnb3Zlcm5tZW50IHBlbmV0cmF0ZWQgdGhlIG5ldHdvcmtzIG9mIGEgc3dhdGggb2YgVS5TLiBicm9hZGJhbmQgcHJvdmlkZXJzLCIgcmVwb3J0cyB0aGUgV2FsbCBTdHJlZXQgSm91cm5hbCwgInBvdGVudGlhbGx5IGFjY2Vzc2luZyBpbmZvcm1hdGlvbiBmcm9tIHN5c3RlbXMgdGhlIGZlZGVyYWwgZ292ZXJubWVudCB1c2VzIGZvciBjb3VydC1hdXRob3JpemVkIG5ldHdvcmsgd2lyZXRhcHBpbuKApg==</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>QW1hem9u4oCZcyBQcmltZSAoQmlnIERlYWwpIERheXMgaXMgc2V0IGZvciBPY3RvYmVyIDgtOSwgMjAyNCBhbmQgaXQgaXMgc2hhcGluZyB1cCB0byBiZSBhbiBleGNpdGluZyBzaG9wcGluZyBldmVudCBmb3IgY29uc3VtZXJzIHdvcmxkd2lkZS4gV2hpbGUgdGhlIG9mZmljaWFsIGV2ZW50IGlzIHN0aWxsIGEgZmV3IGRheXMgYXdheSwgQW1hem9uIGhh4oCmIFsrMzk2OCBjaGFyc10=</t>
+          <t>IkEgY3liZXJhdHRhY2sgdGllZCB0byB0aGUgQ2hpbmVzZSBnb3Zlcm5tZW50IHBlbmV0cmF0ZWQgdGhlIG5ldHdvcmtzIG9mIGEgc3dhdGggb2YgVS5TLiBicm9hZGJhbmQgcHJvdmlkZXJzLCIgcmVwb3J0cyB0aGUgV2FsbCBTdHJlZXQgSm91cm5hbCwgInBvdGVudGlhbGx5IGFjY2Vzc2luZyBpbmZvcm1hdGlvbiBmcm9tIHN5c3RlbXMgdGhlIGZlZOKApiBbKzI1MzUgY2hhcnNd</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9naXptb2RvLmNvbS9wcmltZS1kYXktYW1hem9uLWFjY2lkZW50YWxseS1yZXZlYWxzLW9mZmVycy1oZXJlLWFyZS10aGUtMTAtYmVzdC1kZWFscy10aGlzLXN1bmRheS1tb3JuaW5nLTIwMDA1MDc5NDE=</t>
+          <t>aHR0cHM6Ly9zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMTAvMDUvMjExODI0Ny91cy13aXJldGFwLXN5c3RlbXMtdGFyZ2V0ZWQtaW4tY2hpbmEtbGlua2VkLWhhY2s=</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R2l6bW9kby5jb20=</t>
+          <t>U2xhc2hkb3Qub3Jn</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>U2NhcmxldHQgSm9oYW5zc29uLCBLeWxpZSBKZW5uZXIgYW5kIFRheWxvciBTd2lmdCBUb3AgTGlzdCBvZiBDZWxlYnJpdGllcyBVc2VkIGZvciBBSSBTY2Ftcw==</t>
+          <t>VUsgTnVjbGVhciBTaXRlJ3MgQ2xlYW4tVXAgQ29zdHMgUmlzZSBUbyDCozEzNiBCaWxsaW9u</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TWF0dCBOb3Zhaw==</t>
+          <t>RWRpdG9yRGF2aWQ=</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RnJvbSBzZWxsaW5nIGNyeXB0byB0byBtaXJhY2xlIGN1cmVzLCBkZWVwZmFrZSBjZWxlYnJpdHkgYWRzIGFyZSBldmVyeXdoZXJlLg==</t>
+          <t>VGhlIGNvc3Qgb2YgY2xlYW5pbmcgdXAgdGhlIFUuSy4ncyBsYXJnZXN0IG51Y2xlYXIgc2l0ZSwgImlzIGV4cGVjdGVkIHRvIHNwaXJhbCB0byDCozEzNiBiaWxsaW9uIiAoYWJvdXQgJDE3NiBiaWxsaW9uKSwgYWNjb3JkaW5nIHRvIHRoZSBHdWFyZGlhbiwgY3JlYXRpbmcgdGVuc2lvbiB3aXRoIHRoZSBjb3VudHJ5J3MgcHVibGljLXNwZW5kaW5nIHdhdGNoZG9nLiAKClByb2plY3RzIHRvIGZpeCB0aGUgc3RhdGUtb3duZWQgYnVpbGRpbmdzIHdpdGggaGHigKY=</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>WW914oCZcmUgcHJvYmFibHkgc2VlbiB0aGUgcmlkaWN1bG91cyB2aWRlb3Mgb24gc29jaWFsIG1lZGlhLiBUaGVyZeKAmXMgYSBjZWxlYnJpdHltYXliZSBpdOKAmXMgU3lkbmV5IFN3ZWVuZXkgb3IgVG9tIEhhbmtzdGFsa2luZyBkaXJlY3RseSB0byB0aGUgY2FtZXJhIGFib3V0IHNvbWUgcHJvZHVjdCwgYnV0IHNvbWV0aGluZyBzZWVtcyBhIGJpdCBvZmYuIOKApiBbKzQ2NDcgY2hhcnNd</t>
+          <t>VGhlIGNvc3Qgb2YgY2xlYW5pbmcgdXAgdGhlIFUuSy4ncyBsYXJnZXN0IG51Y2xlYXIgc2l0ZSwgImlzIGV4cGVjdGVkIHRvIHNwaXJhbCB0byDCozEzNiBiaWxsaW9uIiAoYWJvdXQgJDE3NiBiaWxsaW9uKSwgYWNjb3JkaW5nIHRvIHRoZSBHdWFyZGlhbiwgY3JlYXRpbmcgdGVuc2lvbiB3aXRoIHRoZSBjb3VudHJ5J3MgcHVibGljLXNwZW5kaW5nIHfigKYgWysyMjYwIGNoYXJzXQ==</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9naXptb2RvLmNvbS9zY2FybGV0dC1qb2hhbnNzb24ta3lsaWUtamVubmVyLWFuZC10YXlsb3Itc3dpZnQtdG9wLWxpc3Qtb2YtY2VsZWJyaXRpZXMtdXNlZC1mb3ItYWktc2NhbXMtMjAwMDUwOTE1OA==</t>
+          <t>aHR0cHM6Ly9uZXdzLnNsYXNoZG90Lm9yZy9zdG9yeS8yNC8xMC8yNi8wMjM5MjI4L3VrLW51Y2xlYXItc2l0ZXMtY2xlYW4tdXAtY29zdHMtcmlzZS10by0xMzYtYmlsbGlvbg==</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R2l6bW9kby5jb20=</t>
+          <t>W1JlbW92ZWRd</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>T3BlbkFJIFJhaXNlcyBCaWxsaW9ucyBXaGlsZSBQbGVkZ2luZyB0byBXb3JrIFdpdGgg4oCYVS5TLiBhbmQgQWxsaWVkIEdvdmVybm1lbnRz4oCZ</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>TWF0dCBOb3Zhaw==</t>
-        </is>
-      </c>
+          <t>W1JlbW92ZWRd</t>
+        </is>
+      </c>
+      <c r="C39"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T3BlbkFJIGlzIG5vdyB2YWx1ZWQgYXQgJDE1NyBiaWxsaW9uLCBhIGNsb3NlIHJlYWQgb2YgT3BlbkFJJ3Mgc3RhdGVtZW50IG1pZ2h0IHByb3ZpZGUgc29tZSBoaW50cyBhYm91dCB0aGUgZnV0dXJlLg==</t>
+          <t>W1JlbW92ZWRd</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>T3BlbkFJIGhhcyByYWlzZWQgJDYuNiBiaWxsaW9uIGF0IGEgJDE1NyBiaWxsaW9uIHBvc3QtbW9uZXkgdmFsdWF0aW9uLCBhY2NvcmRpbmcgdG8gYSBzdGF0ZW1lbnQgdGhlIGNvbXBhbnkgcG9zdGVkIG9ubGluZSBXZWRuZXNkYXkuIFRoZSBmdW5kaW5nIHJvdW5kIHdhcyBsZWQgYnkgVGhyaXZlIENhcGl0YWwsIHdoaWNoIGludmVzdGVkICQxLjI1IOKApiBbKzQzNzkgY2hhcnNd</t>
+          <t>W1JlbW92ZWRd</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9naXptb2RvLmNvbS9vcGVuYWktcmFpc2VzLWJpbGxpb25zLXdoaWxlLXBsZWRnaW5nLXRvLXdvcmstd2l0aC11LXMtYW5kLWFsbGllZC1nb3Zlcm5tZW50cy0yMDAwNTA2NTU2</t>
+          <t>aHR0cHM6Ly9yZW1vdmVkLmNvbQ==</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VmVudHVyZUJlYXQ=</t>
+          <t>QUJDIE5ld3M=</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TnZpZGlhIG1ha2VzIDcgdGVjaCBhbm5vdW5jZW1lbnRzIGluIFdhc2hpbmd0b24gRC5DLiBhcyBhbnRpdHJ1c3QgbG9vbXM=</t>
+          <t>VGhlIFVTIGFuZCBNaWNyb3NvZnQgZGlzcnVwdCBhIFJ1c3NpYW4gaGFja2luZyBncm91cCB0YXJnZXRpbmcgQW1lcmljYW4gb2ZmaWNpYWxzIGFuZCBub25wcm9maXRz</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RGVhbiBUYWthaGFzaGk=</t>
+          <t>REFWSUQgS0xFUFBFUiBBc3NvY2lhdGVkIFByZXNz</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TnZpZGlhIHNob3dlZCB0ZWNoIGluIHRoZSBuYXRpb24ncyBjYXBpdGFsIGF0IGl0cyBBSSBTdW1taXQgdG8gaGVscCBlZHVjYXRlIHRoZSBnb3Zlcm5tZW50IGF0IGEgdGltZSB3aGVuIE52aWRpYSBpcyBmYWNpbmcgYW4gYW50aXRydXN0IHByb2JlLg==</t>
+          <t>VS5TLiBhdXRob3JpdGllcyBhbmQgTWljcm9zb2Z0IHNheSBoYWNrZXJzIGxpbmtlZCB0byBSdXNzaWFuIGludGVsbGlnZW5jZSB0YXJnZXRlZCBkb3plbnMgb2YgZm9ybWVyIG1pbGl0YXJ5IGFuZCBpbnRlbGxpZ2VuY2Ugb2ZmaWNpYWxzLCBqb3VybmFsaXN0cyBhbmQgY2l2aWwgc29jaWV0eSBncm91cHMgd2l0aCBhIHNvcGhpc3RpY2F0ZWQgY2FtcGFpZ24gZGVzaWduZWQgdG8gc3RlYWwgaW5mb3JtYXRpb24=</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sm9pbiBvdXIgZGFpbHkgYW5kIHdlZWtseSBuZXdzbGV0dGVycyBmb3IgdGhlIGxhdGVzdCB1cGRhdGVzIGFuZCBleGNsdXNpdmUgY29udGVudCBvbiBpbmR1c3RyeS1sZWFkaW5nIEFJIGNvdmVyYWdlLiBMZWFybiBNb3JlDQpOdmlkaWEgc2hvd2VkIG9mZiBpdHMgdGVjaG5vbG9neSBpbiBXYXNoaW5ndG9uLCBELkMuIHRvZGF5IGF0IGl0cyBBSSBTdeKApiBbKzEzNzM0IGNoYXJzXQ==</t>
+          <t>V0FTSElOR1RPTiAtLSBBIGhhY2tpbmcgZ3JvdXAgdGllZCB0byBSdXNzaWFuIGludGVsbGlnZW5jZSB0cmllZCB0byB3b3JtIGl0cyB3YXkgaW50byB0aGUgc3lzdGVtcyBvZiBkb3plbnMgb2YgV2VzdGVybiB0aGluayB0YW5rcywgam91cm5hbGlzdHMgYW5kIGZvcm1lciBtaWxpdGFyeSBhbmQgaW50ZWxsaWdlbmNlIG9mZmljaWFscywgTWljcm9zb+KApiBbKzI3NjAgY2hhcnNd</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly92ZW50dXJlYmVhdC5jb20vYWkvbnZpZGlhLXNob3djYXNlcy10ZWNoLWluLXdhc2hpbmd0b24tZC1jLWFzLWFudGl0cnVzdC1sb29tcy8=</t>
+          <t>aHR0cHM6Ly9hYmNuZXdzLmdvLmNvbS9VUy93aXJlU3RvcnkvdXMtbWljcm9zb2Z0LWRpc3J1cHQtcnVzc2lhbi1oYWNraW5nLWdyb3VwLXRhcmdldGluZy1hbWVyaWNhbi0xMTQ0NzAxMjE=</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>U2xhc2hkb3Qub3Jn</t>
+          <t>RGlnaXRhbCBUcmVuZHM=</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>VS5TLiBXaXJldGFwIFN5c3RlbXMgVGFyZ2V0ZWQgaW4gQ2hpbmEtTGlua2VkIEhhY2s=</t>
+          <t>TWljcm9zb2Z0IERlZmVuZGVyIHJldmlldzogSXMgV2luZG93cyBkZWZhdWx0IGFudGl2aXJ1cyBzYWZlIGVub3VnaD8=</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RWRpdG9yRGF2aWQ=</t>
+          <t>QWxhbiBUcnVseQ==</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>IkEgY3liZXJhdHRhY2sgdGllZCB0byB0aGUgQ2hpbmVzZSBnb3Zlcm5tZW50IHBlbmV0cmF0ZWQgdGhlIG5ldHdvcmtzIG9mIGEgc3dhdGggb2YgVS5TLiBicm9hZGJhbmQgcHJvdmlkZXJzLCIgcmVwb3J0cyB0aGUgV2FsbCBTdHJlZXQgSm91cm5hbCwgInBvdGVudGlhbGx5IGFjY2Vzc2luZyBpbmZvcm1hdGlvbiBmcm9tIHN5c3RlbXMgdGhlIGZlZGVyYWwgZ292ZXJubWVudCB1c2VzIGZvciBjb3VydC1hdXRob3JpemVkIG5ldHdvcmsgd2lyZXRhcHBpbuKApg==</t>
+          <t>SSByZXZpZXdlZCBNaWNyb3NvZnQgRGVmZW5kZXIgdG8gZmluZCBvdXQgaG93IHdlbGwgdGhlIGZyZWUgYW50aXZpcnVzIHNvZnR3YXJlIGluY2x1ZGVkIHdpdGggV2luZG93cyBwcm90ZWN0cyB5b3VyIGNvbXB1dGVyIGFuZCB5b3VyIHBlcnNvbmFsIGRhdGEu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>IkEgY3liZXJhdHRhY2sgdGllZCB0byB0aGUgQ2hpbmVzZSBnb3Zlcm5tZW50IHBlbmV0cmF0ZWQgdGhlIG5ldHdvcmtzIG9mIGEgc3dhdGggb2YgVS5TLiBicm9hZGJhbmQgcHJvdmlkZXJzLCIgcmVwb3J0cyB0aGUgV2FsbCBTdHJlZXQgSm91cm5hbCwgInBvdGVudGlhbGx5IGFjY2Vzc2luZyBpbmZvcm1hdGlvbiBmcm9tIHN5c3RlbXMgdGhlIGZlZOKApiBbKzI1MzUgY2hhcnNd</t>
+          <t>SXTigJlzIGNsZWFyIHRoYXQgZXZlcnlvbmUgbmVlZHMgYW50aXZpcnVzIHByb3RlY3Rpb24sIGFuZCBNaWNyb3NvZnQgRGVmZW5kZXIgaXMgdGhlIGZpcnN0IGxpbmUgb2YgZGVmZW5zZSB0aGF0IGNvbWVzIHdpdGggZXZlcnkgV2luZG93cyBQQy4gSeKAmXZlIHJldmlld2VkIHRoZSBiZXN0IHRoaXJkLXBhcnR5IGFudGl2aXJ1cyBzb2Z0d2FyZSBhdmFpbGHigKYgWys2Njk2IGNoYXJzXQ==</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMTAvMDUvMjExODI0Ny91cy13aXJldGFwLXN5c3RlbXMtdGFyZ2V0ZWQtaW4tY2hpbmEtbGlua2VkLWhhY2s=</t>
+          <t>aHR0cHM6Ly93d3cuZGlnaXRhbHRyZW5kcy5jb20vY29tcHV0aW5nL21pY3Jvc29mdC1kZWZlbmRlci1yZXZpZXcv</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>W1JlbW92ZWRd</t>
+          <t>QW5kcm9pZCBDZW50cmFs</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>W1JlbW92ZWRd</t>
-        </is>
-      </c>
-      <c r="C42"/>
+          <t>R29vZ2xlIE1lc3NhZ2VzIG5vdyBoYXMgc21hcnRlciBkZXRlY3Rpb24gdG8gdGFja2xlIHRyaWNreSBzY2FtIG1lc3NhZ2Vz</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>dGVjaGtyaXRpa29AZ21haWwuY29tIChKYXkgQm9uZ2dvbHRvKQ==</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>W1JlbW92ZWRd</t>
+          <t>R29vZ2xl4oCZcyBsYXRlc3QgdXBkYXRlcyBhcmUgZ2VhcmVkIHRvIGd1YXJkIEFuZHJvaWQgdXNlcnMgZnJvbSBmYWtlIGRlbGl2ZXJpZXMsIGpvYi1vZmZlciBzY2FtcywgYW5kIG90aGVyIHNoYWR5IHNjaGVtZXMgdXNpbmcgb24tZGV2aWNlIEFJLg==</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>W1JlbW92ZWRd</t>
+          <t>V2hhdCB5b3UgbmVlZCB0byBrbm93DQo8dWw+PGxpPkdvb2dsZeKAmXMgTWVzc2FnZXMgYXBwIG5vdyB1c2VzIG9uLWRldmljZSBBSSB0byBmaWdodCBvZmYgc3BhbSwgc3VzcGljaW91cyBsaW5rcywgYW5kIG90aGVyIHVud2FudGVkIGNvbnRlbnQuPC9saT48bGk+SWYgYSBwb3RlbnRpYWwgc2NhbSBpcyBkZXRlY3RlZCwgTWVzc2FnZXMgd2lsbCBlaXRo4oCmIFsrMzAyNyBjaGFyc10=</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9yZW1vdmVkLmNvbQ==</t>
+          <t>aHR0cHM6Ly93d3cuYW5kcm9pZGNlbnRyYWwuY29tL2FwcHMtc29mdHdhcmUvZ29vZ2xlLW1lc3NhZ2VzLW5vdy1oYXMtc21hcnRlci1kZXRlY3Rpb24tdG8tdGFja2xlLXRyaWNreS1zY2FtLW1lc3NhZ2Vz</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>QUJDIE5ld3M=</t>
+          <t>OXRvNU1hYw==</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>VGhlIFVTIGFuZCBNaWNyb3NvZnQgZGlzcnVwdCBhIFJ1c3NpYW4gaGFja2luZyBncm91cCB0YXJnZXRpbmcgQW1lcmljYW4gb2ZmaWNpYWxzIGFuZCBub25wcm9maXRz</t>
+          <t>aVBob25lIE1pcnJvcmluZyBpcyBjdXJyZW50bHkgYSBwcml2YWN5IGFuZCBsZWdhbCByaXNrIG9uIHdvcmsgTWFjcw==</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>REFWSUQgS0xFUFBFUiBBc3NvY2lhdGVkIFByZXNz</t>
+          <t>QmVuIExvdmVqb3k=</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VS5TLiBhdXRob3JpdGllcyBhbmQgTWljcm9zb2Z0IHNheSBoYWNrZXJzIGxpbmtlZCB0byBSdXNzaWFuIGludGVsbGlnZW5jZSB0YXJnZXRlZCBkb3plbnMgb2YgZm9ybWVyIG1pbGl0YXJ5IGFuZCBpbnRlbGxpZ2VuY2Ugb2ZmaWNpYWxzLCBqb3VybmFsaXN0cyBhbmQgY2l2aWwgc29jaWV0eSBncm91cHMgd2l0aCBhIHNvcGhpc3RpY2F0ZWQgY2FtcGFpZ24gZGVzaWduZWQgdG8gc3RlYWwgaW5mb3JtYXRpb24=</t>
+          <t>T25lIG9mIHRoZSBuZXcgZmVhdHVyZXMgb2YgaU9TIDE4IGFuZCBtYWNPUyBTZXF1b2lhIGlzIGlQaG9uZSBNaXJyb3Jpbmcg4oCTIGJ1dCB1c2luZyB0aGlzIHdpdGggYSBwZXJzb25hbCBpUGhvbmUgb24gYSB3b3JrIE1hYyBjdXJyZW50bHkgY3JlYXRlcyBhIHByaXZhY3kgcmlzayBmb3IgZW1wbG95ZWVzLCBhbmQgYSBsZWdhbCByaXNrIGZvciBidXNpbmVzc2VzLgoKCgpUaGUgcHJvYmxlbSwgYXMgY3liZXJzZWN1cml0eSBjb21wYW55IFNldmNvIGRpc2Nv4oCm</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>V0FTSElOR1RPTiAtLSBBIGhhY2tpbmcgZ3JvdXAgdGllZCB0byBSdXNzaWFuIGludGVsbGlnZW5jZSB0cmllZCB0byB3b3JtIGl0cyB3YXkgaW50byB0aGUgc3lzdGVtcyBvZiBkb3plbnMgb2YgV2VzdGVybiB0aGluayB0YW5rcywgam91cm5hbGlzdHMgYW5kIGZvcm1lciBtaWxpdGFyeSBhbmQgaW50ZWxsaWdlbmNlIG9mZmljaWFscywgTWljcm9zb+KApiBbKzI3NjAgY2hhcnNd</t>
+          <t>T25lIG9mIHRoZSBuZXcgZmVhdHVyZXMgb2YgaU9TIDE4IGFuZCBtYWNPUyBTZXF1b2lhIGlzIGlQaG9uZSBNaXJyb3JpbmcgYnV0IHVzaW5nIHRoaXMgd2l0aCBhIHBlcnNvbmFsIGlQaG9uZSBvbiBhIHdvcmsgTWFjIGN1cnJlbnRseSBjcmVhdGVzIGEgcHJpdmFjeSByaXNrIGZvciBlbXBsb3llZXMsIGFuZCBhIGxlZ2FsIHJpc2sgZm9yIGJ1c2luZeKApiBbKzI1NTQgY2hhcnNd</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9hYmNuZXdzLmdvLmNvbS9VUy93aXJlU3RvcnkvdXMtbWljcm9zb2Z0LWRpc3J1cHQtcnVzc2lhbi1oYWNraW5nLWdyb3VwLXRhcmdldGluZy1hbWVyaWNhbi0xMTQ0NzAxMjE=</t>
+          <t>aHR0cHM6Ly85dG81bWFjLmNvbS8yMDI0LzEwLzA4L2lwaG9uZS1taXJyb3JpbmctaXMtY3VycmVudGx5LWEtcHJpdmFjeS1hbmQtbGVnYWwtcmlzay1vbi13b3JrLW1hY3Mv</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RGlnaXRhbCBUcmVuZHM=</t>
+          <t>Q05FVA==</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TWljcm9zb2Z0IERlZmVuZGVyIHJldmlldzogSXMgV2luZG93cyBkZWZhdWx0IGFudGl2aXJ1cyBzYWZlIGVub3VnaD8=</t>
+          <t>UG9saXRpY2FsIENhbXBhaWduIFRleHRzIFByb2JhYmx5IEFyZW4ndCBTY2FtcywgQnV0IFRoZXkgQXJlIFNwYW0=</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>QWxhbiBUcnVseQ==</t>
+          <t>QnJlZSBGb3dsZXI=</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SSByZXZpZXdlZCBNaWNyb3NvZnQgRGVmZW5kZXIgdG8gZmluZCBvdXQgaG93IHdlbGwgdGhlIGZyZWUgYW50aXZpcnVzIHNvZnR3YXJlIGluY2x1ZGVkIHdpdGggV2luZG93cyBwcm90ZWN0cyB5b3VyIGNvbXB1dGVyIGFuZCB5b3VyIHBlcnNvbmFsIGRhdGEu</t>
+          <t>VGV4dHMgZnJvbSBjYW1wYWlnbnMgYW5kIFBBQ3MgaGF2ZSB1cyBkb2luZyBhIGxvdCBvZiBkZWxldGluZyBhbmQgYmxvY2tpbmcuIEhlcmUncyB3aGF0IHlvdSBuZWVkIHRvIGtub3cu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SXTigJlzIGNsZWFyIHRoYXQgZXZlcnlvbmUgbmVlZHMgYW50aXZpcnVzIHByb3RlY3Rpb24sIGFuZCBNaWNyb3NvZnQgRGVmZW5kZXIgaXMgdGhlIGZpcnN0IGxpbmUgb2YgZGVmZW5zZSB0aGF0IGNvbWVzIHdpdGggZXZlcnkgV2luZG93cyBQQy4gSeKAmXZlIHJldmlld2VkIHRoZSBiZXN0IHRoaXJkLXBhcnR5IGFudGl2aXJ1cyBzb2Z0d2FyZSBhdmFpbGHigKYgWys2Njk2IGNoYXJzXQ==</t>
+          <t>VGhlIG1lc3NhZ2VzIGp1c3Qga2VlcCBjb21pbmcsIG9mdGVuIGluIGFsbCBjYXBzLsKgDQpUaGV5IG1pZ2h0IHNheSBzb21ldGhpbmcgbGlrZTogIjZYLU1BVENIIFNBVkUgUEVOTlNZTFZBTklBLCIgb3IgIkhvcnJpYmxlOiBJZiBUZWQgQ3J1eiBhbmQgS2FyaSBMYWtlIHdpbiwgS2FtYWxhJ3MgTWFqb3JpdHkgaXMgR09ORS4gNVgtTUFUQ0ggVE8gU0HigKYgWyszNjU0IGNoYXJzXQ==</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZGlnaXRhbHRyZW5kcy5jb20vY29tcHV0aW5nL21pY3Jvc29mdC1kZWZlbmRlci1yZXZpZXcv</t>
+          <t>aHR0cHM6Ly93d3cuY25ldC5jb20vdGVjaC9zZXJ2aWNlcy1hbmQtc29mdHdhcmUvcG9saXRpY2FsLWNhbXBhaWduLXRleHRzLXByb2JhYmx5LWFyZW50LXNjYW1zLWJ1dC10aGV5LWFyZS1zcGFtLw==</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>QW5kcm9pZCBDZW50cmFs</t>
+          <t>Q05FVA==</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R29vZ2xlIE1lc3NhZ2VzIG5vdyBoYXMgc21hcnRlciBkZXRlY3Rpb24gdG8gdGFja2xlIHRyaWNreSBzY2FtIG1lc3NhZ2Vz</t>
+          <t>TWFycmlvdHQgdG8gQm9vc3QgRGF0YSBQcm90ZWN0aW9uIFByYWN0aWNlcyBhcyBQYXJ0IG9mIERlYWwgV2l0aCBGVEM=</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>dGVjaGtyaXRpa29AZ21haWwuY29tIChKYXkgQm9uZ2dvbHRvKQ==</t>
+          <t>QnJlZSBGb3dsZXI=</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R29vZ2xl4oCZcyBsYXRlc3QgdXBkYXRlcyBhcmUgZ2VhcmVkIHRvIGd1YXJkIEFuZHJvaWQgdXNlcnMgZnJvbSBmYWtlIGRlbGl2ZXJpZXMsIGpvYi1vZmZlciBzY2FtcywgYW5kIG90aGVyIHNoYWR5IHNjaGVtZXMgdXNpbmcgb24tZGV2aWNlIEFJLg==</t>
+          <t>VGhlIGFncmVlbWVudCBzZXR0bGVzIGNoYXJnZXMgc3RlbW1pbmcgZnJvbSBhIHRyaW8gb2YgZGF0YSBicmVhY2hlcyB0aGF0IGNvbXByb21pc2VkIHRoZSBwZXJzb25hbCBpbmZvcm1hdGlvbiBvZiBtb3JlIHRoYW4gMzQ0IG1pbGxpb24gY3VzdG9tZXJzLg==</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>V2hhdCB5b3UgbmVlZCB0byBrbm93DQo8dWw+PGxpPkdvb2dsZeKAmXMgTWVzc2FnZXMgYXBwIG5vdyB1c2VzIG9uLWRldmljZSBBSSB0byBmaWdodCBvZmYgc3BhbSwgc3VzcGljaW91cyBsaW5rcywgYW5kIG90aGVyIHVud2FudGVkIGNvbnRlbnQuPC9saT48bGk+SWYgYSBwb3RlbnRpYWwgc2NhbSBpcyBkZXRlY3RlZCwgTWVzc2FnZXMgd2lsbCBlaXRo4oCmIFsrMzAyNyBjaGFyc10=</t>
+          <t>TWFycmlvdHQgSW50ZXJuYXRpb25hbCBhbmQgaXRzIFN0YXJ3b29kIEhvdGVscyAmYW1wOyBSZXNvcnRzIFdvcmxkd2lkZSBzdWJzaWRpYXJ5IHdpbGwgcHV0IGluIHBsYWNlIGEgInJvYnVzdCIgbmV3IGRhdGEgc2VjdXJpdHkgcHJvZ3JhbSB0byBzZXR0bGUgY2hhcmdlcyB0aGF0IGl0cyBwb29yIHNlY3VyaXR5IHByYWN0aWNlcyBsZWQgdG8gYSB0cuKApiBbKzMwMDkgY2hhcnNd</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYW5kcm9pZGNlbnRyYWwuY29tL2FwcHMtc29mdHdhcmUvZ29vZ2xlLW1lc3NhZ2VzLW5vdy1oYXMtc21hcnRlci1kZXRlY3Rpb24tdG8tdGFja2xlLXRyaWNreS1zY2FtLW1lc3NhZ2Vz</t>
+          <t>aHR0cHM6Ly93d3cuY25ldC5jb20vdGVjaC9zZXJ2aWNlcy1hbmQtc29mdHdhcmUvbWFycmlvdHQtdG8tYm9vc3QtZGF0YS1wcm90ZWN0aW9uLXByYWN0aWNlcy1hcy1wYXJ0LW9mLWRlYWwtd2l0aC1mdGMv</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>aVBob25lIE1pcnJvcmluZyBpcyBjdXJyZW50bHkgYSBwcml2YWN5IGFuZCBsZWdhbCByaXNrIG9uIHdvcmsgTWFjcw==</t>
+          <t>VC1Nb2JpbGUgZGF0YSBicmVhY2hlczogQ29tcGFueSBwYXlzIGZpbmUgYW5kIHByb21pc2VzIHRvIGRvIGJldHRlcg==</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1507,145 +1507,145 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>T25lIG9mIHRoZSBuZXcgZmVhdHVyZXMgb2YgaU9TIDE4IGFuZCBtYWNPUyBTZXF1b2lhIGlzIGlQaG9uZSBNaXJyb3Jpbmcg4oCTIGJ1dCB1c2luZyB0aGlzIHdpdGggYSBwZXJzb25hbCBpUGhvbmUgb24gYSB3b3JrIE1hYyBjdXJyZW50bHkgY3JlYXRlcyBhIHByaXZhY3kgcmlzayBmb3IgZW1wbG95ZWVzLCBhbmQgYSBsZWdhbCByaXNrIGZvciBidXNpbmVzc2VzLgoKCgpUaGUgcHJvYmxlbSwgYXMgY3liZXJzZWN1cml0eSBjb21wYW55IFNldmNvIGRpc2Nv4oCm</t>
+          <t>QSBzdWNjZXNzaW9uIG9mIFQtTW9iaWxlIGRhdGEgYnJlYWNoZXMgc2F3IG1pbGxpb25zIG9mIGN1c3RvbWVycyBoYXZlIHRoZWlyIHBlcnNvbmFsIGRhdGEgZXhwb3NlZC4gVGhlIGNvbXBhbnkgaGFzIG5vdyBiZWVuIGZpbmVkICQxNS43NU0sIGFuZCBoYXMgYWdyZWVkIHRvIHNwZW5kIHRoZSBzYW1lIGFtb3VudCBhZ2FpbiBvbiB1cGdyYWRpbmcgaXRzIHNlY3VyaXR5LgoKCgpUaGUgRmVkZXJhbCBDb21tdW5pY2F0aW9ucyBDb21taXNzaW9uIChGQ0MpIOKApg==</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>T25lIG9mIHRoZSBuZXcgZmVhdHVyZXMgb2YgaU9TIDE4IGFuZCBtYWNPUyBTZXF1b2lhIGlzIGlQaG9uZSBNaXJyb3JpbmcgYnV0IHVzaW5nIHRoaXMgd2l0aCBhIHBlcnNvbmFsIGlQaG9uZSBvbiBhIHdvcmsgTWFjIGN1cnJlbnRseSBjcmVhdGVzIGEgcHJpdmFjeSByaXNrIGZvciBlbXBsb3llZXMsIGFuZCBhIGxlZ2FsIHJpc2sgZm9yIGJ1c2luZeKApiBbKzI1NTQgY2hhcnNd</t>
+          <t>QSBzdWNjZXNzaW9uIG9mIFQtTW9iaWxlIGRhdGEgYnJlYWNoZXMgc2F3IG1pbGxpb25zIG9mIGN1c3RvbWVycyBoYXZlIHRoZWlyIHBlcnNvbmFsIGRhdGEgZXhwb3NlZC4gVGhlIGNvbXBhbnkgaGFzIG5vdyBiZWVuIGZpbmVkICQxNS43NU0sIGFuZCBoYXMgYWdyZWVkIHRvIHNwZW5kIHRoZSBzYW1lIGFtb3VudCBhZ2FpbiBvbiB1cGdyYWRpbmcgaeKApiBbKzE5MzkgY2hhcnNd</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly85dG81bWFjLmNvbS8yMDI0LzEwLzA4L2lwaG9uZS1taXJyb3JpbmctaXMtY3VycmVudGx5LWEtcHJpdmFjeS1hbmQtbGVnYWwtcmlzay1vbi13b3JrLW1hY3Mv</t>
+          <t>aHR0cHM6Ly85dG81bWFjLmNvbS8yMDI0LzEwLzAxL3QtbW9iaWxlLWRhdGEtYnJlYWNoZXMtY29tcGFueS1wYXlzLWZpbmUtYW5kLXByb21pc2VzLXRvLWRvLWJldHRlci8=</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Q05FVA==</t>
+          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>UG9saXRpY2FsIENhbXBhaWduIFRleHRzIFByb2JhYmx5IEFyZW4ndCBTY2FtcywgQnV0IFRoZXkgQXJlIFNwYW0=</t>
+          <t>Tm8gZGVncmVlPyBObyBwcm9ibGVtLiBJbnNpZGUgQmxhY2tzdG9uZSdzIGFtYml0aW91cyBwbGFucyB0byBpbnRlcm5hbGx5IGdyb3cgdGFsZW50IGZvciBpdHMgZGF0YSBjZW50ZXJzIGFuZCBvdGhlciBwb3J0Zm9saW8gY29tcGFuaWVz</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>QnJlZSBGb3dsZXI=</t>
+          <t>QWxleCBOaWNvbGw=</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VGV4dHMgZnJvbSBjYW1wYWlnbnMgYW5kIFBBQ3MgaGF2ZSB1cyBkb2luZyBhIGxvdCBvZiBkZWxldGluZyBhbmQgYmxvY2tpbmcuIEhlcmUncyB3aGF0IHlvdSBuZWVkIHRvIGtub3cu</t>
+          <t>QmxhY2tzdG9uZSdzICQxMDAgYmlsbGlvbi1wbHVzIGJldCBvbiBkYXRhIGNlbnRlcnMgcmVxdWlyZXMgc2tpbGxlZCBsYWJvci4gSGVyZSdzIGhvdyB0aGUgZmlybSBpcyBpbnZlc3RpbmcgaW4gdGFsZW50IGF0IGNvbXBhbmllcyBsaWtlIFFUUy4=</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>VGhlIG1lc3NhZ2VzIGp1c3Qga2VlcCBjb21pbmcsIG9mdGVuIGluIGFsbCBjYXBzLsKgDQpUaGV5IG1pZ2h0IHNheSBzb21ldGhpbmcgbGlrZTogIjZYLU1BVENIIFNBVkUgUEVOTlNZTFZBTklBLCIgb3IgIkhvcnJpYmxlOiBJZiBUZWQgQ3J1eiBhbmQgS2FyaSBMYWtlIHdpbiwgS2FtYWxhJ3MgTWFqb3JpdHkgaXMgR09ORS4gNVgtTUFUQ0ggVE8gU0HigKYgWyszNjU0IGNoYXJzXQ==</t>
+          <t>VGhyZWUgUVRTIGVtcGxveWVlcyB3YWxrIGRvd24gdGhlIGhhbGx3YXkgb2YgYSBkYXRhIGNlbnRlci5CbGFja3N0b25lDQo8dWw+PGxpPkJsYWNrc3RvbmUgaXMgaW52ZXN0aW5nIGJpZyBpbiBkYXRhIGNlbnRlcnMgYW5kIG90aGVyIEFJIGluZnJhc3RydWN0dXJlLjwvbGk+PGxpPlRoYXQgbWVhbnMgZ2V0dGluZyBhaGVhZCBvZiB0aGUgZGF0YS1jZeKApiBbKzgyODEgY2hhcnNd</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuY25ldC5jb20vdGVjaC9zZXJ2aWNlcy1hbmQtc29mdHdhcmUvcG9saXRpY2FsLWNhbXBhaWduLXRleHRzLXByb2JhYmx5LWFyZW50LXNjYW1zLWJ1dC10aGV5LWFyZS1zcGFtLw==</t>
+          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ibGFja3N0b25lLWNhcmVlci1wYXRod2F5cy10cmFpbmluZy1pbnRlcm5zaGlwcy1kYXRhLWNlbnRlci10YWxlbnQtcG9ydGZvbGlvLWNvbXBhbmllcy0yMDI0LTk=</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Q05FVA==</t>
+          <t>U2xhc2hkb3Qub3Jn</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TWFycmlvdHQgdG8gQm9vc3QgRGF0YSBQcm90ZWN0aW9uIFByYWN0aWNlcyBhcyBQYXJ0IG9mIERlYWwgV2l0aCBGVEM=</t>
+          <t>aU9TIGFuZCBBbmRyb2lkIFNlY3VyaXR5IFNjYXJlOiBUd28gQXBwcyBGb3VuZCBTdXBwb3J0aW5nICdQaWcgQnV0Y2hlcmluZycgU2NoZW1l</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>QnJlZSBGb3dsZXI=</t>
+          <t>RWRpdG9yRGF2aWQ=</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VGhlIGFncmVlbWVudCBzZXR0bGVzIGNoYXJnZXMgc3RlbW1pbmcgZnJvbSBhIHRyaW8gb2YgZGF0YSBicmVhY2hlcyB0aGF0IGNvbXByb21pc2VkIHRoZSBwZXJzb25hbCBpbmZvcm1hdGlvbiBvZiBtb3JlIHRoYW4gMzQ0IG1pbGxpb24gY3VzdG9tZXJzLg==</t>
+          <t>IlBpZyBCdXRjaGVyaW5nIEFsZXJ0OiBGcmF1ZHVsZW50IFRyYWRpbmcgQXBwIHRhcmdldGVkIGlPUyBhbmQgQW5kcm9pZCB1c2Vycy4iIAoKVGhhdCdzIHRoZSB0aXRsZSBvZiBhIG5ldyByZXBvcnQgcmVsZWFzZWQgdGhpcyB3ZWVrIGJ5IGN5YmVyc2VjdXJpdHkgY29tcGFueSBHcm91cC1JQiByZXZlYWxpbmcgdGhlIG9mZmljaWFsIEFwcGxlIEFwcCBTdG9yZSBhbmQgR29vZ2xlIFBsYXkgc3RvcmUgb2ZmZXJlZCBhcHBzIHRoYXQgd2VyZSBhY3R1YWxseeKApg==</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TWFycmlvdHQgSW50ZXJuYXRpb25hbCBhbmQgaXRzIFN0YXJ3b29kIEhvdGVscyAmYW1wOyBSZXNvcnRzIFdvcmxkd2lkZSBzdWJzaWRpYXJ5IHdpbGwgcHV0IGluIHBsYWNlIGEgInJvYnVzdCIgbmV3IGRhdGEgc2VjdXJpdHkgcHJvZ3JhbSB0byBzZXR0bGUgY2hhcmdlcyB0aGF0IGl0cyBwb29yIHNlY3VyaXR5IHByYWN0aWNlcyBsZWQgdG8gYSB0cuKApiBbKzMwMDkgY2hhcnNd</t>
+          <t>IlBpZyBCdXRjaGVyaW5nIEFsZXJ0OiBGcmF1ZHVsZW50IFRyYWRpbmcgQXBwIHRhcmdldGVkIGlPUyBhbmQgQW5kcm9pZCB1c2Vycy4iVGhhdCdzIHRoZSB0aXRsZSBvZiBhIG5ldyByZXBvcnQgcmVsZWFzZWQgdGhpcyB3ZWVrIGJ5IGN5YmVyc2VjdXJpdHkgY29tcGFueSBHcm91cC1JQiByZXZlYWxpbmcgdGhlIG9mZmljaWFsIEFwcGxlIEFwcCBTdOKApiBbKzM4MTIgY2hhcnNd</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuY25ldC5jb20vdGVjaC9zZXJ2aWNlcy1hbmQtc29mdHdhcmUvbWFycmlvdHQtdG8tYm9vc3QtZGF0YS1wcm90ZWN0aW9uLXByYWN0aWNlcy1hcy1wYXJ0LW9mLWRlYWwtd2l0aC1mdGMv</t>
+          <t>aHR0cHM6Ly95cm8uc2xhc2hkb3Qub3JnL3N0b3J5LzI0LzEwLzA2LzAxMjIyMTcvaW9zLWFuZC1hbmRyb2lkLXNlY3VyaXR5LXNjYXJlLXR3by1hcHBzLWZvdW5kLXN1cHBvcnRpbmctcGlnLWJ1dGNoZXJpbmctc2NoZW1l</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>WWFob28gRW50ZXJ0YWlubWVudA==</t>
+          <t>OXRvNU1hYw==</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Q3Jvd2RTdHJpa2UgSG9sZGluZ3MsIEluYy4gKENSV0QpOiBBcmUgSGVkZ2UgRnVuZHMgQnVsbGlzaCBPbiBUaGlzIEhpZ2ggVm9sdW1lIFN0b2NrIFJpZ2h0IE5vdz8=</t>
+          <t>Q2hpbmVzZSBoYWNrIG9mIFVTIElTUHMgc2hvd3Mgd2h5IEFwcGxlIGlzIHJpZ2h0IGFib3V0IGJhY2tkb29ycyBmb3IgbGF3IGVuZm9yY2VtZW50</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>U2hlcnlhciBTaWRkaXE=</t>
+          <t>QmVuIExvdmVqb3k=</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>V2UgcmVjZW50bHkgY29tcGlsZWQgYSBsaXN0IG9mIHRoZSAxMCBCZXN0IEhpZ2ggVm9sdW1lIFN0b2NrcyBUbyBCdXkgQWNjb3JkaW5nIHRvIEhlZGdlIEZ1bmRzLiBJbiB0aGlzIGFydGljbGUsIHdlIGFyZSBnb2luZyB0byB0YWtlIGEgbG9vayBhdCB3aGVyZS4uLg==</t>
+          <t>SXQgd2FzIHJldmVhbGVkIHRoaXMgd2Vla2VuZCB0aGF0IENoaW5lc2UgaGFja2VycyBtYW5hZ2VkIHRvIGFjY2VzcyBzeXN0ZW1zIHJ1biBieSB0aHJlZSBvZiB0aGUgbGFyZ2VzdCBpbnRlcm5ldCBzZXJ2aWNlIHByb3ZpZGVycyAoSVNQcykgaW4gdGhlIFVTLgoKCgpXaGF04oCZcyBub3RhYmxlIGFib3V0IHRoZSBhdHRhY2sgaXMgdGhhdCBpdCBjb21wcm9taXNlZCBzZWN1cml0eSBiYWNrZG9vcnMgZGVsaWJlcmF0ZWx5IGNyZWF0ZWQgdG8gYWxsb3cgZm9y4oCm</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>V2UgcmVjZW50bHkgY29tcGlsZWQgYSBsaXN0IG9mIHRoZSAxMCBCZXN0IEhpZ2ggVm9sdW1lIFN0b2NrcyBUbyBCdXkgQWNjb3JkaW5nIHRvIEhlZGdlIEZ1bmRzLsKgSW4gdGhpcyBhcnRpY2xlLCB3ZSBhcmUgZ29pbmcgdG8gdGFrZSBhIGxvb2sgYXQgd2hlcmUgQ3Jvd2RTdHJpa2UgSG9sZGluZ3MsIEluYy4gKE5BU0RBUTpDUldEKSBzdGFuZHMgYWfigKYgWys2NzIxIGNoYXJzXQ==</t>
+          <t>SXQgd2FzIHJldmVhbGVkIHRoaXMgd2Vla2VuZCB0aGF0IENoaW5lc2UgaGFja2VycyBtYW5hZ2VkIHRvIGFjY2VzcyBzeXN0ZW1zIHJ1biBieSB0aHJlZSBvZiB0aGUgbGFyZ2VzdCBpbnRlcm5ldCBzZXJ2aWNlIHByb3ZpZGVycyAoSVNQcykgaW4gdGhlIFVTLg0KV2hhdOKAmXMgbm90YWJsZSBhYm91dCB0aGUgYXR0YWNrIGlzIHRoYXQgaXQgY29tcHJv4oCmIFsrMjg3NSBjaGFyc10=</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9maW5hbmNlLnlhaG9vLmNvbS9uZXdzL2Nyb3dkc3RyaWtlLWhvbGRpbmdzLWluYy1jcndkLWhlZGdlLTA2NTY0MTk5Ny5odG1sLw==</t>
+          <t>aHR0cHM6Ly85dG81bWFjLmNvbS8yMDI0LzEwLzA4L2NoaW5lc2UtaGFjay1vZi11cy1pc3BzLXNob3dzLXdoeS1hcHBsZS1pcy1yaWdodC1hYm91dC1iYWNrZG9vcnMtZm9yLWxhdy1lbmZvcmNlbWVudC8=</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>OXRvNU1hYw==</t>
+          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VC1Nb2JpbGUgZGF0YSBicmVhY2hlczogQ29tcGFueSBwYXlzIGZpbmUgYW5kIHByb21pc2VzIHRvIGRvIGJldHRlcg==</t>
+          <t>MjNhbmRNZSB1c2VycyBhcmUgd29ycmllZCBhYm91dCB3aGF0IG1pZ2h0IGhhcHBlbiB0byB0aGVpciBkYXRhLiBIZXJlJ3Mgd2hhdCB0aGUgY29tcGFueSBzYXlzLg==</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>QmVuIExvdmVqb3k=</t>
+          <t>Sm9yZGFuIEhhcnQ=</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>QSBzdWNjZXNzaW9uIG9mIFQtTW9iaWxlIGRhdGEgYnJlYWNoZXMgc2F3IG1pbGxpb25zIG9mIGN1c3RvbWVycyBoYXZlIHRoZWlyIHBlcnNvbmFsIGRhdGEgZXhwb3NlZC4gVGhlIGNvbXBhbnkgaGFzIG5vdyBiZWVuIGZpbmVkICQxNS43NU0sIGFuZCBoYXMgYWdyZWVkIHRvIHNwZW5kIHRoZSBzYW1lIGFtb3VudCBhZ2FpbiBvbiB1cGdyYWRpbmcgaXRzIHNlY3VyaXR5LgoKCgpUaGUgRmVkZXJhbCBDb21tdW5pY2F0aW9ucyBDb21taXNzaW9uIChGQ0MpIOKApg==</t>
+          <t>MjNhbmRNZSBmYWNlcyB1bmNlcnRhaW50eSBhbWlkIGFjcXVpc2l0aW9uIHRhbGtzIGFuZCBib2FyZCByZXNpZ25hdGlvbnMsIGFuZCB1c2VycyBhcmUgd29ycmllZCBhYm91dCB0aGVpciBkYXRhLiBIZXJlJ3Mgd2hhdCB0aGUgY29tcGFueSBzYXlzLg==</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>QSBzdWNjZXNzaW9uIG9mIFQtTW9iaWxlIGRhdGEgYnJlYWNoZXMgc2F3IG1pbGxpb25zIG9mIGN1c3RvbWVycyBoYXZlIHRoZWlyIHBlcnNvbmFsIGRhdGEgZXhwb3NlZC4gVGhlIGNvbXBhbnkgaGFzIG5vdyBiZWVuIGZpbmVkICQxNS43NU0sIGFuZCBoYXMgYWdyZWVkIHRvIHNwZW5kIHRoZSBzYW1lIGFtb3VudCBhZ2FpbiBvbiB1cGdyYWRpbmcgaeKApiBbKzE5MzkgY2hhcnNd</t>
+          <t>V2hvZXZlciBvd25zIDIzYW5kTWUgbmV4dCBtaWdodCBoYXZlIGFjY2VzcyBtaWxsaW9ucyBvZiB1c2VycycgZGF0YS5KdXN0aW4gU3VsbGl2YW4vR2V0dHkgSW1hZ2VzDQo8dWw+PGxpPjIzYW5kTWUncyBmdXR1cmUgaXMgdW5jZXJ0YWluIGFtaWQgcG90ZW50aWFsIGFjcXVpc2l0aW9uIHRhbGtzLjwvbGk+PGxpPlRoZSBjb21wYW55IGhhcyBmYWNlZOKApiBbKzI4MjYgY2hhcnNd</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly85dG81bWFjLmNvbS8yMDI0LzEwLzAxL3QtbW9iaWxlLWRhdGEtYnJlYWNoZXMtY29tcGFueS1wYXlzLWZpbmUtYW5kLXByb21pc2VzLXRvLWRvLWJldHRlci8=</t>
+          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS8yM2FuZG1lLXVzZXItZGF0YS13aGF0LW1pZ2h0LWhhcHBlbi1hZnRlci1wb3NzaWJsZS10YWtlb3Zlci0yMDI0LTEw</t>
         </is>
       </c>
     </row>
@@ -1657,279 +1657,279 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tm8gZGVncmVlPyBObyBwcm9ibGVtLiBJbnNpZGUgQmxhY2tzdG9uZSdzIGFtYml0aW91cyBwbGFucyB0byBpbnRlcm5hbGx5IGdyb3cgdGFsZW50IGZvciBpdHMgZGF0YSBjZW50ZXJzIGFuZCBvdGhlciBwb3J0Zm9saW8gY29tcGFuaWVz</t>
+          <t>SmVuc2VuIEh1YW5nIHNheXMgaGUgd2FudHMgTnZpZGlhIHRvIGJlIGEgY29tcGFueSB3aXRoIDEwMCBtaWxsaW9uIEFJIGFzc2lzdGFudHM=</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>QWxleCBOaWNvbGw=</t>
+          <t>U2h1YmhhbmdpIEdvZWw=</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>QmxhY2tzdG9uZSdzICQxMDAgYmlsbGlvbi1wbHVzIGJldCBvbiBkYXRhIGNlbnRlcnMgcmVxdWlyZXMgc2tpbGxlZCBsYWJvci4gSGVyZSdzIGhvdyB0aGUgZmlybSBpcyBpbnZlc3RpbmcgaW4gdGFsZW50IGF0IGNvbXBhbmllcyBsaWtlIFFUUy4=</t>
+          <t>TnZpZGlhIENFTyBKZW5zZW4gSHVhbmcgc2FpZCBvbiBhIHBvZGNhc3Qgc2F5cyBoZSBob3BlcyBOdmlkaWEgd2lsbCBvbmUgZGF5IGJlIGEgNTAsMDAwLWVtcGxveWVlIGNvbXBhbnkgdGhhdCB3b3JrcyB3aXRoIDEwMCBtaWxsaW9uIEFJIGFzc2lzdGFudHMu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VGhyZWUgUVRTIGVtcGxveWVlcyB3YWxrIGRvd24gdGhlIGhhbGx3YXkgb2YgYSBkYXRhIGNlbnRlci5CbGFja3N0b25lDQo8dWw+PGxpPkJsYWNrc3RvbmUgaXMgaW52ZXN0aW5nIGJpZyBpbiBkYXRhIGNlbnRlcnMgYW5kIG90aGVyIEFJIGluZnJhc3RydWN0dXJlLjwvbGk+PGxpPlRoYXQgbWVhbnMgZ2V0dGluZyBhaGVhZCBvZiB0aGUgZGF0YS1jZeKApiBbKzgyODEgY2hhcnNd</t>
+          <t>SmVuc2VuIEh1YW5nIHdhbnRzIE52aWRpYSB0byBiZSBhIGNvbXBhbnkgd2l0aCAxMDAgbWlsbGlvbiBBSSBhc3Npc3RhbnRzIEktaHdhIENoZW5nL0dldHR5DQo8dWw+PGxpPkplbnNlbiBIdWFuZyBzYXlzIGhlIGhvcGVzIE52aWRpYSB3aWxsIGJlIGEgNTAsMDAwIGVtcGxveWVlIGNvbXBhbnkgd2l0aCAiYSAxMDAgbWlsbGlvbiBBSSBhc3Npc3RhbuKApiBbKzMxMzIgY2hhcnNd</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ibGFja3N0b25lLWNhcmVlci1wYXRod2F5cy10cmFpbmluZy1pbnRlcm5zaGlwcy1kYXRhLWNlbnRlci10YWxlbnQtcG9ydGZvbGlvLWNvbXBhbmllcy0yMDI0LTk=</t>
+          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9qZW5zZW4taHVhbmctd2FudHMtbnZpZGlhLXRvLWhhdmUtMTAwLW1pbGxpb24tYWktYXNzaXN0YW50cy0yMDI0LTEw</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>U2xhc2hkb3Qub3Jn</t>
+          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>aU9TIGFuZCBBbmRyb2lkIFNlY3VyaXR5IFNjYXJlOiBUd28gQXBwcyBGb3VuZCBTdXBwb3J0aW5nICdQaWcgQnV0Y2hlcmluZycgU2NoZW1l</t>
+          <t>SSdtIGEgQ0VPIGFuZCB0aGUgYnJlYWR3aW5uZXIgZm9yIG15IGZhbWlseS4gTXkgaHVzYmFuZCBkZWNpZGVkIHRvIGxlYXZlIGhpcyBoaWdoLXN0cmVzcyBqb2IgdG8gY2FyZSBmb3Igb3VyIGRhdWdodGVyLg==</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RWRpdG9yRGF2aWQ=</t>
+          <t>TGF1cmVuIENyb3NieSBNZWRsaWNvdHQ=</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>IlBpZyBCdXRjaGVyaW5nIEFsZXJ0OiBGcmF1ZHVsZW50IFRyYWRpbmcgQXBwIHRhcmdldGVkIGlPUyBhbmQgQW5kcm9pZCB1c2Vycy4iIAoKVGhhdCdzIHRoZSB0aXRsZSBvZiBhIG5ldyByZXBvcnQgcmVsZWFzZWQgdGhpcyB3ZWVrIGJ5IGN5YmVyc2VjdXJpdHkgY29tcGFueSBHcm91cC1JQiByZXZlYWxpbmcgdGhlIG9mZmljaWFsIEFwcGxlIEFwcCBTdG9yZSBhbmQgR29vZ2xlIFBsYXkgc3RvcmUgb2ZmZXJlZCBhcHBzIHRoYXQgd2VyZSBhY3R1YWxseeKApg==</t>
+          <t>QnJlbmRhIENocmlzdGVuc2VuIGFuZCBoZXIgaHVzYmFuZCBkZWNpZGVkIGl0IHdhcyBiZXN0IGZvciBoaW0gdG8gcXVpdCBoaXMgam9iIGFuZCB0YWtlIGNhcmUgb2YgdGhlaXIgZGF1Z2h0ZXIgYWZ0ZXIgaGVyIGF1dGlzbSBkaWFnbm9zaXMu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>IlBpZyBCdXRjaGVyaW5nIEFsZXJ0OiBGcmF1ZHVsZW50IFRyYWRpbmcgQXBwIHRhcmdldGVkIGlPUyBhbmQgQW5kcm9pZCB1c2Vycy4iVGhhdCdzIHRoZSB0aXRsZSBvZiBhIG5ldyByZXBvcnQgcmVsZWFzZWQgdGhpcyB3ZWVrIGJ5IGN5YmVyc2VjdXJpdHkgY29tcGFueSBHcm91cC1JQiByZXZlYWxpbmcgdGhlIG9mZmljaWFsIEFwcGxlIEFwcCBTdOKApiBbKzM4MTIgY2hhcnNd</t>
+          <t>VGhlIGF1dGhvciBiZWNhbWUgdGhlIGJyZWFkd2lubmVyIG9mIHRoZSBmYW1pbHkgd2hlbiBoZXIgaHVzYmFuZCBjaG9zZSB0byBzdGF5IGF0IGhvbWUgd2l0aCB0aGVpciBkYXVnaHRlci4gRVNCIFByb2Zlc3Npb25hbC9TaHV0dGVyc3RvY2sNCjx1bD48bGk+QnJlbmRhIENocmlzdGVuc2VuIGlzIGEgNjIteWVhci1vbGQgYW5kIENFTyBvZiBTdGVsbOKApiBbKzMyNTEgY2hhcnNd</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly95cm8uc2xhc2hkb3Qub3JnL3N0b3J5LzI0LzEwLzA2LzAxMjIyMTcvaW9zLWFuZC1hbmRyb2lkLXNlY3VyaXR5LXNjYXJlLXR3by1hcHBzLWZvdW5kLXN1cHBvcnRpbmctcGlnLWJ1dGNoZXJpbmctc2NoZW1l</t>
+          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS93b21hbi1icmVhZHdpbm5lci1vZi1mYW1pbHktaHVzYmFuZC10YWtlcy1jYXJlLW9mLWNoaWxkLTIwMjQtOQ==</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>OXRvNU1hYw==</t>
+          <t>U2xhc2hkb3Qub3Jn</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Q2hpbmVzZSBoYWNrIG9mIFVTIElTUHMgc2hvd3Mgd2h5IEFwcGxlIGlzIHJpZ2h0IGFib3V0IGJhY2tkb29ycyBmb3IgbGF3IGVuZm9yY2VtZW50</t>
+          <t>Q2hpbmEgQ3liZXIgQXNzb2NpYXRpb24gQ2FsbHMgRm9yIFJldmlldyBvZiBJbnRlbCBQcm9kdWN0cyBTb2xkIEluIENoaW5h</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>QmVuIExvdmVqb3k=</t>
+          <t>QmVhdUhE</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SXQgd2FzIHJldmVhbGVkIHRoaXMgd2Vla2VuZCB0aGF0IENoaW5lc2UgaGFja2VycyBtYW5hZ2VkIHRvIGFjY2VzcyBzeXN0ZW1zIHJ1biBieSB0aHJlZSBvZiB0aGUgbGFyZ2VzdCBpbnRlcm5ldCBzZXJ2aWNlIHByb3ZpZGVycyAoSVNQcykgaW4gdGhlIFVTLgoKCgpXaGF04oCZcyBub3RhYmxlIGFib3V0IHRoZSBhdHRhY2sgaXMgdGhhdCBpdCBjb21wcm9taXNlZCBzZWN1cml0eSBiYWNrZG9vcnMgZGVsaWJlcmF0ZWx5IGNyZWF0ZWQgdG8gYWxsb3cgZm9y4oCm</t>
+          <t>VGhlIEN5YmVyc2VjdXJpdHkgQXNzb2NpYXRpb24gb2YgQ2hpbmEgKENTQUMpIGhhcyByZWNvbW1lbmRlZCBhIHNlY3VyaXR5IHJldmlldyBvZiBJbnRlbCdzIHByb2R1Y3RzIHNvbGQgaW4gQ2hpbmEsIGFjY3VzaW5nIHRoZSBVLlMuIGNoaXBtYWtlciBvZiBoYXJtaW5nIG5hdGlvbmFsIHNlY3VyaXR5IGFuZCBjaXRpbmcgdnVsbmVyYWJpbGl0aWVzIGluIGl0cyBjaGlwcy4gUmV1dGVycyByZXBvcnRzOiBXaGlsZSBDU0FDIGlzIGFuIGluZHVzdHJ5IGdyb+KApg==</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SXQgd2FzIHJldmVhbGVkIHRoaXMgd2Vla2VuZCB0aGF0IENoaW5lc2UgaGFja2VycyBtYW5hZ2VkIHRvIGFjY2VzcyBzeXN0ZW1zIHJ1biBieSB0aHJlZSBvZiB0aGUgbGFyZ2VzdCBpbnRlcm5ldCBzZXJ2aWNlIHByb3ZpZGVycyAoSVNQcykgaW4gdGhlIFVTLg0KV2hhdOKAmXMgbm90YWJsZSBhYm91dCB0aGUgYXR0YWNrIGlzIHRoYXQgaXQgY29tcHJv4oCmIFsrMjg3NSBjaGFyc10=</t>
+          <t>V2hpbGUgQ1NBQyBpcyBhbiBpbmR1c3RyeSBncm91cCByYXRoZXIgdGhhbiBhIGdvdmVybm1lbnQgYm9keSwgaXQgaGFzIGNsb3NlIHRpZXMgdG8gdGhlIENoaW5lc2Ugc3RhdGUgYW5kIHRoZSByYWZ0IG9mIGFjY3VzYXRpb25zIGFnYWluc3QgSW50ZWwsIHB1Ymxpc2hlZCBpbiBhIGxvbmcgcG9zdCBvbiBpdHMgb2ZmaWNpYWwgV2VDaGF0IGFjY291buKApiBbKzEwNTggY2hhcnNd</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly85dG81bWFjLmNvbS8yMDI0LzEwLzA4L2NoaW5lc2UtaGFjay1vZi11cy1pc3BzLXNob3dzLXdoeS1hcHBsZS1pcy1yaWdodC1hYm91dC1iYWNrZG9vcnMtZm9yLWxhdy1lbmZvcmNlbWVudC8=</t>
+          <t>aHR0cHM6Ly9pdC5zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMTAvMTcvMDAxNDIzNC9jaGluYS1jeWJlci1hc3NvY2lhdGlvbi1jYWxscy1mb3ItcmV2aWV3LW9mLWludGVsLXByb2R1Y3RzLXNvbGQtaW4tY2hpbmE=</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
+          <t>VGVjaG1lbWUuY29t</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MjNhbmRNZSB1c2VycyBhcmUgd29ycmllZCBhYm91dCB3aGF0IG1pZ2h0IGhhcHBlbiB0byB0aGVpciBkYXRhLiBIZXJlJ3Mgd2hhdCB0aGUgY29tcGFueSBzYXlzLg==</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Sm9yZGFuIEhhcnQ=</t>
-        </is>
-      </c>
+          <t>VUstYmFzZWQgU29waG9zIHBsYW5zIHRvIGFjcXVpcmUgQXRsYW50YS1iYXNlZCBjeWJlcnNlY3VyaXR5IGNvbXBhbnkgU2VjdXJld29ya3MgZm9yIH4kODU5TSwgZXhwZWN0ZWQgdG8gY2xvc2UgaW4gZWFybHkgMjAyNTsgRGVsbCBvd25zIH43OSUgb2YgU2VjdXJld29ya3MgKEpvZSBXYXJtaW5za3kvVGhlIFJlY29yZCk=</t>
+        </is>
+      </c>
+      <c r="C54"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MjNhbmRNZSBmYWNlcyB1bmNlcnRhaW50eSBhbWlkIGFjcXVpc2l0aW9uIHRhbGtzIGFuZCBib2FyZCByZXNpZ25hdGlvbnMsIGFuZCB1c2VycyBhcmUgd29ycmllZCBhYm91dCB0aGVpciBkYXRhLiBIZXJlJ3Mgd2hhdCB0aGUgY29tcGFueSBzYXlzLg==</t>
+          <t>Sm9lIFdhcm1pbnNreSAvIFRoZSBSZWNvcmQ6ClVLLWJhc2VkIFNvcGhvcyBwbGFucyB0byBhY3F1aXJlIEF0bGFudGEtYmFzZWQgY3liZXJzZWN1cml0eSBjb21wYW55IFNlY3VyZXdvcmtzIGZvciB+JDg1OU0sIGV4cGVjdGVkIHRvIGNsb3NlIGluIGVhcmx5IDIwMjU7IERlbGwgb3ducyB+NzklIG9mIFNlY3VyZXdvcmtzwqAg4oCUwqAgUHJvbWluZW50IGN5YmVyc2VjdXJpdHkgY29tcGFueSBTb3Bob3MgaXMgYWNxdWlyaW5nIGFub3RoZXIgd2VsbC1rbm93biDigKY=</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>V2hvZXZlciBvd25zIDIzYW5kTWUgbmV4dCBtaWdodCBoYXZlIGFjY2VzcyBtaWxsaW9ucyBvZiB1c2VycycgZGF0YS5KdXN0aW4gU3VsbGl2YW4vR2V0dHkgSW1hZ2VzDQo8dWw+PGxpPjIzYW5kTWUncyBmdXR1cmUgaXMgdW5jZXJ0YWluIGFtaWQgcG90ZW50aWFsIGFjcXVpc2l0aW9uIHRhbGtzLjwvbGk+PGxpPlRoZSBjb21wYW55IGhhcyBmYWNlZOKApiBbKzI4MjYgY2hhcnNd</t>
+          <t>QWJvdXQgVGhpcyBQYWdlDQpUaGlzIGlzIGEgVGVjaG1lbWUgYXJjaGl2ZSBwYWdlLg0KSXQgc2hvd3MgaG93IHRoZSBzaXRlIGFwcGVhcmVkIGF0IDExOjEwwqBBTcKgRVQsIE9jdG9iZXLCoDIxLMKgMjAyNC4NClRoZSBtb3N0IGN1cnJlbnQgdmVyc2lvbiBvZiB0aGUgc2l0ZSBhcyBhbHdheXMgaXMgYXZhaWxhYmxlIGF0IG91ciBob21lIHBhZ2UuDQpUbyDigKYgWys3MSBjaGFyc10=</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS8yM2FuZG1lLXVzZXItZGF0YS13aGF0LW1pZ2h0LWhhcHBlbi1hZnRlci1wb3NzaWJsZS10YWtlb3Zlci0yMDI0LTEw</t>
+          <t>aHR0cHM6Ly93d3cudGVjaG1lbWUuY29tLzI0MTAyMS9wMTY=</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
+          <t>UG9seWdvbg==</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SmVuc2VuIEh1YW5nIHNheXMgaGUgd2FudHMgTnZpZGlhIHRvIGJlIGEgY29tcGFueSB3aXRoIDEwMCBtaWxsaW9uIEFJIGFzc2lzdGFudHM=</t>
+          <t>SG93IGRvIHZpZGVvIGdhbWUgY29tcGFuaWVzIGxpa2UgR2FtZSBGcmVhayBrZWVwIGdldHRpbmcgaGFja2VkPw==</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>U2h1YmhhbmdpIEdvZWw=</t>
+          <t>Tmljb2xlIENhcnBlbnRlcg==</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TnZpZGlhIENFTyBKZW5zZW4gSHVhbmcgc2FpZCBvbiBhIHBvZGNhc3Qgc2F5cyBoZSBob3BlcyBOdmlkaWEgd2lsbCBvbmUgZGF5IGJlIGEgNTAsMDAwLWVtcGxveWVlIGNvbXBhbnkgdGhhdCB3b3JrcyB3aXRoIDEwMCBtaWxsaW9uIEFJIGFzc2lzdGFudHMu</t>
+          <t>T3ZlciB0aGUgd2Vla2VuZCwgUG9rw6ltb24gc291cmNlIGNvZGUsIGFydCwgYW5kIG90aGVyIGRvY3VtZW50YXRpb24gcXVpY2tseSBzcHJlYWQgYWNyb3NzIHNvY2lhbCBtZWRpYSBhbmQgb3RoZXIgaW50ZXJuZXQgZm9ydW1zLiBXaGVyZSBkaWQgaXQgY29tZSBmcm9tPyBHYW1lIEZyZWFrIGNvbmZpcm1lZCBsYXN0IHdlZWsgaXQgaGFkIGJlZW4gaGFja2VkLCB3aXRoIG1vcmUgdGhhbiAyLDYwMCBwaWVjZXMgb2YgZW1wbG95ZWUgZGF0YSB0YWtlbi4gSXTigKY=</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SmVuc2VuIEh1YW5nIHdhbnRzIE52aWRpYSB0byBiZSBhIGNvbXBhbnkgd2l0aCAxMDAgbWlsbGlvbiBBSSBhc3Npc3RhbnRzIEktaHdhIENoZW5nL0dldHR5DQo8dWw+PGxpPkplbnNlbiBIdWFuZyBzYXlzIGhlIGhvcGVzIE52aWRpYSB3aWxsIGJlIGEgNTAsMDAwIGVtcGxveWVlIGNvbXBhbnkgd2l0aCAiYSAxMDAgbWlsbGlvbiBBSSBhc3Npc3RhbuKApiBbKzMxMzIgY2hhcnNd</t>
+          <t>T3ZlciB0aGUgd2Vla2VuZCwgUG9rw6ltb24gc291cmNlIGNvZGUsIGFydCwgYW5kIG90aGVyIGRvY3VtZW50YXRpb24gcXVpY2tseSBzcHJlYWQgYWNyb3NzIHNvY2lhbCBtZWRpYSBhbmQgb3RoZXIgaW50ZXJuZXQgZm9ydW1zLiBXaGVyZSBkaWQgaXQgY29tZSBmcm9tPyBHYW1lIEZyZWFrIGNvbmZpcm1lZCBsYXN0IHdlZWsgaXQgaGFkIGJlZW4gaGHigKYgWys3NTAxIGNoYXJzXQ==</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9qZW5zZW4taHVhbmctd2FudHMtbnZpZGlhLXRvLWhhdmUtMTAwLW1pbGxpb24tYWktYXNzaXN0YW50cy0yMDI0LTEw</t>
+          <t>aHR0cHM6Ly93d3cucG9seWdvbi5jb20vYW5hbHlzaXMvNDY1OTY3L3Bva2Vtb24tZ2FtZS1mcmVhay1uaW50ZW5kby1oYWNrLWxlYWs=</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
+          <t>VGhlcmVnaXN0ZXIuY29t</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SSdtIGEgQ0VPIGFuZCB0aGUgYnJlYWR3aW5uZXIgZm9yIG15IGZhbWlseS4gTXkgaHVzYmFuZCBkZWNpZGVkIHRvIGxlYXZlIGhpcyBoaWdoLXN0cmVzcyBqb2IgdG8gY2FyZSBmb3Igb3VyIGRhdWdodGVyLg==</t>
+          <t>VGVjaCBmaXJtcyB0byBwYXkgbWlsbGlvbnMgaW4gU0VDIHBlbmFsdGllcyBmb3IgbWlzbGVhZGluZyBTb2xhcldpbmRzIGRpc2Nsb3N1cmVz</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TGF1cmVuIENyb3NieSBNZWRsaWNvdHQ=</t>
+          <t>QnJhbmRvbiBWaWdsaWFyb2xv</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>QnJlbmRhIENocmlzdGVuc2VuIGFuZCBoZXIgaHVzYmFuZCBkZWNpZGVkIGl0IHdhcyBiZXN0IGZvciBoaW0gdG8gcXVpdCBoaXMgam9iIGFuZCB0YWtlIGNhcmUgb2YgdGhlaXIgZGF1Z2h0ZXIgYWZ0ZXIgaGVyIGF1dGlzbSBkaWFnbm9zaXMu</t>
+          <t>VW5pc3lzLCBBdmF5YSwgQ2hlY2sgUG9pbnQsIGFuZCBNaW1lY2FzdCBzZXR0bGVkIHdpdGggdGhlIGFnZW5jeSB3aXRob3V0IGFkbWl0dGluZyBvciBkZW55aW5nIHdyb25nZG9pbmcKRm91ciBoaWdoLXByb2ZpbGUgdGVjaCBjb21wYW5pZXMgcmVhY2hlZCBhbiBhZ3JlZW1lbnQgd2l0aCB0aGUgU2VjdXJpdGllcyBhbmQgRXhjaGFuZ2UgQ29tbWlzc2lvbiB0byBwYXkgbWlsbGlvbnMgb2YgZG9sbGFycyBpbiBwZW5hbHRpZXMgZm9yIG1pc2xlYWRpbmcgaeKApg==</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>VGhlIGF1dGhvciBiZWNhbWUgdGhlIGJyZWFkd2lubmVyIG9mIHRoZSBmYW1pbHkgd2hlbiBoZXIgaHVzYmFuZCBjaG9zZSB0byBzdGF5IGF0IGhvbWUgd2l0aCB0aGVpciBkYXVnaHRlci4gRVNCIFByb2Zlc3Npb25hbC9TaHV0dGVyc3RvY2sNCjx1bD48bGk+QnJlbmRhIENocmlzdGVuc2VuIGlzIGEgNjIteWVhci1vbGQgYW5kIENFTyBvZiBTdGVsbOKApiBbKzMyNTEgY2hhcnNd</t>
+          <t>Rm91ciBoaWdoLXByb2ZpbGUgdGVjaCBjb21wYW5pZXMgcmVhY2hlZCBhbiBhZ3JlZW1lbnQgd2l0aCB0aGUgU2VjdXJpdGllcyBhbmQgRXhjaGFuZ2UgQ29tbWlzc2lvbiB0byBwYXkgbWlsbGlvbnMgb2YgZG9sbGFycyBpbiBwZW5hbHRpZXMgZm9yIG1pc2xlYWRpbmcgaW52ZXN0b3JzIGFib3V0IHRoZWlyIGV4cG9zdXJlIHRvIHRoZSAyMDIwIFNvbOKApiBbKzQ0MTkgY2hhcnNd</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS93b21hbi1icmVhZHdpbm5lci1vZi1mYW1pbHktaHVzYmFuZC10YWtlcy1jYXJlLW9mLWNoaWxkLTIwMjQtOQ==</t>
+          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMjIvc2VjX2ZpbmVzX2ZvdXJfdGVjaF9maXJtcy8=</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>U2xhc2hkb3Qub3Jn</t>
+          <t>VGhlcmVnaXN0ZXIuY29t</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Q2hpbmEgQ3liZXIgQXNzb2NpYXRpb24gQ2FsbHMgRm9yIFJldmlldyBvZiBJbnRlbCBQcm9kdWN0cyBTb2xkIEluIENoaW5h</t>
+          <t>TWljcm9zb2Z0IFNoYXJlUG9pbnQgUkNFIGZsYXcgZXhwbG9pdHMgaW4gdGhlIHdpbGQg4oCTIHlvdSd2ZSBoYWQgMyBtb250aHMgdG8gcGF0Y2g=</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>QmVhdUhE</t>
+          <t>SmVzc2ljYSBMeW9ucw==</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VGhlIEN5YmVyc2VjdXJpdHkgQXNzb2NpYXRpb24gb2YgQ2hpbmEgKENTQUMpIGhhcyByZWNvbW1lbmRlZCBhIHNlY3VyaXR5IHJldmlldyBvZiBJbnRlbCdzIHByb2R1Y3RzIHNvbGQgaW4gQ2hpbmEsIGFjY3VzaW5nIHRoZSBVLlMuIGNoaXBtYWtlciBvZiBoYXJtaW5nIG5hdGlvbmFsIHNlY3VyaXR5IGFuZCBjaXRpbmcgdnVsbmVyYWJpbGl0aWVzIGluIGl0cyBjaGlwcy4gUmV1dGVycyByZXBvcnRzOiBXaGlsZSBDU0FDIGlzIGFuIGluZHVzdHJ5IGdyb+KApg==</t>
+          <t>UGx1cywgYSBQT0MgdG8gbWFrZSBpdCBleHRyYSBlYXN5IGZvciBhdHRhY2tlcnMKQSBNaWNyb3NvZnQgU2hhcmVQb2ludCBidWcgdGhhdCBjYW4gYWxsb3cgYW4gYXR0YWNrZXIgdG8gcmVtb3RlbHkgaW5qZWN0IGNvZGUgaW50byB2dWxuZXJhYmxlIHZlcnNpb25zIGlzIHVuZGVyIGFjdGl2ZSBleHBsb2l0YXRpb24sIGFjY29yZGluZyB0byB0aGUgVVMgQ3liZXJzZWN1cml0eSBhbmQgSW5mcmFzdHJ1Y3R1cmUgU2VjdXJpdHkgQWdlbmN5IChDSVNBKS7igKY84oCm</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>V2hpbGUgQ1NBQyBpcyBhbiBpbmR1c3RyeSBncm91cCByYXRoZXIgdGhhbiBhIGdvdmVybm1lbnQgYm9keSwgaXQgaGFzIGNsb3NlIHRpZXMgdG8gdGhlIENoaW5lc2Ugc3RhdGUgYW5kIHRoZSByYWZ0IG9mIGFjY3VzYXRpb25zIGFnYWluc3QgSW50ZWwsIHB1Ymxpc2hlZCBpbiBhIGxvbmcgcG9zdCBvbiBpdHMgb2ZmaWNpYWwgV2VDaGF0IGFjY291buKApiBbKzEwNTggY2hhcnNd</t>
+          <t>QSBNaWNyb3NvZnQgU2hhcmVQb2ludCBidWcgdGhhdCBjYW4gYWxsb3cgYW4gYXR0YWNrZXIgdG8gcmVtb3RlbHkgaW5qZWN0IGNvZGUgaW50byB2dWxuZXJhYmxlIHZlcnNpb25zIGlzIHVuZGVyIGFjdGl2ZSBleHBsb2l0YXRpb24sIGFjY29yZGluZyB0byB0aGUgVVMgQ3liZXJzZWN1cml0eSBhbmQgSW5mcmFzdHJ1Y3R1cmUgU2VjdXJpdHkgQWdlbuKApiBbKzE3OTQgY2hhcnNd</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9pdC5zbGFzaGRvdC5vcmcvc3RvcnkvMjQvMTAvMTcvMDAxNDIzNC9jaGluYS1jeWJlci1hc3NvY2lhdGlvbi1jYWxscy1mb3ItcmV2aWV3LW9mLWludGVsLXByb2R1Y3RzLXNvbGQtaW4tY2hpbmE=</t>
+          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMjMvbWljcm9zb2Z0X3NoYXJlcG9pbnRfcmNlX2V4cGxvaXRlZC8=</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VGVjaG1lbWUuY29t</t>
+          <t>VGhlcmVnaXN0ZXIuY29t</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VUstYmFzZWQgU29waG9zIHBsYW5zIHRvIGFjcXVpcmUgQXRsYW50YS1iYXNlZCBjeWJlcnNlY3VyaXR5IGNvbXBhbnkgU2VjdXJld29ya3MgZm9yIH4kODU5TSwgZXhwZWN0ZWQgdG8gY2xvc2UgaW4gZWFybHkgMjAyNTsgRGVsbCBvd25zIH43OSUgb2YgU2VjdXJld29ya3MgKEpvZSBXYXJtaW5za3kvVGhlIFJlY29yZCk=</t>
-        </is>
-      </c>
-      <c r="C58"/>
+          <t>VUsncyBTZWxsYWZpZWxkIG51a2Ugd2FzdGUgcHJvY2Vzc2luZyBwbGFudCBmaW5lZCDCozMzM0sgZm9yIGluZm9zZWMgYmx1bmRlcnM=</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SmVzc2ljYSBMeW9ucw==</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sm9lIFdhcm1pbnNreSAvIFRoZSBSZWNvcmQ6ClVLLWJhc2VkIFNvcGhvcyBwbGFucyB0byBhY3F1aXJlIEF0bGFudGEtYmFzZWQgY3liZXJzZWN1cml0eSBjb21wYW55IFNlY3VyZXdvcmtzIGZvciB+JDg1OU0sIGV4cGVjdGVkIHRvIGNsb3NlIGluIGVhcmx5IDIwMjU7IERlbGwgb3ducyB+NzklIG9mIFNlY3VyZXdvcmtzwqAg4oCUwqAgUHJvbWluZW50IGN5YmVyc2VjdXJpdHkgY29tcGFueSBTb3Bob3MgaXMgYWNxdWlyaW5nIGFub3RoZXIgd2VsbC1rbm93biDigKY=</t>
+          <t>UmFkaW9hY3RpdmUgaGF6YXJkcyBhbmQgY3liZXIgZmFpbGluZ3MgLi4uIHdoYXQgY291bGQgcG9zc2libHkgZ28gd3Jvbmc/ClRoZSBvdXRmaXQgdGhhdCBydW5zIEJyaXRhaW4ncyBTZWxsYWZpZWxkIG51Y2xlYXIgd2FzdGUgcHJvY2Vzc2luZyBhbmQgZGVjb21taXNzaW9uaW5nIHNpdGUgaGFzIGJlZW4gZmluZWQgwqMzMzIsNTAwICgkNDQwLDAwMCkgYnkgdGhlIG5hdGlvbidzIE9mZmljZSBmb3IgTnVjbGVhciBSZWd1bGF0aW9uIChPTlIpIGZvciBpdHPigKY=</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>QWJvdXQgVGhpcyBQYWdlDQpUaGlzIGlzIGEgVGVjaG1lbWUgYXJjaGl2ZSBwYWdlLg0KSXQgc2hvd3MgaG93IHRoZSBzaXRlIGFwcGVhcmVkIGF0IDExOjEwwqBBTcKgRVQsIE9jdG9iZXLCoDIxLMKgMjAyNC4NClRoZSBtb3N0IGN1cnJlbnQgdmVyc2lvbiBvZiB0aGUgc2l0ZSBhcyBhbHdheXMgaXMgYXZhaWxhYmxlIGF0IG91ciBob21lIHBhZ2UuDQpUbyDigKYgWys3MSBjaGFyc10=</t>
+          <t>VGhlIG91dGZpdCB0aGF0IHJ1bnMgQnJpdGFpbidzIFNlbGxhZmllbGQgbnVjbGVhciB3YXN0ZSBwcm9jZXNzaW5nIGFuZCBkZWNvbW1pc3Npb25pbmcgc2l0ZSBoYXMgYmVlbiBmaW5lZCDCozMzMiw1MDAgKCQ0NDAsMDAwKSBieSB0aGUgbmF0aW9uJ3MgT2ZmaWNlIGZvciBOdWNsZWFyIFJlZ3VsYXRpb24gKE9OUikgZm9yIGl0cyBzaG9kZHkgY3liZXLigKYgWysyOTMxIGNoYXJzXQ==</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGVjaG1lbWUuY29tLzI0MTAyMS9wMTY=</t>
+          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMDUvc2VsbGFmaWVsZF9udWNsZWFyX3NpdGVfZmluZWQv</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>UG9seWdvbg==</t>
+          <t>VGhlcmVnaXN0ZXIuY29t</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SG93IGRvIHZpZGVvIGdhbWUgY29tcGFuaWVzIGxpa2UgR2FtZSBGcmVhayBrZWVwIGdldHRpbmcgaGFja2VkPw==</t>
+          <t>Q0lTQSBhZGRzIGZyZXNoIEl2YW50aSB2dWxuLCBjcml0aWNhbCBGb3J0aW5ldCBidWcgdG8gaGFsbCBvZiBzaGFtZQ==</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tmljb2xlIENhcnBlbnRlcg==</t>
+          <t>Q29ubm9yIEpvbmVz</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>T3ZlciB0aGUgd2Vla2VuZCwgUG9rw6ltb24gc291cmNlIGNvZGUsIGFydCwgYW5kIG90aGVyIGRvY3VtZW50YXRpb24gcXVpY2tseSBzcHJlYWQgYWNyb3NzIHNvY2lhbCBtZWRpYSBhbmQgb3RoZXIgaW50ZXJuZXQgZm9ydW1zLiBXaGVyZSBkaWQgaXQgY29tZSBmcm9tPyBHYW1lIEZyZWFrIGNvbmZpcm1lZCBsYXN0IHdlZWsgaXQgaGFkIGJlZW4gaGFja2VkLCB3aXRoIG1vcmUgdGhhbiAyLDYwMCBwaWVjZXMgb2YgZW1wbG95ZWUgZGF0YSB0YWtlbi4gSXTigKY=</t>
+          <t>VXN1YWwgdGhyZWUtd2VlayB3aW5kb3cgdG8gYWRkcmVzcyBzaWduaWZpY2FudCByaXNrcyB0byBmZWRlcmFsIGFnZW5jaWVzIGFwcGxpZXMKVGhlIFVTIEN5YmVyc2VjdXJpdHkgYW5kIEluZnJhc3RydWN0dXJlIFNlY3VyaXR5IEFnZW5jeSAoQ0lTQSkgc2F5cyB2dWxuZXJhYmlsaXRpZXMgaW4gRm9ydGluZXQgYW5kIEl2YW50aSBwcm9kdWN0cyBhcmUgbm93IGJlaW5nIGV4cGxvaXRlZCwgZWFybmluZyB0aGVtIHBsYWNlcyBpbiBpdHMgS25vd24gRXhwbOKApg==</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>T3ZlciB0aGUgd2Vla2VuZCwgUG9rw6ltb24gc291cmNlIGNvZGUsIGFydCwgYW5kIG90aGVyIGRvY3VtZW50YXRpb24gcXVpY2tseSBzcHJlYWQgYWNyb3NzIHNvY2lhbCBtZWRpYSBhbmQgb3RoZXIgaW50ZXJuZXQgZm9ydW1zLiBXaGVyZSBkaWQgaXQgY29tZSBmcm9tPyBHYW1lIEZyZWFrIGNvbmZpcm1lZCBsYXN0IHdlZWsgaXQgaGFkIGJlZW4gaGHigKYgWys3NTAxIGNoYXJzXQ==</t>
+          <t>VGhlIFVTIEN5YmVyc2VjdXJpdHkgYW5kIEluZnJhc3RydWN0dXJlIFNlY3VyaXR5IEFnZW5jeSAoQ0lTQSkgc2F5cyB2dWxuZXJhYmlsaXRpZXMgaW4gRm9ydGluZXQgYW5kIEl2YW50aSBwcm9kdWN0cyBhcmUgbm93IGJlaW5nIGV4cGxvaXRlZCwgZWFybmluZyB0aGVtIHBsYWNlcyBpbiBpdHMgS25vd24gRXhwbG9pdGVkIFZ1bG5lcmFiaWxpdGllc+KApiBbKzQ2NjkgY2hhcnNd</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cucG9seWdvbi5jb20vYW5hbHlzaXMvNDY1OTY3L3Bva2Vtb24tZ2FtZS1mcmVhay1uaW50ZW5kby1oYWNrLWxlYWs=</t>
+          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMTAvY2lzYV9pdmFudGlfZm9ydGluZXRfdnVsbnMv</t>
         </is>
       </c>
     </row>
@@ -1941,827 +1941,827 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VGVjaCBmaXJtcyB0byBwYXkgbWlsbGlvbnMgaW4gU0VDIHBlbmFsdGllcyBmb3IgbWlzbGVhZGluZyBTb2xhcldpbmRzIGRpc2Nsb3N1cmVz</t>
+          <t>U29sYXJXaW5kcyBjcml0aWNhbCBoYXJkY29kZWQgY3JlZGVudGlhbCBidWcgdW5kZXIgYWN0aXZlIGV4cGxvaXQ=</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>QnJhbmRvbiBWaWdsaWFyb2xv</t>
+          <t>SmVzc2ljYSBMeW9ucw==</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VW5pc3lzLCBBdmF5YSwgQ2hlY2sgUG9pbnQsIGFuZCBNaW1lY2FzdCBzZXR0bGVkIHdpdGggdGhlIGFnZW5jeSB3aXRob3V0IGFkbWl0dGluZyBvciBkZW55aW5nIHdyb25nZG9pbmcKRm91ciBoaWdoLXByb2ZpbGUgdGVjaCBjb21wYW5pZXMgcmVhY2hlZCBhbiBhZ3JlZW1lbnQgd2l0aCB0aGUgU2VjdXJpdGllcyBhbmQgRXhjaGFuZ2UgQ29tbWlzc2lvbiB0byBwYXkgbWlsbGlvbnMgb2YgZG9sbGFycyBpbiBwZW5hbHRpZXMgZm9yIG1pc2xlYWRpbmcgaeKApg==</t>
+          <t>Tm8gd29yZCB5ZXQgb24gc2NvcGUgb2YgYXR0YWNrcwpBIGNyaXRpY2FsLCBoYXJkY29kZWQgY3JlZGVudGlhbCBidWcgaW4gU29sYXJXaW5kcycgV2ViIEhlbHAgRGVzayBwcm9kdWN0cyBoYXMgYmVlbiBmb3VuZCBhbmQgZXhwbG9pdGVkIGJ5IGNyaW1pbmFscywgYWNjb3JkaW5nIHRvIHRoZSBVUyBDeWJlcnNlY3VyaXR5IGFuZCBJbmZyYXN0cnVjdHVyZSBTZWN1cml0eSBBZ2VuY3ksIHdoaWNoIGhhcyBhZGRlZCB0aGUgZmxhdyB0byBpdHMgS25vd24gReKApg==</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Rm91ciBoaWdoLXByb2ZpbGUgdGVjaCBjb21wYW5pZXMgcmVhY2hlZCBhbiBhZ3JlZW1lbnQgd2l0aCB0aGUgU2VjdXJpdGllcyBhbmQgRXhjaGFuZ2UgQ29tbWlzc2lvbiB0byBwYXkgbWlsbGlvbnMgb2YgZG9sbGFycyBpbiBwZW5hbHRpZXMgZm9yIG1pc2xlYWRpbmcgaW52ZXN0b3JzIGFib3V0IHRoZWlyIGV4cG9zdXJlIHRvIHRoZSAyMDIwIFNvbOKApiBbKzQ0MTkgY2hhcnNd</t>
+          <t>QSBjcml0aWNhbCwgaGFyZGNvZGVkIGNyZWRlbnRpYWwgYnVnIGluIFNvbGFyV2luZHMnIFdlYiBIZWxwIERlc2sgcHJvZHVjdHMgaGFzIGJlZW4gZm91bmQgYW5kIGV4cGxvaXRlZCBieSBjcmltaW5hbHMsIGFjY29yZGluZyB0byB0aGUgVVMgQ3liZXJzZWN1cml0eSBhbmQgSW5mcmFzdHJ1Y3R1cmUgU2VjdXJpdHkgQWdlbmN5LCB3aGljaCBoYXMgYeKApiBbKzIxNjcgY2hhcnNd</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMjIvc2VjX2ZpbmVzX2ZvdXJfdGVjaF9maXJtcy8=</t>
+          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMTYvc29sYXJ3aW5kc19jcml0aWNhbF9oYXJkY29kZWRfY3JlZGVudGlhbF9idWcv</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>VGhlcmVnaXN0ZXIuY29t</t>
+          <t>Rm94IE5ld3M=</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TWljcm9zb2Z0IFNoYXJlUG9pbnQgUkNFIGZsYXcgZXhwbG9pdHMgaW4gdGhlIHdpbGQg4oCTIHlvdSd2ZSBoYWQgMyBtb250aHMgdG8gcGF0Y2g=</t>
+          <t>T3ZlciA2MDBNIGN5YmVyYXR0YWNrcyB0YXJnZXQgV2luZG93cyB1c2VycyBldmVyeSBkYXk=</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SmVzc2ljYSBMeW9ucw==</t>
+          <t>S3VydCBLbnV0c3NvbiwgQ3liZXJHdXkgUmVwb3J0</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>UGx1cywgYSBQT0MgdG8gbWFrZSBpdCBleHRyYSBlYXN5IGZvciBhdHRhY2tlcnMKQSBNaWNyb3NvZnQgU2hhcmVQb2ludCBidWcgdGhhdCBjYW4gYWxsb3cgYW4gYXR0YWNrZXIgdG8gcmVtb3RlbHkgaW5qZWN0IGNvZGUgaW50byB2dWxuZXJhYmxlIHZlcnNpb25zIGlzIHVuZGVyIGFjdGl2ZSBleHBsb2l0YXRpb24sIGFjY29yZGluZyB0byB0aGUgVVMgQ3liZXJzZWN1cml0eSBhbmQgSW5mcmFzdHJ1Y3R1cmUgU2VjdXJpdHkgQWdlbmN5IChDSVNBKS7igKY84oCm</t>
+          <t>V2luZG93cyBvcGVyYXRpbmcgc3lzdGVtIHVzZXJzIGZhY2UgbW9yZSB0aGFuIDYwMCBtaWxsaW9uIGN5YmVyYXR0YWNrcyBldmVyeSBkYXksIGFjY29yZGluZyB0byBLdXJ0ICJDeWJlckd1eSIgS251dHNzb24uIFRoZSBhdHRhY2tzIGFyZSBvbiB0aGUgcmlzZS4=</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>QSBNaWNyb3NvZnQgU2hhcmVQb2ludCBidWcgdGhhdCBjYW4gYWxsb3cgYW4gYXR0YWNrZXIgdG8gcmVtb3RlbHkgaW5qZWN0IGNvZGUgaW50byB2dWxuZXJhYmxlIHZlcnNpb25zIGlzIHVuZGVyIGFjdGl2ZSBleHBsb2l0YXRpb24sIGFjY29yZGluZyB0byB0aGUgVVMgQ3liZXJzZWN1cml0eSBhbmQgSW5mcmFzdHJ1Y3R1cmUgU2VjdXJpdHkgQWdlbuKApiBbKzE3OTQgY2hhcnNd</t>
+          <t>Q3liZXJhdHRhY2tzIGFyZSBtb3JlIGNvbW1vbiB0aGFuIGV2ZXIsIGFuZCBpZiB5b3UncmUgYSBXaW5kb3dzIHVzZXIsIHlvdSdyZSBwcm9iYWJseSBmZWVsaW5nIHRoZSBpbXBhY3QgbW9yZSB0aGFuIG90aGVycy7CoA0KSGFja2VycyBhcmUgYWx3YXlzIHRhcmdldGluZyBXaW5kb3dzIFBDcywgYW5kIHlvdSd2ZSBwcm9iYWJseSBzZWVuIHJlcG9ydHPigKYgWys4MDE1IGNoYXJzXQ==</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMjMvbWljcm9zb2Z0X3NoYXJlcG9pbnRfcmNlX2V4cGxvaXRlZC8=</t>
+          <t>aHR0cHM6Ly93d3cuZm94bmV3cy5jb20vdGVjaC9vdmVyLTYwMC1taWxsaW9uLWN5YmVyYXR0YWNrcy10YXJnZXQtd2luZG93cy11c2Vycy1ldmVyeS1kYXk=</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>VGhlcmVnaXN0ZXIuY29t</t>
+          <t>QmxlZXBpbmdDb21wdXRlcg==</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VUsncyBTZWxsYWZpZWxkIG51a2Ugd2FzdGUgcHJvY2Vzc2luZyBwbGFudCBmaW5lZCDCozMzM0sgZm9yIGluZm9zZWMgYmx1bmRlcnM=</t>
+          <t>QVQmVCwgVmVyaXpvbiByZXBvcnRlZGx5IGhhY2tlZCB0byB0YXJnZXQgVVMgZ292dCB3aXJldGFwcGluZyBwbGF0Zm9ybQ==</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SmVzc2ljYSBMeW9ucw==</t>
+          <t>SW9udXQgSWxhc2N1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>UmFkaW9hY3RpdmUgaGF6YXJkcyBhbmQgY3liZXIgZmFpbGluZ3MgLi4uIHdoYXQgY291bGQgcG9zc2libHkgZ28gd3Jvbmc/ClRoZSBvdXRmaXQgdGhhdCBydW5zIEJyaXRhaW4ncyBTZWxsYWZpZWxkIG51Y2xlYXIgd2FzdGUgcHJvY2Vzc2luZyBhbmQgZGVjb21taXNzaW9uaW5nIHNpdGUgaGFzIGJlZW4gZmluZWQgwqMzMzIsNTAwICgkNDQwLDAwMCkgYnkgdGhlIG5hdGlvbidzIE9mZmljZSBmb3IgTnVjbGVhciBSZWd1bGF0aW9uIChPTlIpIGZvciBpdHPigKY=</t>
+          <t>TXVsdGlwbGUgVS5TLiBicm9hZGJhbmQgcHJvdmlkZXJzLCBpbmNsdWRpbmcgVmVyaXpvbiwgQVQmVCwgYW5kIEx1bWVuIFRlY2hub2xvZ2llcywgaGF2ZSBiZWVuIGJyZWFjaGVkIGJ5IGEgQ2hpbmVzZSBoYWNraW5nIGdyb3VwIHRyYWNrZWQgYXMgU2FsdCBUeXBob29uLCB0aGUgV2FsbCBTdHJlZXQgSm91cm5hbCByZXBvcnRzLg==</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>VGhlIG91dGZpdCB0aGF0IHJ1bnMgQnJpdGFpbidzIFNlbGxhZmllbGQgbnVjbGVhciB3YXN0ZSBwcm9jZXNzaW5nIGFuZCBkZWNvbW1pc3Npb25pbmcgc2l0ZSBoYXMgYmVlbiBmaW5lZCDCozMzMiw1MDAgKCQ0NDAsMDAwKSBieSB0aGUgbmF0aW9uJ3MgT2ZmaWNlIGZvciBOdWNsZWFyIFJlZ3VsYXRpb24gKE9OUikgZm9yIGl0cyBzaG9kZHkgY3liZXLigKYgWysyOTMxIGNoYXJzXQ==</t>
+          <t>TXVsdGlwbGUgVS5TLiBicm9hZGJhbmQgcHJvdmlkZXJzLCBpbmNsdWRpbmcgVmVyaXpvbiwgQVQmYW1wO1QsIGFuZCBMdW1lbiBUZWNobm9sb2dpZXMsIGhhdmUgYmVlbiBicmVhY2hlZCBieSBhIENoaW5lc2UgaGFja2luZyBncm91cCB0cmFja2VkIGFzIFNhbHQgVHlwaG9vbiwgdGhlIFdhbGwgU3RyZWV0IEpvdXJuYWwgcmVwb3J0cy4NClRoZSBwdeKApiBbKzM5ODUgY2hhcnNd</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMDUvc2VsbGFmaWVsZF9udWNsZWFyX3NpdGVfZmluZWQv</t>
+          <t>aHR0cHM6Ly93d3cuYmxlZXBpbmdjb21wdXRlci5jb20vbmV3cy9zZWN1cml0eS9hdGFuZHQtdmVyaXpvbi1yZXBvcnRlZGx5LWhhY2tlZC10by10YXJnZXQtdXMtZ292dC13aXJldGFwcGluZy1wbGF0Zm9ybS8=</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VGhlcmVnaXN0ZXIuY29t</t>
+          <t>R2l0aHViLmJsb2c=</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>UHVibGljIFdpLUZpIG9wZXJhdG9yIGludmVzdGlnYXRpbmcgY3liZXJhdHRhY2sgYXQgVUsncyBidXNpZXN0IHRyYWluIHN0YXRpb25z</t>
+          <t>Q3liZXJzZWN1cml0eSBzcG90bGlnaHQgb24gYnVnIGJvdW50eSByZXNlYXJjaGVyIEBhZHJpYW5vYXBq</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Q29ubm9yIEpvbmVz</t>
+          <t>QnJhbmRvbiBTenltYW5za2k=</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>U2VlIGl0LCBzYXkgaXTigKYgbm90IHNvcnRlZCBqdXN0IHlldCBhcyBuZXR3b3JrIGFjY2VzcyByZW1haW5zIG9mZmxpbmUKQSBjeWJlcnNlY3VyaXR5IGluY2lkZW50IGlzIGJlaW5nIHByb2JlZCBhdCBOZXR3b3JrIFJhaWwsIHRoZSBVSyBub24tZGVwYXJ0bWVudGFsIHB1YmxpYyBib2R5IHJlc3BvbnNpYmxlIGZvciByZXBhaXJpbmcgYW5kIGRldmVsb3BpbmcgdHJhaW4gaW5mcmFzdHJ1Y3R1cmUsIGFmdGVyIHVuc2F2b3J5IG1lc3NhZ2luZyB3YXMgZGlz4oCm</t>
+          <t>QXMgd2Ugd3JhcCB1cCBDeWJlcnNlY3VyaXR5IEF3YXJlbmVzcyBNb250aCwgdGhlIEdpdEh1YiBCdWcgQm91bnR5IHRlYW0gaXMgZXhjaXRlZCB0byBmZWF0dXJlIGFub3RoZXIgc3BvdGxpZ2h0IG9uIGEgdGFsZW50ZWQgc2VjdXJpdHkgcmVzZWFyY2hlciB3aG8gcGFydGljaXBhdGVzIGluIHRoZSBHaXRIdWIgU2VjdXJpdHkgQnVnIEJvdW50eSBQcm9ncmFt4oCUQGFkcmlhbm9hcGohClRoZSBwb3N0IEN5YmVyc2VjdXJpdHkgc3BvdGxpZ2h0IG9uIGJ1ZyBi4oCm</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>QSBjeWJlcnNlY3VyaXR5IGluY2lkZW50IGlzIGJlaW5nIHByb2JlZCBhdCBOZXR3b3JrIFJhaWwsIHRoZSBVSyBub24tZGVwYXJ0bWVudGFsIHB1YmxpYyBib2R5IHJlc3BvbnNpYmxlIGZvciByZXBhaXJpbmcgYW5kIGRldmVsb3BpbmcgdHJhaW4gaW5mcmFzdHJ1Y3R1cmUsIGFmdGVyIHVuc2F2b3J5IG1lc3NhZ2luZyB3YXMgZGlzcGxheWVkIHRvIOKApiBbKzM0NDkgY2hhcnNd</t>
+          <t>QXMgd2Ugd3JhcCB1cCBDeWJlcnNlY3VyaXR5IEF3YXJlbmVzcyBNb250aCwgdGhlIEdpdEh1YiBCdWcgQm91bnR5IHRlYW0gaXMgZXhjaXRlZCB0byBmZWF0dXJlIGFub3RoZXIgc3BvdGxpZ2h0IG9uIGEgdGFsZW50ZWQgc2VjdXJpdHkgcmVzZWFyY2hlciB3aG8gcGFydGljaXBhdGVzIGluIHRoZSBHaXRIdWIgU2VjdXJpdHkgQnVnIEJvdW50eSBQcuKApiBbKzYzNTkgY2hhcnNd</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMDkvMjYvcHVibGljX3dpZmlfb3BlcmF0b3JfaW52ZXN0aWdhdGluZ19jeWJlcmF0dGFjay8=</t>
+          <t>aHR0cHM6Ly9naXRodWIuYmxvZy9zZWN1cml0eS92dWxuZXJhYmlsaXR5LXJlc2VhcmNoL2N5YmVyc2VjdXJpdHktc3BvdGxpZ2h0LW9uLWJ1Zy1ib3VudHktcmVzZWFyY2hlci1hZHJpYW5vYXBqLw==</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VGhlcmVnaXN0ZXIuY29t</t>
+          <t>R2l0aHViLmJsb2c=</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Q0lTQSBhZGRzIGZyZXNoIEl2YW50aSB2dWxuLCBjcml0aWNhbCBGb3J0aW5ldCBidWcgdG8gaGFsbCBvZiBzaGFtZQ==</t>
+          <t>Q3liZXJzZWN1cml0eSBzcG90bGlnaHQgb24gYnVnIGJvdW50eSByZXNlYXJjaGVyIEBpbXJlcmFk</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Q29ubm9yIEpvbmVz</t>
+          <t>QnJhbmRvbiBTenltYW5za2k=</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VXN1YWwgdGhyZWUtd2VlayB3aW5kb3cgdG8gYWRkcmVzcyBzaWduaWZpY2FudCByaXNrcyB0byBmZWRlcmFsIGFnZW5jaWVzIGFwcGxpZXMKVGhlIFVTIEN5YmVyc2VjdXJpdHkgYW5kIEluZnJhc3RydWN0dXJlIFNlY3VyaXR5IEFnZW5jeSAoQ0lTQSkgc2F5cyB2dWxuZXJhYmlsaXRpZXMgaW4gRm9ydGluZXQgYW5kIEl2YW50aSBwcm9kdWN0cyBhcmUgbm93IGJlaW5nIGV4cGxvaXRlZCwgZWFybmluZyB0aGVtIHBsYWNlcyBpbiBpdHMgS25vd24gRXhwbOKApg==</t>
+          <t>Rm9yIHRoaXMgeWVhcuKAmXMgQ3liZXJzZWN1cml0eSBBd2FyZW5lc3MgTW9udGgsIHRoZSBHaXRIdWIgQnVnIEJvdW50eSB0ZWFtIGlzIGV4Y2l0ZWQgdG8gZmVhdHVyZSBhbm90aGVyIHNwb3RsaWdodCBvbiBhIHRhbGVudGVkIHNlY3VyaXR5IHJlc2VhcmNoZXIgd2hvIHBhcnRpY2lwYXRlcyBpbiB0aGUgR2l0SHViIFNlY3VyaXR5IEJ1ZyBCb3VudHkgUHJvZ3JhbeKAlEBpbXJlcmFkIQpUaGUgcG9zdCBDeWJlcnNlY3VyaXR5IHNwb3RsaWdodCBvbiBidWcgYm/igKY=</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VGhlIFVTIEN5YmVyc2VjdXJpdHkgYW5kIEluZnJhc3RydWN0dXJlIFNlY3VyaXR5IEFnZW5jeSAoQ0lTQSkgc2F5cyB2dWxuZXJhYmlsaXRpZXMgaW4gRm9ydGluZXQgYW5kIEl2YW50aSBwcm9kdWN0cyBhcmUgbm93IGJlaW5nIGV4cGxvaXRlZCwgZWFybmluZyB0aGVtIHBsYWNlcyBpbiBpdHMgS25vd24gRXhwbG9pdGVkIFZ1bG5lcmFiaWxpdGllc+KApiBbKzQ2NjkgY2hhcnNd</t>
+          <t>Rm9yIHRoaXMgeWVhcnMgQ3liZXJzZWN1cml0eSBBd2FyZW5lc3MgTW9udGgsIHRoZSBHaXRIdWIgQnVnIEJvdW50eSB0ZWFtIGlzIGV4Y2l0ZWQgdG8gZmVhdHVyZSBhbm90aGVyIHNwb3RsaWdodCBvbiBhIHRhbGVudGVkIHNlY3VyaXR5IHJlc2VhcmNoZXIgd2hvIHBhcnRpY2lwYXRlcyBpbiB0aGUgR2l0SHViIFNlY3VyaXR5IEJ1ZyBCb3VudHkgUOKApiBbKzY0ODAgY2hhcnNd</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMTAvY2lzYV9pdmFudGlfZm9ydGluZXRfdnVsbnMv</t>
+          <t>aHR0cHM6Ly9naXRodWIuYmxvZy9zZWN1cml0eS92dWxuZXJhYmlsaXR5LXJlc2VhcmNoL2N5YmVyc2VjdXJpdHktc3BvdGxpZ2h0LW9uLWJ1Zy1ib3VudHktcmVzZWFyY2hlci1pbXJlcmFkLw==</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>VGhlcmVnaXN0ZXIuY29t</t>
+          <t>WWFob28gRW50ZXJ0YWlubWVudA==</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>U29sYXJXaW5kcyBjcml0aWNhbCBoYXJkY29kZWQgY3JlZGVudGlhbCBidWcgdW5kZXIgYWN0aXZlIGV4cGxvaXQ=</t>
+          <t>SG93IHRvIHN0cmVhbSB2aWEgYSBWUE4gb24geW91ciBHb29nbGUgVFYgb3IgQ2hyb21lY2FzdA==</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SmVzc2ljYSBMeW9ucw==</t>
+          <t>QWFyb24gS2lt</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tm8gd29yZCB5ZXQgb24gc2NvcGUgb2YgYXR0YWNrcwpBIGNyaXRpY2FsLCBoYXJkY29kZWQgY3JlZGVudGlhbCBidWcgaW4gU29sYXJXaW5kcycgV2ViIEhlbHAgRGVzayBwcm9kdWN0cyBoYXMgYmVlbiBmb3VuZCBhbmQgZXhwbG9pdGVkIGJ5IGNyaW1pbmFscywgYWNjb3JkaW5nIHRvIHRoZSBVUyBDeWJlcnNlY3VyaXR5IGFuZCBJbmZyYXN0cnVjdHVyZSBTZWN1cml0eSBBZ2VuY3ksIHdoaWNoIGhhcyBhZGRlZCB0aGUgZmxhdyB0byBpdHMgS25vd24gReKApg==</t>
+          <t>R29vZ2xlIFRWIGlzIGFuIGVhc3kgdG8gdXNlIG9wZXJhdGluZyBzeXN0ZW0gdGhhdCBwcm92aWRlcyBhY2Nlc3MgdG8gYWxsIG9mIHRoZSBiZXN0IHN0cmVhbWluZyBzZXJ2aWNlcyBpbiBvbmUgY2VudHJhbGl6ZWQgbG9jYXRpb24uIEEgZ3Jvd2luZyBudW1iZXIgb2YgbW9kZXN0bHkgcHJpY2VkIHNtYXJ0IFRWcyBoYXZlIEdvb2dsZSBUViBidWlsdC1pbi4gQnV0IGV2ZW4gaWYgeW91ciBzbWFydCBUViBydW5zIGEgZGlmZmVyZW50IE9TLCB5b3UgY2FuIOKApg==</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>QSBjcml0aWNhbCwgaGFyZGNvZGVkIGNyZWRlbnRpYWwgYnVnIGluIFNvbGFyV2luZHMnIFdlYiBIZWxwIERlc2sgcHJvZHVjdHMgaGFzIGJlZW4gZm91bmQgYW5kIGV4cGxvaXRlZCBieSBjcmltaW5hbHMsIGFjY29yZGluZyB0byB0aGUgVVMgQ3liZXJzZWN1cml0eSBhbmQgSW5mcmFzdHJ1Y3R1cmUgU2VjdXJpdHkgQWdlbmN5LCB3aGljaCBoYXMgYeKApiBbKzIxNjcgY2hhcnNd</t>
+          <t>SWYgeW91IGNsaWNrICdBY2NlcHQgYWxsJywgd2UgYW5kIG91ciBwYXJ0bmVycywgaW5jbHVkaW5nIDIzOCB3aG8gYXJlIHBhcnQgb2YgdGhlIElBQiBUcmFuc3BhcmVuY3kgJmFtcDsgQ29uc2VudCBGcmFtZXdvcmssIHdpbGwgYWxzbyBzdG9yZSBhbmQvb3IgYWNjZXNzIGluZm9ybWF0aW9uIG9uIGEgZGV2aWNlIChpbiBvdGhlciB3b3JkcywgdXNlIOKApiBbKzY3OCBjaGFyc10=</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMTYvc29sYXJ3aW5kc19jcml0aWNhbF9oYXJkY29kZWRfY3JlZGVudGlhbF9idWcv</t>
+          <t>aHR0cHM6Ly9jb25zZW50LnlhaG9vLmNvbS92Mi9jb2xsZWN0Q29uc2VudD9zZXNzaW9uSWQ9MV9jYy1zZXNzaW9uXzZhZWVmYTA4LWU2NTUtNDAxNi1hMmNmLTQzNjBlNWEzNTU1OQ==</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Rm94IE5ld3M=</t>
+          <t>VGhlIE5leHQgV2Vi</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>T3ZlciA2MDBNIGN5YmVyYXR0YWNrcyB0YXJnZXQgV2luZG93cyB1c2VycyBldmVyeSBkYXk=</t>
+          <t>VE5XIENvbmZlcmVuY2UgMjAyNSB0aGVtZSBzcG90bGlnaHQ6IEFJIGFuZCBEZWVwdGVjaA==</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>S3VydCBLbnV0c3NvbiwgQ3liZXJHdXkgUmVwb3J0</t>
+          <t>VGhvbWFzIE1hY2F1bGF5</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>V2luZG93cyBvcGVyYXRpbmcgc3lzdGVtIHVzZXJzIGZhY2UgbW9yZSB0aGFuIDYwMCBtaWxsaW9uIGN5YmVyYXR0YWNrcyBldmVyeSBkYXksIGFjY29yZGluZyB0byBLdXJ0ICJDeWJlckd1eSIgS251dHNzb24uIFRoZSBhdHRhY2tzIGFyZSBvbiB0aGUgcmlzZS4=</t>
+          <t>RGViYXRlcyBhYm91dCBBSSBhcmUgZXZlcnl3aGVyZSB0aGVzZSBkYXlzLiBGYW1pbGllcyBhcmUgY2hhdHRpbmcgYWJvdXQgaXRzIGltcGFjdHMgb24gdGhlaXIgbGl2ZXMuIFBvbGl0aWNpYW5zIGFyZSBkZWxpYmVyYXRpbmcgb3ZlciB0aGUgbGF3cyB0aGF0IG92ZXJzZWUgaXQuIFdvcmtlcnMgYXJlIHRhbGtpbmcgYWJvdXQgdGhlIHJpc2tzIG9mIGpvYiBhdXRvbWF0aW9uLiBFbnRyZXByZW5ldXJzIGFyZSBjaGV3aW5nIG92ZXIgdGhlIGJ1c2luZXNzIOKApg==</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Q3liZXJhdHRhY2tzIGFyZSBtb3JlIGNvbW1vbiB0aGFuIGV2ZXIsIGFuZCBpZiB5b3UncmUgYSBXaW5kb3dzIHVzZXIsIHlvdSdyZSBwcm9iYWJseSBmZWVsaW5nIHRoZSBpbXBhY3QgbW9yZSB0aGFuIG90aGVycy7CoA0KSGFja2VycyBhcmUgYWx3YXlzIHRhcmdldGluZyBXaW5kb3dzIFBDcywgYW5kIHlvdSd2ZSBwcm9iYWJseSBzZWVuIHJlcG9ydHPigKYgWys4MDE1IGNoYXJzXQ==</t>
+          <t>RGViYXRlcyBhYm91dCBBSSBhcmUgZXZlcnl3aGVyZSB0aGVzZSBkYXlzLiANCkZhbWlsaWVzIGFyZSBjaGF0dGluZyBhYm91dCBpdHMgaW1wYWN0cyBvbiB0aGVpciBsaXZlcy4gUG9saXRpY2lhbnMgYXJlIGRlbGliZXJhdGluZyBvdmVyIHRoZSBsYXdzIHRoYXQgb3ZlcnNlZSBpdC4gV29ya2VycyBhcmUgdGFsa2luZyBhYm91dCB0aGUgcmlza3Mgb+KApiBbKzMwMTkgY2hhcnNd</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZm94bmV3cy5jb20vdGVjaC9vdmVyLTYwMC1taWxsaW9uLWN5YmVyYXR0YWNrcy10YXJnZXQtd2luZG93cy11c2Vycy1ldmVyeS1kYXk=</t>
+          <t>aHR0cHM6Ly90aGVuZXh0d2ViLmNvbS9uZXdzL3Rudy1jb25mZXJlbmNlLTIwMjUtdGhlbWUtc3BvdGxpZ2h0LWFpLWFuZC1kZWVwdGVjaA==</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>QmxlZXBpbmdDb21wdXRlcg==</t>
+          <t>VGhlcmVnaXN0ZXIuY29t</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>QVQmVCwgVmVyaXpvbiByZXBvcnRlZGx5IGhhY2tlZCB0byB0YXJnZXQgVVMgZ292dCB3aXJldGFwcGluZyBwbGF0Zm9ybQ==</t>
+          <t>TWljcm9zb2Z0IHNheXMgZ292ZXJubWVudHMgc2hvdWxkIGJlYXIgdGhlIHJlc3BvbnNpYmlsaXR5IGZvciBkZWFsaW5nIHdpdGggY3liZXJjcmltZQ==</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SW9udXQgSWxhc2N1</t>
+          <t>Q29ubm9yIEpvbmVz</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>TXVsdGlwbGUgVS5TLiBicm9hZGJhbmQgcHJvdmlkZXJzLCBpbmNsdWRpbmcgVmVyaXpvbiwgQVQmVCwgYW5kIEx1bWVuIFRlY2hub2xvZ2llcywgaGF2ZSBiZWVuIGJyZWFjaGVkIGJ5IGEgQ2hpbmVzZSBoYWNraW5nIGdyb3VwIHRyYWNrZWQgYXMgU2FsdCBUeXBob29uLCB0aGUgV2FsbCBTdHJlZXQgSm91cm5hbCByZXBvcnRzLg==</t>
+          <t>QWx0aG91Z2ggaXQgYWxzbyByZWFmZmlybWVkIGNvbW1pdG1lbnQgdG8gc2VjdXJlLWJ5LWRlc2lnbiBpbml0aWF0aXZlcwpNaWNyb3NvZnQgaXMgY2FsbGluZyBmb3IgbW9yZSByb2J1c3QgZGV0ZXJyZW50cyB0byBiZSBwbGFjZWQgb24gbmF0aW9uLXN0YXRlcyBhcyBjcmltaW5hbHMgY29udGludWUgdG8gcnVuIHJpZmUgYWNyb3NzIG9ubGluZSBzeXN0ZW1zICJ3aXRob3V0IGFueSBtZWFuaW5nZnVsIGNvbnNlcXVlbmNlcy4i4oCm</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TXVsdGlwbGUgVS5TLiBicm9hZGJhbmQgcHJvdmlkZXJzLCBpbmNsdWRpbmcgVmVyaXpvbiwgQVQmYW1wO1QsIGFuZCBMdW1lbiBUZWNobm9sb2dpZXMsIGhhdmUgYmVlbiBicmVhY2hlZCBieSBhIENoaW5lc2UgaGFja2luZyBncm91cCB0cmFja2VkIGFzIFNhbHQgVHlwaG9vbiwgdGhlIFdhbGwgU3RyZWV0IEpvdXJuYWwgcmVwb3J0cy4NClRoZSBwdeKApiBbKzM5ODUgY2hhcnNd</t>
+          <t>TWljcm9zb2Z0IGlzIGNhbGxpbmcgZm9yIG1vcmUgcm9idXN0IGRldGVycmVudHMgdG8gYmUgcGxhY2VkIG9uIG5hdGlvbi1zdGF0ZXMgYXMgY3JpbWluYWxzIGNvbnRpbnVlIHRvIHJ1biByaWZlIGFjcm9zcyBvbmxpbmUgc3lzdGVtcyAid2l0aG91dCBhbnkgbWVhbmluZ2Z1bCBjb25zZXF1ZW5jZXMuIg0KSG93ZXZlciwgbGlrZSB0aG9zZSBjb25zZeKApiBbKzcxMTMgY2hhcnNd</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYmxlZXBpbmdjb21wdXRlci5jb20vbmV3cy9zZWN1cml0eS9hdGFuZHQtdmVyaXpvbi1yZXBvcnRlZGx5LWhhY2tlZC10by10YXJnZXQtdXMtZ292dC13aXJldGFwcGluZy1wbGF0Zm9ybS8=</t>
+          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMTUvbWljcm9zb2Z0X2RpZ2l0YWxfZGVmZW5zZV9yZXBvcnQv</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>R2l0aHViLmJsb2c=</t>
+          <t>S3JlYnMgb24gU2VjdXJpdHk=</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSBzcG90bGlnaHQgb24gYnVnIGJvdW50eSByZXNlYXJjaGVyIEBhZHJpYW5vYXBq</t>
+          <t>UGF0Y2ggVHVlc2RheSwgT2N0b2JlciAyMDI0IEVkaXRpb24=</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>QnJhbmRvbiBTenltYW5za2k=</t>
+          <t>QnJpYW5LcmVicw==</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>QXMgd2Ugd3JhcCB1cCBDeWJlcnNlY3VyaXR5IEF3YXJlbmVzcyBNb250aCwgdGhlIEdpdEh1YiBCdWcgQm91bnR5IHRlYW0gaXMgZXhjaXRlZCB0byBmZWF0dXJlIGFub3RoZXIgc3BvdGxpZ2h0IG9uIGEgdGFsZW50ZWQgc2VjdXJpdHkgcmVzZWFyY2hlciB3aG8gcGFydGljaXBhdGVzIGluIHRoZSBHaXRIdWIgU2VjdXJpdHkgQnVnIEJvdW50eSBQcm9ncmFt4oCUQGFkcmlhbm9hcGohClRoZSBwb3N0IEN5YmVyc2VjdXJpdHkgc3BvdGxpZ2h0IG9uIGJ1ZyBi4oCm</t>
+          <t>TWljcm9zb2Z0IHRvZGF5IHJlbGVhc2VkIHNlY3VyaXR5IHVwZGF0ZXMgdG8gZml4IGF0IGxlYXN0IDExNyBzZWN1cml0eSBob2xlcyBpbiBXaW5kb3dzIGNvbXB1dGVycyBhbmQgb3RoZXIgc29mdHdhcmUsIGluY2x1ZGluZyB0d28gdnVsbmVyYWJpbGl0aWVzIHRoYXQgYXJlIGFscmVhZHkgc2VlaW5nIGFjdGl2ZSBhdHRhY2tzLiBBbHNvLCBBZG9iZSBwbHVnZ2VkIDUyIHNlY3VyaXR5IGhvbGVzIGFjcm9zcyBhIHJhbmdlIG9mIHByb2R1Y3RzLCBhbmQgQeKApg==</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>QXMgd2Ugd3JhcCB1cCBDeWJlcnNlY3VyaXR5IEF3YXJlbmVzcyBNb250aCwgdGhlIEdpdEh1YiBCdWcgQm91bnR5IHRlYW0gaXMgZXhjaXRlZCB0byBmZWF0dXJlIGFub3RoZXIgc3BvdGxpZ2h0IG9uIGEgdGFsZW50ZWQgc2VjdXJpdHkgcmVzZWFyY2hlciB3aG8gcGFydGljaXBhdGVzIGluIHRoZSBHaXRIdWIgU2VjdXJpdHkgQnVnIEJvdW50eSBQcuKApiBbKzYzNTkgY2hhcnNd</t>
+          <t>TWljcm9zb2Z0IHRvZGF5IHJlbGVhc2VkIHNlY3VyaXR5IHVwZGF0ZXMgdG8gZml4IGF0IGxlYXN0IDExNyBzZWN1cml0eSBob2xlcyBpbiBXaW5kb3dzIGNvbXB1dGVycyBhbmQgb3RoZXIgc29mdHdhcmUsIGluY2x1ZGluZyB0d28gdnVsbmVyYWJpbGl0aWVzIHRoYXQgYXJlIGFscmVhZHkgc2VlaW5nIGFjdGl2ZSBhdHRhY2tzLiBBbHNvLCBBZG9iZeKApiBbKzM0NzcgY2hhcnNd</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9naXRodWIuYmxvZy9zZWN1cml0eS92dWxuZXJhYmlsaXR5LXJlc2VhcmNoL2N5YmVyc2VjdXJpdHktc3BvdGxpZ2h0LW9uLWJ1Zy1ib3VudHktcmVzZWFyY2hlci1hZHJpYW5vYXBqLw==</t>
+          <t>aHR0cHM6Ly9rcmVic29uc2VjdXJpdHkuY29tLzIwMjQvMTAvcGF0Y2gtdHVlc2RheS1vY3RvYmVyLTIwMjQtZWRpdGlvbi8=</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>R2l0aHViLmJsb2c=</t>
+          <t>aGVpc2Ugb25saW5l</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSBzcG90bGlnaHQgb24gYnVnIGJvdW50eSByZXNlYXJjaGVyIEBpbXJlcmFk</t>
+          <t>aGVpc2UtQW5nZWJvdDogaVgtS29uZmVyZW56OiBWb3JiZXJlaXR1bmcgYXVmIE5JUzI=</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>QnJhbmRvbiBTenltYW5za2k=</t>
+          <t>RHIuIE9saXZlciBEaWVkcmljaA==</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Rm9yIHRoaXMgeWVhcuKAmXMgQ3liZXJzZWN1cml0eSBBd2FyZW5lc3MgTW9udGgsIHRoZSBHaXRIdWIgQnVnIEJvdW50eSB0ZWFtIGlzIGV4Y2l0ZWQgdG8gZmVhdHVyZSBhbm90aGVyIHNwb3RsaWdodCBvbiBhIHRhbGVudGVkIHNlY3VyaXR5IHJlc2VhcmNoZXIgd2hvIHBhcnRpY2lwYXRlcyBpbiB0aGUgR2l0SHViIFNlY3VyaXR5IEJ1ZyBCb3VudHkgUHJvZ3JhbeKAlEBpbXJlcmFkIQpUaGUgcG9zdCBDeWJlcnNlY3VyaXR5IHNwb3RsaWdodCBvbiBidWcgYm/igKY=</t>
+          <t>RGllc2UgZWludMOkZ2lnZSBPbmxpbmUtS29uZmVyZW56IGxpZWZlcnQgZWluZW4gdW1mYXNzZW5kZW4gw5xiZXJibGljaywgd2VsY2hlIFVudGVybmVobWVuIHdpZSB2b24gTklTMiBiZXRyb2ZmZW4gc2luZCB1bmQgd2FzIGRpZSBuZXVlIFJlZ3VsaWVydW5nIHZlcmxhbmd0Lg==</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Rm9yIHRoaXMgeWVhcnMgQ3liZXJzZWN1cml0eSBBd2FyZW5lc3MgTW9udGgsIHRoZSBHaXRIdWIgQnVnIEJvdW50eSB0ZWFtIGlzIGV4Y2l0ZWQgdG8gZmVhdHVyZSBhbm90aGVyIHNwb3RsaWdodCBvbiBhIHRhbGVudGVkIHNlY3VyaXR5IHJlc2VhcmNoZXIgd2hvIHBhcnRpY2lwYXRlcyBpbiB0aGUgR2l0SHViIFNlY3VyaXR5IEJ1ZyBCb3VudHkgUOKApiBbKzY0ODAgY2hhcnNd</t>
+          <t>Vm9yIHp3ZWkgV29jaGVuIGhhdCBkZXIgQnVuZGVzdGFnIGVyc3RtYWxzIMO8YmVyIGRhcyBkZXV0c2NoZSBOSVMyLVVtc2V0enVuZ3MtIHVuZCBDeWJlcnNpY2hlcmhlaXRzc3TDpHJrdW5nc2dlc2V0eiBiZXJhdGVuLiBGYWNobGV1dGUgZ2VoZW4gZGF2b24gYXVzLCBkYXNzIGRpZSB6d2VpdGUgRVUtUmljaHRsaW5pZSB6dXIgTmV0endlcmstIHVuZCBJ4oCmIFsrMTUxMyBjaGFyc10=</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9naXRodWIuYmxvZy9zZWN1cml0eS92dWxuZXJhYmlsaXR5LXJlc2VhcmNoL2N5YmVyc2VjdXJpdHktc3BvdGxpZ2h0LW9uLWJ1Zy1ib3VudHktcmVzZWFyY2hlci1pbXJlcmFkLw==</t>
+          <t>aHR0cHM6Ly93d3cuaGVpc2UuZGUvbmV3cy9pWC1Lb25mZXJlbnotVm9yYmVyZWl0dW5nLWF1Zi1OSVMyLTk5ODk0ODYuaHRtbA==</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>WWFob28gRW50ZXJ0YWlubWVudA==</t>
+          <t>aGVpc2Ugb25saW5l</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SG93IHRvIHN0cmVhbSB2aWEgYSBWUE4gb24geW91ciBHb29nbGUgVFYgb3IgQ2hyb21lY2FzdA==</t>
+          <t>RGllbnN0YWc6IFNvcGhvcyDDvGJlcm5pbW10IFNlY3VyZXdvcmtzLCBadWt1bmZ0c29wdGltaXNtdXMgYmVpbSBEaWdpdGFsZ2lwZmVs</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>QWFyb24gS2lt</t>
+          <t>QW5kcmVhcyBLbm9ibG9jaA==</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R29vZ2xlIFRWIGlzIGFuIGVhc3kgdG8gdXNlIG9wZXJhdGluZyBzeXN0ZW0gdGhhdCBwcm92aWRlcyBhY2Nlc3MgdG8gYWxsIG9mIHRoZSBiZXN0IHN0cmVhbWluZyBzZXJ2aWNlcyBpbiBvbmUgY2VudHJhbGl6ZWQgbG9jYXRpb24uIEEgZ3Jvd2luZyBudW1iZXIgb2YgbW9kZXN0bHkgcHJpY2VkIHNtYXJ0IFRWcyBoYXZlIEdvb2dsZSBUViBidWlsdC1pbi4gQnV0IGV2ZW4gaWYgeW91ciBzbWFydCBUViBydW5zIGEgZGlmZmVyZW50IE9TLCB5b3UgY2FuIOKApg==</t>
+          <t>TWlsbGlvbmVuc3VtbWUgZsO8ciBTZWN1cmV3b3JrcyArIERhdGVuc2NodXR6IG5ldSBqdXN0aWVydCArIFJvYm90ZXIgbWl0IEdlc2Nod2luZGlna2VpdHNyZWtvcmQgKyBDUFUtS2VybmUgZsO8cnMgU21hcnRwaG9uZSArIFRlc2xhcyBBdXRvcGlsb3QgYXVmIGRlbSBQcsO8ZnN0YW5k</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SWYgeW91IGNsaWNrICdBY2NlcHQgYWxsJywgd2UgYW5kIG91ciBwYXJ0bmVycywgaW5jbHVkaW5nIDIzOCB3aG8gYXJlIHBhcnQgb2YgdGhlIElBQiBUcmFuc3BhcmVuY3kgJmFtcDsgQ29uc2VudCBGcmFtZXdvcmssIHdpbGwgYWxzbyBzdG9yZSBhbmQvb3IgYWNjZXNzIGluZm9ybWF0aW9uIG9uIGEgZGV2aWNlIChpbiBvdGhlciB3b3JkcywgdXNlIOKApiBbKzY3OCBjaGFyc10=</t>
+          <t>RGFzIElULVNpY2hlcmhlaXRzdW50ZXJuZWhtZW4gU29waG9zIHdpcmQgZGllIFVTLUN5YmVyc2VjdXJpdHlmaXJtYSBTZWN1cmV3b3JrcyBmw7xyIDg1OSBNaWxsaW9uZW4gVVMtRG9sbGFyIGluIGJhciDDvGJlcm5laG1lbi4gQW5mYW5nIG7DpGNoc3RlbiBKYWhyZXMgc29sbCBkZXIgS2F1ZiBhYmdlc2NobG9zc2VuIHNlaW4uIEJlaW0gRGlnaXRhbGdpcOKApiBbKzMzMjggY2hhcnNd</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9jb25zZW50LnlhaG9vLmNvbS92Mi9jb2xsZWN0Q29uc2VudD9zZXNzaW9uSWQ9MV9jYy1zZXNzaW9uXzZhZWVmYTA4LWU2NTUtNDAxNi1hMmNmLTQzNjBlNWEzNTU1OQ==</t>
+          <t>aHR0cHM6Ly93d3cuaGVpc2UuZGUvbmV3cy9EaWVuc3RhZy1Tb3Bob3MtdWViZXJuaW1tdC1TZWN1cmV3b3Jrcy1adWt1bmZ0c29wdGltaXNtdXMtYmVpbS1EaWdpdGFsZ2lwZmVsLTk5ODkxNzMuaHRtbA==</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>VGhlIE5leHQgV2Vi</t>
+          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VE5XIENvbmZlcmVuY2UgMjAyNSB0aGVtZSBzcG90bGlnaHQ6IEFJIGFuZCBEZWVwdGVjaA==</t>
+          <t>V2hlcmUgdG8gd2F0Y2ggTGFzIFZlZ2FzIEFjZXMgdnMuIE5ldyBZb3JrIExpYmVydHk6IExpdmUgc3RyZWFtIEdhbWUgMQ==</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>VGhvbWFzIE1hY2F1bGF5</t>
+          <t>aW5zaWRlckBpbnNpZGVyLmNvbSAoTGlsbGlhbiBCcm93bik=</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RGViYXRlcyBhYm91dCBBSSBhcmUgZXZlcnl3aGVyZSB0aGVzZSBkYXlzLiBGYW1pbGllcyBhcmUgY2hhdHRpbmcgYWJvdXQgaXRzIGltcGFjdHMgb24gdGhlaXIgbGl2ZXMuIFBvbGl0aWNpYW5zIGFyZSBkZWxpYmVyYXRpbmcgb3ZlciB0aGUgbGF3cyB0aGF0IG92ZXJzZWUgaXQuIFdvcmtlcnMgYXJlIHRhbGtpbmcgYWJvdXQgdGhlIHJpc2tzIG9mIGpvYiBhdXRvbWF0aW9uLiBFbnRyZXByZW5ldXJzIGFyZSBjaGV3aW5nIG92ZXIgdGhlIGJ1c2luZXNzIOKApg==</t>
+          <t>VGhlIEFjZXMgYW5kIHRoZSBMaWJlcnR5IG1lZXQgYWdhaW4gaW4gU3VuZGF5J3Mgc2VtaWZpbmFsIGdhbWUuIFdlJ2xsIHNob3cgeW91IHdoZXJlIHRvIHdhdGNoIHRoZSBMYXMgVmVnYXMgQWNlcyBhbmQgTmV3IFlvcmsgTGliZXJ0eSBhdCBob21lLg==</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>RGViYXRlcyBhYm91dCBBSSBhcmUgZXZlcnl3aGVyZSB0aGVzZSBkYXlzLiANCkZhbWlsaWVzIGFyZSBjaGF0dGluZyBhYm91dCBpdHMgaW1wYWN0cyBvbiB0aGVpciBsaXZlcy4gUG9saXRpY2lhbnMgYXJlIGRlbGliZXJhdGluZyBvdmVyIHRoZSBsYXdzIHRoYXQgb3ZlcnNlZSBpdC4gV29ya2VycyBhcmUgdGFsa2luZyBhYm91dCB0aGUgcmlza3Mgb+KApiBbKzMwMTkgY2hhcnNd</t>
+          <t>V2hlbiB5b3UgYnV5IHRocm91Z2ggb3VyIGxpbmtzLCBCdXNpbmVzcyBJbnNpZGVyIG1heSBlYXJuIGFuIGFmZmlsaWF0ZSBjb21taXNzaW9uLiBMZWFybiBtb3JlDQpUaGUgV05CQSBTZW1pZmluYWxzIGtpY2sgb2ZmIG9uIFN1bmRheSB3aXRoIGFuIEFjZXMgdnMuIExpYmVydHkgbWF0Y2gtdXAgaW4gTmV3IFlvcmssIGEgcmVwZWF0IG9mIHRoZSAyMOKApiBbKzUzNjYgY2hhcnNd</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly90aGVuZXh0d2ViLmNvbS9uZXdzL3Rudy1jb25mZXJlbmNlLTIwMjUtdGhlbWUtc3BvdGxpZ2h0LWFpLWFuZC1kZWVwdGVjaA==</t>
+          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ndWlkZXMvc3RyZWFtaW5nL3doZXJlLXRvLXdhdGNoLWFjZXMtbGliZXJ0eS13bmJhLXBsYXlvZmZzLWdhbWUtMS0yMDI0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>VGhlcmVnaXN0ZXIuY29t</t>
+          <t>U2NobmVpZXIuY29t</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TWljcm9zb2Z0IHNheXMgZ292ZXJubWVudHMgc2hvdWxkIGJlYXIgdGhlIHJlc3BvbnNpYmlsaXR5IGZvciBkZWFsaW5nIHdpdGggY3liZXJjcmltZQ==</t>
+          <t>SXJvbk5ldCBIYXMgU2h1dCBEb3du</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Q29ubm9yIEpvbmVz</t>
+          <t>QnJ1Y2UgU2NobmVpZXI=</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>QWx0aG91Z2ggaXQgYWxzbyByZWFmZmlybWVkIGNvbW1pdG1lbnQgdG8gc2VjdXJlLWJ5LWRlc2lnbiBpbml0aWF0aXZlcwpNaWNyb3NvZnQgaXMgY2FsbGluZyBmb3IgbW9yZSByb2J1c3QgZGV0ZXJyZW50cyB0byBiZSBwbGFjZWQgb24gbmF0aW9uLXN0YXRlcyBhcyBjcmltaW5hbHMgY29udGludWUgdG8gcnVuIHJpZmUgYWNyb3NzIG9ubGluZSBzeXN0ZW1zICJ3aXRob3V0IGFueSBtZWFuaW5nZnVsIGNvbnNlcXVlbmNlcy4i4oCm</t>
+          <t>QWZ0ZXIgcmV0aXJpbmcgaW4gMjAxNCBmcm9tIGFuIHVuY2hhcmFjdGVyaXN0aWNhbGx5IGxvbmcgdGVudXJlIHJ1bm5pbmcgdGhlIE5TQSAoYW5kIFVTIEN5YmVyQ29tbWFuZCksIEtlaXRoIEFsZXhhbmRlciBmb3VuZGVkIGEgY3liZXJzZWN1cml0eSBjb21wYW55IGNhbGxlZCBJcm9uTmV0LiBBdCB0aGUgdGltZSwgaGUgY2xhaW1lZCB0aGF0IGl0IHdhcyBiYXNlZCBvbiBJUCBoZSBkZXZlbG9wZWQgb24gaGlzIG93biB0aW1lIHdoaWxlIHN0aWxsIGluIOKApg==</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TWljcm9zb2Z0IGlzIGNhbGxpbmcgZm9yIG1vcmUgcm9idXN0IGRldGVycmVudHMgdG8gYmUgcGxhY2VkIG9uIG5hdGlvbi1zdGF0ZXMgYXMgY3JpbWluYWxzIGNvbnRpbnVlIHRvIHJ1biByaWZlIGFjcm9zcyBvbmxpbmUgc3lzdGVtcyAid2l0aG91dCBhbnkgbWVhbmluZ2Z1bCBjb25zZXF1ZW5jZXMuIg0KSG93ZXZlciwgbGlrZSB0aG9zZSBjb25zZeKApiBbKzcxMTMgY2hhcnNd</t>
+          <t>QWZ0ZXIgcmV0aXJpbmcgaW4gMjAxNCBmcm9tIGFuIHVuY2hhcmFjdGVyaXN0aWNhbGx5IGxvbmcgdGVudXJlIHJ1bm5pbmcgdGhlIE5TQSAoYW5kIFVTIEN5YmVyQ29tbWFuZCksIEtlaXRoIEFsZXhhbmRlciBmb3VuZGVkIGEgY3liZXJzZWN1cml0eSBjb21wYW55IGNhbGxlZCBJcm9uTmV0LiBBdCB0aGUgdGltZSwgaGUgY2xhaW1lZCB0aGF0IGl0IOKApiBbKzIxOTIgY2hhcnNd</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMTUvbWljcm9zb2Z0X2RpZ2l0YWxfZGVmZW5zZV9yZXBvcnQv</t>
+          <t>aHR0cHM6Ly93d3cuc2NobmVpZXIuY29tL2Jsb2cvYXJjaGl2ZXMvMjAyNC8xMC9pcm9ubmV0LWhhcy1zaHV0LWRvd24uaHRtbA==</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S3JlYnMgb24gU2VjdXJpdHk=</t>
+          <t>VGVjaGRpcnQ=</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>UGF0Y2ggVHVlc2RheSwgT2N0b2JlciAyMDI0IEVkaXRpb24=</t>
+          <t>V3lkZW46IENBTEVBIEhhY2sgUHJvdmVzIERhbmdlcnMgT2YgR292ZXJubWVudC1NYW5kYXRlZCBCYWNrZG9vcnM=</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>QnJpYW5LcmVicw==</t>
+          <t>TWlrZSBNYXNuaWNr</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TWljcm9zb2Z0IHRvZGF5IHJlbGVhc2VkIHNlY3VyaXR5IHVwZGF0ZXMgdG8gZml4IGF0IGxlYXN0IDExNyBzZWN1cml0eSBob2xlcyBpbiBXaW5kb3dzIGNvbXB1dGVycyBhbmQgb3RoZXIgc29mdHdhcmUsIGluY2x1ZGluZyB0d28gdnVsbmVyYWJpbGl0aWVzIHRoYXQgYXJlIGFscmVhZHkgc2VlaW5nIGFjdGl2ZSBhdHRhY2tzLiBBbHNvLCBBZG9iZSBwbHVnZ2VkIDUyIHNlY3VyaXR5IGhvbGVzIGFjcm9zcyBhIHJhbmdlIG9mIHByb2R1Y3RzLCBhbmQgQeKApg==</t>
+          <t>V2hlbiBDb25ncmVzcyBwYXNzZWQgdGhlIENvbW11bmljYXRpb25zIEFzc2lzdGFuY2UgZm9yIExhdyBFbmZvcmNlbWVudCBBY3QgKENBTEVBKSBpbiAxOTk0LCB0aGV5IHdlcmUgYXNzdXJlZCBieSB0aGVuLUZCSSBEaXJlY3RvciBMb3VpcyBGcmVlaCB0aGF0IHRoZSBtYW5kYXRlZCB3aXJldGFwIGJhY2tkb29ycyBwb3NlZCBubyBzZWN1cml0eSByaXNrcy4gRmFzdCBmb3J3YXJkIHRvIHRvZGF5LCBmb2xsb3dpbmcgdGhlIG5ld3Mgb2YgYSBtYXNzaXZlIOKApg==</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TWljcm9zb2Z0IHRvZGF5IHJlbGVhc2VkIHNlY3VyaXR5IHVwZGF0ZXMgdG8gZml4IGF0IGxlYXN0IDExNyBzZWN1cml0eSBob2xlcyBpbiBXaW5kb3dzIGNvbXB1dGVycyBhbmQgb3RoZXIgc29mdHdhcmUsIGluY2x1ZGluZyB0d28gdnVsbmVyYWJpbGl0aWVzIHRoYXQgYXJlIGFscmVhZHkgc2VlaW5nIGFjdGl2ZSBhdHRhY2tzLiBBbHNvLCBBZG9iZeKApiBbKzM0NzcgY2hhcnNd</t>
+          <t>ZnJvbSB0aGUgYmFja2Rvb3JzLWFyZS1iYWQsLWZ1bGwtc3RvcCBkZXB0DQpXaGVuIENvbmdyZXNzIHBhc3NlZCB0aGUgQ29tbXVuaWNhdGlvbnMgQXNzaXN0YW5jZSBmb3IgTGF3IEVuZm9yY2VtZW50IEFjdCAoQ0FMRUEpIGluIDE5OTQsIHRoZXkgd2VyZSBhc3N1cmVkIGJ5IHRoZW4tRkJJIERpcmVjdG9yIExvdWlzIEZyZWVoIHRoYXQgdGhlIG1hbuKApiBbKzQyMzUgY2hhcnNd</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9rcmVic29uc2VjdXJpdHkuY29tLzIwMjQvMTAvcGF0Y2gtdHVlc2RheS1vY3RvYmVyLTIwMjQtZWRpdGlvbi8=</t>
+          <t>aHR0cHM6Ly93d3cudGVjaGRpcnQuY29tLzIwMjQvMTAvMTYvd3lkZW4tY2FsZWEtaGFjay1wcm92ZXMtZGFuZ2Vycy1vZi1nb3Zlcm5tZW50LW1hbmRhdGVkLWJhY2tkb29ycy8=</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>aGVpc2Ugb25saW5l</t>
+          <t>RGlnaXRhbCBUcmVuZHM=</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>aGVpc2UtQW5nZWJvdDogaVgtS29uZmVyZW56OiBWb3JiZXJlaXR1bmcgYXVmIE5JUzI=</t>
+          <t>SSByZXZpZXdlZCBNY0FmZWUrIFByZW1pdW0gZm9yIE1hYyBhbmQgZm91bmQgaXQgdG8gYmUgYSBxdWVzdGlvbmFibGUgYmFyZ2Fpbg==</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RHIuIE9saXZlciBEaWVkcmljaA==</t>
+          <t>QWxhbiBUcnVseQ==</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RGllc2UgZWludMOkZ2lnZSBPbmxpbmUtS29uZmVyZW56IGxpZWZlcnQgZWluZW4gdW1mYXNzZW5kZW4gw5xiZXJibGljaywgd2VsY2hlIFVudGVybmVobWVuIHdpZSB2b24gTklTMiBiZXRyb2ZmZW4gc2luZCB1bmQgd2FzIGRpZSBuZXVlIFJlZ3VsaWVydW5nIHZlcmxhbmd0Lg==</t>
+          <t>SSByZXZpZXdlZCBNY0FmZWUgYW50aXZpcnVzIGZvciBNYWMgdG8gZmluZCBvdXQgaXQgdGhlIGFkZGVkIHByb3RlY3Rpb24gaXMgd29ydGggdGhlIHN1YnNjcmlwdGlvbiBjb3N0cyBhbmQgaWYgaXQgaW50ZWdyYXRlcyB3ZWxsIHdpdGggbWFjT1Mu</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Vm9yIHp3ZWkgV29jaGVuIGhhdCBkZXIgQnVuZGVzdGFnIGVyc3RtYWxzIMO8YmVyIGRhcyBkZXV0c2NoZSBOSVMyLVVtc2V0enVuZ3MtIHVuZCBDeWJlcnNpY2hlcmhlaXRzc3TDpHJrdW5nc2dlc2V0eiBiZXJhdGVuLiBGYWNobGV1dGUgZ2VoZW4gZGF2b24gYXVzLCBkYXNzIGRpZSB6d2VpdGUgRVUtUmljaHRsaW5pZSB6dXIgTmV0endlcmstIHVuZCBJ4oCmIFsrMTUxMyBjaGFyc10=</t>
+          <t>SWYgeW914oCZcmUgbG9va2luZyBmb3IgYW50aXZpcnVzIHNvZnR3YXJlIGZvciB5b3VyIE1hYywgeW91IG1pZ2h0IGJlIGRyYXduIHRvIHRoZSBwbGVhc2luZ2x5IGZhbWlsaWFyIG5hbWUgTWNBZmVlLCBhIHdlbGwtcmF0ZWQgY3liZXJzZWN1cml0eSBzb2x1dGlvbiB0aGF0IHJlY2VudGx5IGFkZGVkIEFJIHBoaXNoaW5nIGRldGVjdGlvbiB0byBoZWxw4oCmIFsrODkwMiBjaGFyc10=</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuaGVpc2UuZGUvbmV3cy9pWC1Lb25mZXJlbnotVm9yYmVyZWl0dW5nLWF1Zi1OSVMyLTk5ODk0ODYuaHRtbA==</t>
+          <t>aHR0cHM6Ly93d3cuZGlnaXRhbHRyZW5kcy5jb20vY29tcHV0aW5nL21jYWZlZS1wcmVtaXVtLWZvci1tYWMtcmV2aWV3Lw==</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>aGVpc2Ugb25saW5l</t>
+          <t>SW50ZXJuZXQ=</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RnJlaXRhZzogR29vZ2xlcyBHcsO8bmRlIGbDvHIgTWFya3RtYWNodCwgTWlsbGlhcmRlbiBmw7xyIEtJIGdlZ2VuIEZpbmFuemJldHJ1Zw==</t>
+          <t>Q0lTQSBXYXJucyBvZiBDcml0aWNhbCBGb3J0aW5ldCBGbGF3IGFzIFBhbG8gQWx0byBhbmQgQ2lzY28gSXNzdWUgVXJnZW50IFNlY3VyaXR5IFBhdGNoZXM=</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>RnJhbmsgU2NocsOkZXI=</t>
+          <t>aW5mb0B0aGVoYWNrZXJuZXdzLmNvbSAoVGhlIEhhY2tlciBOZXdzKQ==</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>V2VyYmVrb250cm9sbGUgZ2VnZW4gQmV0cnVnICsgS0ktSW52ZXN0aXRpb25lbiB2b24gVmlzYSB1bmQgTWFzdGVyY2FyZCArIExlYXBtb3RvciBUMDMgaW0gRmFocmJlcmljaHQgKyBVYmlzb2Z0cyBSw7xja2tlaHIgenUgU3RlYW0gKyBWZXJicmF1Y2hlcnNjaHV0ei1Qb2RjYXN0</t>
+          <t>VGhlIFUuUy4gQ3liZXJzZWN1cml0eSBhbmQgSW5mcmFzdHJ1Y3R1cmUgU2VjdXJpdHkgQWdlbmN5IChDSVNBKSBvbiBXZWRuZXNkYXkgYWRkZWQgYSBjcml0aWNhbCBzZWN1cml0eSBmbGF3IGltcGFjdGluZyBGb3J0aW5ldCBwcm9kdWN0cyB0byBpdHMgS25vd24gRXhwbG9pdGVkIFZ1bG5lcmFiaWxpdGllcyAoS0VWKSBjYXRhbG9nLCBjaXRpbmcgZXZpZGVuY2Ugb2YgYWN0aXZlIGV4cGxvaXRhdGlvbi4KVGhlIHZ1bG5lcmFiaWxpdHksIHRyYWNrZWQgYeKApg==</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>R29vZ2xlcyBWZXJoYWx0ZW4gcmVkdXppZXJ0IFdldHRiZXdlcmIgaW4gZGVyIE9ubGluZS1XZXJiZWtldHRlLCBzbyBlaW5lIEthcnRlbGxyZWNodHNrbGFnZSBpbiBkZW4gVVNBLiBEb2NoIGRhcyBoYXQgZ3V0ZSBHcsO8bmRlLCBtZWludCBkZXIgYmVrbGFndGUgRGF0ZW5rb256ZXJuIHZvciBHZXJpY2h0LiBUw6RnbGljaCB3w7xyZGVuIHZpZWxlIFdlYuKApiBbKzQ0NDggY2hhcnNd</t>
+          <t>VGhlIFUuUy4gQ3liZXJzZWN1cml0eSBhbmQgSW5mcmFzdHJ1Y3R1cmUgU2VjdXJpdHkgQWdlbmN5IChDSVNBKSBvbiBXZWRuZXNkYXkgYWRkZWQgYSBjcml0aWNhbCBzZWN1cml0eSBmbGF3IGltcGFjdGluZyBGb3J0aW5ldCBwcm9kdWN0cyB0byBpdHMgS25vd24gRXhwbG9pdGVkIFZ1bG5lcmFiaWxpdGllcyAoS0VWKSBjYXRhbG9nLCBjaXRpbmcgZeKApiBbKzQyMTMgY2hhcnNd</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuaGVpc2UuZGUvbmV3cy9GcmVpdGFnLUdvb2dsZXMtR3J1ZW5kZS1mdWVyLU1hcmt0bWFjaHQtTWlsbGlhcmRlbi1mdWVyLUtJLWdlZ2VuLUZpbmFuemJldHJ1Zy05OTU1MDkzLmh0bWw=</t>
+          <t>aHR0cHM6Ly90aGVoYWNrZXJuZXdzLmNvbS8yMDI0LzEwL2Npc2Etd2FybnMtb2YtY3JpdGljYWwtZm9ydGluZXQtZmxhdy1hcy5odG1s</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>aGVpc2Ugb25saW5l</t>
+          <t>SW50ZXJuZXQ=</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RGllbnN0YWc6IFNvcGhvcyDDvGJlcm5pbW10IFNlY3VyZXdvcmtzLCBadWt1bmZ0c29wdGltaXNtdXMgYmVpbSBEaWdpdGFsZ2lwZmVs</t>
+          <t>UmVzZWFyY2hlcnMgRGlzY292ZXIgU2V2ZXJlIFNlY3VyaXR5IEZsYXdzIGluIE1ham9yIEUyRUUgQ2xvdWQgU3RvcmFnZSBQcm92aWRlcnM=</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>QW5kcmVhcyBLbm9ibG9jaA==</t>
+          <t>aW5mb0B0aGVoYWNrZXJuZXdzLmNvbSAoVGhlIEhhY2tlciBOZXdzKQ==</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>TWlsbGlvbmVuc3VtbWUgZsO8ciBTZWN1cmV3b3JrcyArIERhdGVuc2NodXR6IG5ldSBqdXN0aWVydCArIFJvYm90ZXIgbWl0IEdlc2Nod2luZGlna2VpdHNyZWtvcmQgKyBDUFUtS2VybmUgZsO8cnMgU21hcnRwaG9uZSArIFRlc2xhcyBBdXRvcGlsb3QgYXVmIGRlbSBQcsO8ZnN0YW5k</t>
+          <t>Q3liZXJzZWN1cml0eSByZXNlYXJjaGVycyBoYXZlIGRpc2NvdmVyZWQgc2V2ZXJlIGNyeXB0b2dyYXBoaWMgaXNzdWVzIGluIHZhcmlvdXMgZW5kLXRvLWVuZCBlbmNyeXB0ZWQgKEUyRUUpIGNsb3VkIHN0b3JhZ2UgcGxhdGZvcm1zIHRoYXQgY291bGQgYmUgZXhwbG9pdGVkIHRvIGxlYWsgc2Vuc2l0aXZlIGRhdGEuCiJUaGUgdnVsbmVyYWJpbGl0aWVzIHJhbmdlIGluIHNldmVyaXR5OiBpbiBtYW55IGNhc2VzIGEgbWFsaWNpb3VzIHNlcnZlciBjYW4gaeKApg==</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>RGFzIElULVNpY2hlcmhlaXRzdW50ZXJuZWhtZW4gU29waG9zIHdpcmQgZGllIFVTLUN5YmVyc2VjdXJpdHlmaXJtYSBTZWN1cmV3b3JrcyBmw7xyIDg1OSBNaWxsaW9uZW4gVVMtRG9sbGFyIGluIGJhciDDvGJlcm5laG1lbi4gQW5mYW5nIG7DpGNoc3RlbiBKYWhyZXMgc29sbCBkZXIgS2F1ZiBhYmdlc2NobG9zc2VuIHNlaW4uIEJlaW0gRGlnaXRhbGdpcOKApiBbKzMzMjggY2hhcnNd</t>
+          <t>Q3liZXJzZWN1cml0eSByZXNlYXJjaGVycyBoYXZlIGRpc2NvdmVyZWQgc2V2ZXJlIGNyeXB0b2dyYXBoaWMgaXNzdWVzIGluIHZhcmlvdXMgZW5kLXRvLWVuZCBlbmNyeXB0ZWQgKEUyRUUpIGNsb3VkIHN0b3JhZ2UgcGxhdGZvcm1zIHRoYXQgY291bGQgYmUgZXhwbG9pdGVkIHRvIGxlYWsgc2Vuc2l0aXZlIGRhdGEuDQoiVGhlIHZ1bG5lcmFiaWxpdOKApiBbKzQxNTcgY2hhcnNd</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuaGVpc2UuZGUvbmV3cy9EaWVuc3RhZy1Tb3Bob3MtdWViZXJuaW1tdC1TZWN1cmV3b3Jrcy1adWt1bmZ0c29wdGltaXNtdXMtYmVpbS1EaWdpdGFsZ2lwZmVsLTk5ODkxNzMuaHRtbA==</t>
+          <t>aHR0cHM6Ly90aGVoYWNrZXJuZXdzLmNvbS8yMDI0LzEwL3Jlc2VhcmNoZXJzLWRpc2NvdmVyLXNldmVyZS1zZWN1cml0eS5odG1s</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
+          <t>U2NobmVpZXIuY29t</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>V2hlcmUgdG8gd2F0Y2ggTGFzIFZlZ2FzIEFjZXMgdnMuIE5ldyBZb3JrIExpYmVydHk6IExpdmUgc3RyZWFtIEdhbWUgMQ==</t>
+          <t>RGVlYm90IFJvYm90IFZhY3V1bXMgQXJlIFVzaW5nIFBob3RvcyBhbmQgQXVkaW8gdG8gVHJhaW4gVGhlaXIgQUk=</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>aW5zaWRlckBpbnNpZGVyLmNvbSAoTGlsbGlhbiBCcm93bik=</t>
+          <t>QnJ1Y2UgU2NobmVpZXI=</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VGhlIEFjZXMgYW5kIHRoZSBMaWJlcnR5IG1lZXQgYWdhaW4gaW4gU3VuZGF5J3Mgc2VtaWZpbmFsIGdhbWUuIFdlJ2xsIHNob3cgeW91IHdoZXJlIHRvIHdhdGNoIHRoZSBMYXMgVmVnYXMgQWNlcyBhbmQgTmV3IFlvcmsgTGliZXJ0eSBhdCBob21lLg==</t>
+          <t>QW4gQXVzdHJhbGlhbiBuZXdzIGFnZW5jeSBpcyByZXBvcnRpbmcgdGhhdCByb2JvdCB2YWN1dW0gY2xlYW5lcnMgZnJvbSB0aGUgQ2hpbmVzZSBjb21wYW55IERlZWJvdCBhcmUgc3VycmVwdGl0aW91c2x5IHRha2luZyBwaG90b3MgYW5kIHJlY29yZGluZyBhdWRpbywgYW5kIHNlbmRpbmcgdGhhdCBkYXRhIGJhY2sgdG8gdGhlIHZlbmRvciB0byB0cmFpbiB0aGVpciBBSXMuCkVjb3ZhY3PigJlzIHByaXZhY3kgcG9saWN54oCUYXZhaWxhYmxlIGVsc2V3aGVyZSDigKY=</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>V2hlbiB5b3UgYnV5IHRocm91Z2ggb3VyIGxpbmtzLCBCdXNpbmVzcyBJbnNpZGVyIG1heSBlYXJuIGFuIGFmZmlsaWF0ZSBjb21taXNzaW9uLiBMZWFybiBtb3JlDQpUaGUgV05CQSBTZW1pZmluYWxzIGtpY2sgb2ZmIG9uIFN1bmRheSB3aXRoIGFuIEFjZXMgdnMuIExpYmVydHkgbWF0Y2gtdXAgaW4gTmV3IFlvcmssIGEgcmVwZWF0IG9mIHRoZSAyMOKApiBbKzUzNjYgY2hhcnNd</t>
+          <t>QW4gQXVzdHJhbGlhbiBuZXdzIGFnZW5jeSBpcyByZXBvcnRpbmcgdGhhdCByb2JvdCB2YWN1dW0gY2xlYW5lcnMgZnJvbSB0aGUgQ2hpbmVzZSBjb21wYW55IERlZWJvdCBhcmUgc3VycmVwdGl0aW91c2x5IHRha2luZyBwaG90b3MgYW5kIHJlY29yZGluZyBhdWRpbywgYW5kIHNlbmRpbmcgdGhhdCBkYXRhIGJhY2sgdG8gdGhlIHZlbmRvciB0byB0cuKApiBbKzc3NCBjaGFyc10=</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ndWlkZXMvc3RyZWFtaW5nL3doZXJlLXRvLXdhdGNoLWFjZXMtbGliZXJ0eS13bmJhLXBsYXlvZmZzLWdhbWUtMS0yMDI0</t>
+          <t>aHR0cHM6Ly93d3cuc2NobmVpZXIuY29tL2Jsb2cvYXJjaGl2ZXMvMjAyNC8xMC9kZWVib3Qtcm9ib3QtdmFjdXVtcy1hcmUtdXNpbmctcGhvdG9zLWFuZC1hdWRpby10by10cmFpbi10aGVpci1haS5odG1s</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>U2NobmVpZXIuY29t</t>
+          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SXJvbk5ldCBIYXMgU2h1dCBEb3du</t>
+          <t>MjNhbmRNZSBpcyBmbG91bmRlcmluZy4gSGVyZSBpcyBob3cgdG8gZGVsZXRlIHlvdXIgZGF0YS4=</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>QnJ1Y2UgU2NobmVpZXI=</t>
+          <t>TGF1cmVuIEVkbW9uZHM=</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>QWZ0ZXIgcmV0aXJpbmcgaW4gMjAxNCBmcm9tIGFuIHVuY2hhcmFjdGVyaXN0aWNhbGx5IGxvbmcgdGVudXJlIHJ1bm5pbmcgdGhlIE5TQSAoYW5kIFVTIEN5YmVyQ29tbWFuZCksIEtlaXRoIEFsZXhhbmRlciBmb3VuZGVkIGEgY3liZXJzZWN1cml0eSBjb21wYW55IGNhbGxlZCBJcm9uTmV0LiBBdCB0aGUgdGltZSwgaGUgY2xhaW1lZCB0aGF0IGl0IHdhcyBiYXNlZCBvbiBJUCBoZSBkZXZlbG9wZWQgb24gaGlzIG93biB0aW1lIHdoaWxlIHN0aWxsIGluIOKApg==</t>
+          <t>MjNhbmRNZSdzIG9uY2UgcmlzaW5nIHN0YXIgaGFzIGRpbW1lZCBhbWlkIGEgc2VyaWVzIG9mIHNldGJhY2tzLCBsZWFkaW5nIHNvbWUgdXNlcnMgdG8gd29uZGVyIHdoYXQgd2lsbCBoYXBwZW4gdG8gdGhlaXIgZ2VuZXRpYyBkYXRhLg==</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>QWZ0ZXIgcmV0aXJpbmcgaW4gMjAxNCBmcm9tIGFuIHVuY2hhcmFjdGVyaXN0aWNhbGx5IGxvbmcgdGVudXJlIHJ1bm5pbmcgdGhlIE5TQSAoYW5kIFVTIEN5YmVyQ29tbWFuZCksIEtlaXRoIEFsZXhhbmRlciBmb3VuZGVkIGEgY3liZXJzZWN1cml0eSBjb21wYW55IGNhbGxlZCBJcm9uTmV0LiBBdCB0aGUgdGltZSwgaGUgY2xhaW1lZCB0aGF0IGl0IOKApiBbKzIxOTIgY2hhcnNd</t>
+          <t>MjNhbmRNZSBoYXMgbmF2aWdhdGVkIHNldmVyYWwgb2JzdGFjbGVzIGluIHJlY2VudCB5ZWFycywgdHJpZ2dlcmluZyBjb25jZXJuIGZyb20gY29uc3VtZXJzLkVSSUMgQkFSQURBVC9HZXR0eSBJbWFnZXMNCjx1bD48bGk+MjNhbmRNZSdzIGJ1c2luZXNzIGlzIGZsb3VuZGVyaW5nIGFmdGVyIGEgZGF0YSBoYWNrLCBsYXdzdWl0LCBhbmQgdHVtYmxpbuKApiBbKzQ0OTEgY2hhcnNd</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuc2NobmVpZXIuY29tL2Jsb2cvYXJjaGl2ZXMvMjAyNC8xMC9pcm9ubmV0LWhhcy1zaHV0LWRvd24uaHRtbA==</t>
+          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ob3ctdG8tZGVsZXRlLXlvdXItMjNhbmRtZS1kYXRhLTIwMjQtMTA=</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>R2l0aHViLmJsb2c=</t>
+          <t>VGhlcmVnaXN0ZXIuY29t</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S2lja2luZyBvZmYgQ3liZXJzZWN1cml0eSBBd2FyZW5lc3MgTW9udGg6IFJlc2VhcmNoZXIgc3BvdGxpZ2h0cyBhbmQgYWRkaXRpb25hbCBpbmNlbnRpdmVzIQ==</t>
+          <t>VVMgbGF3bWFrZXJzIHNlZWsgYW5zd2VycyBvbiBhbGxlZ2VkIFNhbHQgVHlwaG9vbiBicmVhY2ggb2YgdGVsZWNvbSBnaWFudHM=</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>U2hpbHBhIEt1bWFyaQ==</t>
+          <t>SmVzc2ljYSBMeW9ucw==</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Rm9yIHRoaXMgeWVhcuKAmXMgQ3liZXJzZWN1cml0eSBBd2FyZW5lc3MgTW9udGgsIEdpdEh1YuKAmXMgQnVnIEJvdW50eSB0ZWFtIGlzIGV4Y2l0ZWQgdG8gb2ZmZXIgc29tZSBhZGRpdGlvbmFsIGluY2VudGl2ZXMgdG8gc2VjdXJpdHkgcmVzZWFyY2hlcnMhClRoZSBwb3N0IEtpY2tpbmcgb2ZmIEN5YmVyc2VjdXJpdHkgQXdhcmVuZXNzIE1vbnRoOiBSZXNlYXJjaGVyIHNwb3RsaWdodHMgYW5kIGFkZGl0aW9uYWwgaW5jZW50aXZlcyEgYXBwZWFyZWQgZmlyc3TigKY=</t>
+          <t>Q3liZXJzcGllcyBhYnVzaW5nIGEgYmFja2Rvb3I/IEdyb3VuZGJyZWFraW5nCkxhd21ha2VycyBhcmUgZGVtYW5kaW5nIGFuc3dlcnMgYWJvdXQgZWFybGllciBuZXdzIHJlcG9ydHMgdGhhdCBDaGluYSdzIFNhbHQgVHlwaG9vbiBjeWJlcnNwaWVzIGJyZWFjaGVkIFVTIHRlbGVjb21tdW5pY2F0aW9ucyBjb21wYW5pZXMgVmVyaXpvbiwgQVQmVCwgYW5kIEx1bWVuIFRlY2hub2xvZ2llcywgYW5kIGhhY2tlZCB0aGVpciB3aXJldGFwcGluZyBzeXN0ZW1zLuKApg==</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSBBd2FyZW5lc3MgTW9udGggaXMgYSBnbG9iYWwgaW5pdGlhdGl2ZSB0aGF0IGhpZ2hsaWdodHMgdGhlIGltcG9ydGFuY2Ugb2YgcHJvdGVjdGluZyBvdXIgZGlnaXRhbCB3b3JrLiBBdCBHaXRIdWIsIHNlY3VyaXR5IGlzIHRoZSBjb3JlIG9mIGhvdyB3ZSBvcGVyYXRlLiBXZeKAmXJlIHByb3VkIHRvIHBhcnRpY2lwYXRlIGFuZCBk4oCmIFsrMjM4OSBjaGFyc10=</t>
+          <t>TGF3bWFrZXJzIGFyZSBkZW1hbmRpbmcgYW5zd2VycyBhYm91dCBlYXJsaWVyIG5ld3MgcmVwb3J0cyB0aGF0IENoaW5hJ3MgU2FsdCBUeXBob29uIGN5YmVyc3BpZXMgYnJlYWNoZWQgVVMgdGVsZWNvbW11bmljYXRpb25zIGNvbXBhbmllcyBWZXJpem9uLCBBVCZhbXA7VCwgYW5kIEx1bWVuIFRlY2hub2xvZ2llcywgYW5kIGhhY2tlZCB0aGVpciB3aeKApiBbKzMxNTQgY2hhcnNd</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9naXRodWIuYmxvZy9zZWN1cml0eS92dWxuZXJhYmlsaXR5LXJlc2VhcmNoL2tpY2tpbmctb2ZmLWN5YmVyc2VjdXJpdHktYXdhcmVuZXNzLW1vbnRoLXJlc2VhcmNoZXItc3BvdGxpZ2h0cy1hbmQtYWRkaXRpb25hbC1pbmNlbnRpdmVzLw==</t>
+          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMTEvdXNfbGF3bWFrZXJzX3NhbHRfdHlwaG9vbi8=</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>VGVjaGRpcnQ=</t>
+          <t>aGVpc2Ugb25saW5l</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>V3lkZW46IENBTEVBIEhhY2sgUHJvdmVzIERhbmdlcnMgT2YgR292ZXJubWVudC1NYW5kYXRlZCBCYWNrZG9vcnM=</t>
+          <t>aGVpc2UtQW5nZWJvdDogaVgtV29ya3Nob3A6IEVpbmbDvGhydW5nIGluIGRpZSBTQVAgQnVzaW5lc3MgVGVjaG5vbG9neSBQbGF0Zm9ybSAoQlRQKQ==</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TWlrZSBNYXNuaWNr</t>
+          <t>SWxvbmEgS3JhdXNl</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>V2hlbiBDb25ncmVzcyBwYXNzZWQgdGhlIENvbW11bmljYXRpb25zIEFzc2lzdGFuY2UgZm9yIExhdyBFbmZvcmNlbWVudCBBY3QgKENBTEVBKSBpbiAxOTk0LCB0aGV5IHdlcmUgYXNzdXJlZCBieSB0aGVuLUZCSSBEaXJlY3RvciBMb3VpcyBGcmVlaCB0aGF0IHRoZSBtYW5kYXRlZCB3aXJldGFwIGJhY2tkb29ycyBwb3NlZCBubyBzZWN1cml0eSByaXNrcy4gRmFzdCBmb3J3YXJkIHRvIHRvZGF5LCBmb2xsb3dpbmcgdGhlIG5ld3Mgb2YgYSBtYXNzaXZlIOKApg==</t>
+          <t>TGVybmVuIFNpZSwgd2llIFNpZSBtaXQgU0FQIEJUUCBBbndlbmR1bmdlbiBlbnR3aWNrZWxuLCBTY2huaXR0c3RlbGxlbiBpbnRlZ3JpZXJlbiB1bmQgR2VzY2jDpGZ0c3Byb3plc3NlIG9wdGltaWVyZW4u</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ZnJvbSB0aGUgYmFja2Rvb3JzLWFyZS1iYWQsLWZ1bGwtc3RvcCBkZXB0DQpXaGVuIENvbmdyZXNzIHBhc3NlZCB0aGUgQ29tbXVuaWNhdGlvbnMgQXNzaXN0YW5jZSBmb3IgTGF3IEVuZm9yY2VtZW50IEFjdCAoQ0FMRUEpIGluIDE5OTQsIHRoZXkgd2VyZSBhc3N1cmVkIGJ5IHRoZW4tRkJJIERpcmVjdG9yIExvdWlzIEZyZWVoIHRoYXQgdGhlIG1hbuKApiBbKzQyMzUgY2hhcnNd</t>
+          <t>RGllIFNBUCBCdXNpbmVzcyBUZWNobm9sb2d5IFBsYXRmb3JtIChTQVAgQlRQKSB2b24gU0FQIHVudGVyc3TDvHR6dCBVbnRlcm5laG1lbiBiZWltIFVtc3RpZWcgaW4gZGllIENsb3VkIHVuZCBiZWkgZGVyIFZlcmJlc3NlcnVuZyBpaHJlciBHZXNjaMOkZnRzcHJvemVzc2UuIFNpZSBzdGVsbHQgZWluZSBWaWVsemFobCB2b24gVG9vbHMgdW5kIERpZW5z4oCmIFsrMTY4NCBjaGFyc10=</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGVjaGRpcnQuY29tLzIwMjQvMTAvMTYvd3lkZW4tY2FsZWEtaGFjay1wcm92ZXMtZGFuZ2Vycy1vZi1nb3Zlcm5tZW50LW1hbmRhdGVkLWJhY2tkb29ycy8=</t>
+          <t>aHR0cHM6Ly93d3cuaGVpc2UuZGUvbmV3cy9pWC1Xb3Jrc2hvcC1FaW5mdWVocnVuZy1pbi1kaWUtU0FQLUJ1c2luZXNzLVRlY2hub2xvZ3ktUGxhdGZvcm0tQlRQLTk5NTQ1MDIuaHRtbA==</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RGlnaXRhbCBUcmVuZHM=</t>
+          <t>UXVhcnR6IEluZGlh</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SSByZXZpZXdlZCBNY0FmZWUrIFByZW1pdW0gZm9yIE1hYyBhbmQgZm91bmQgaXQgdG8gYmUgYSBxdWVzdGlvbmFibGUgYmFyZ2Fpbg==</t>
+          <t>QWxsIGhvc3BpdGFscyBzaG91bGQgYmUgY29uY2VybmVkIGFib3V0IGN5YmVyYXR0YWNrcy4gSGVyZSdzIHdoeQ==</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>QWxhbiBUcnVseQ==</t>
+          <t>QnJ1Y2UgR2ls</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SSByZXZpZXdlZCBNY0FmZWUgYW50aXZpcnVzIGZvciBNYWMgdG8gZmluZCBvdXQgaXQgdGhlIGFkZGVkIHByb3RlY3Rpb24gaXMgd29ydGggdGhlIHN1YnNjcmlwdGlvbiBjb3N0cyBhbmQgaWYgaXQgaW50ZWdyYXRlcyB3ZWxsIHdpdGggbWFjT1Mu</t>
+          <t>Q3liZXJzZWN1cml0eSBhdHRhY2tzIGFnYWluc3QgdGhlIGhlYWx0aCBjYXJlIGluZHVzdHJ5IGFyZSByYXBpZGx5IGluY3JlYXNpbmcgYW5kIHRha2luZyBhIHRvbGwgYm90aCBmaW5hbmNpYWxseSBvbiBob3NwaXRhbHMgYW5kIG9uIHBhdGllbnQgaGVhbHRoLCBhY2NvcmRpbmcgdG8gYSBuZXcgcmVwb3J0IGJ5IE1pY3Jvc29mdCAoTVNGVCkuUmVhZCBtb3JlLi4u</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SWYgeW914oCZcmUgbG9va2luZyBmb3IgYW50aXZpcnVzIHNvZnR3YXJlIGZvciB5b3VyIE1hYywgeW91IG1pZ2h0IGJlIGRyYXduIHRvIHRoZSBwbGVhc2luZ2x5IGZhbWlsaWFyIG5hbWUgTWNBZmVlLCBhIHdlbGwtcmF0ZWQgY3liZXJzZWN1cml0eSBzb2x1dGlvbiB0aGF0IHJlY2VudGx5IGFkZGVkIEFJIHBoaXNoaW5nIGRldGVjdGlvbiB0byBoZWxw4oCmIFsrODkwMiBjaGFyc10=</t>
+          <t>SW4gVGhpcyBTdG9yeQ0KQ3liZXJzZWN1cml0eSBhdHRhY2tzIGFnYWluc3QgdGhlIGhlYWx0aCBjYXJlIGluZHVzdHJ5IGFyZSByYXBpZGx5IGluY3JlYXNpbmcgYW5kIHRha2luZyBhIHRvbGwgYm90aCBmaW5hbmNpYWxseSBvbiBob3NwaXRhbHMgYW5kIG9uIHBhdGllbnQgaGVhbHRoLCBhY2NvcmRpbmcgdG8gYSBuZXcgcmVwb3J0IGJ5IE1pY3Jvc+KApiBbKzU3MTEgY2hhcnNd</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZGlnaXRhbHRyZW5kcy5jb20vY29tcHV0aW5nL21jYWZlZS1wcmVtaXVtLWZvci1tYWMtcmV2aWV3Lw==</t>
+          <t>aHR0cHM6Ly9xei5jb20vaG9zcGl0YWwtcmFuc29td2FyZS1yZXBvcnQtbWljcm9zb2Z0LTE4NTE2Nzc5MDE=</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SW50ZXJuZXQ=</t>
+          <t>VGhlcmVnaXN0ZXIuY29t</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Q0lTQSBXYXJucyBvZiBDcml0aWNhbCBGb3J0aW5ldCBGbGF3IGFzIFBhbG8gQWx0byBhbmQgQ2lzY28gSXNzdWUgVXJnZW50IFNlY3VyaXR5IFBhdGNoZXM=</t>
+          <t>U29waG9zIHRvIHNuYXRjaCBTZWN1cmV3b3JrcyBpbiAkODU5TSBidXlvdXQ6IFdoeSBmaWdodCB3aGVuIHlvdSBjYW4ganVzdCBidXk/</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>aW5mb0B0aGVoYWNrZXJuZXdzLmNvbSAoVGhlIEhhY2tlciBOZXdzKQ==</t>
+          <t>SWFpbiBUaG9tc29u</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VGhlIFUuUy4gQ3liZXJzZWN1cml0eSBhbmQgSW5mcmFzdHJ1Y3R1cmUgU2VjdXJpdHkgQWdlbmN5IChDSVNBKSBvbiBXZWRuZXNkYXkgYWRkZWQgYSBjcml0aWNhbCBzZWN1cml0eSBmbGF3IGltcGFjdGluZyBGb3J0aW5ldCBwcm9kdWN0cyB0byBpdHMgS25vd24gRXhwbG9pdGVkIFZ1bG5lcmFiaWxpdGllcyAoS0VWKSBjYXRhbG9nLCBjaXRpbmcgZXZpZGVuY2Ugb2YgYWN0aXZlIGV4cGxvaXRhdGlvbi4KVGhlIHZ1bG5lcmFiaWxpdHksIHRyYWNrZWQgYeKApg==</t>
+          <t>UHJpdmF0ZSBlcXVpdHkgZ2lhbnQgVGhvbWEgQnJhdm8gYWRkcyBhbm90aGVyIHRyb3BoeSB0byBpdHMgZ3Jvd2luZyBjb2xsZWN0aW9uCkJyaXRpc2ggc2VjdXJpdHkgYml6IFNvcGhvcyBoYXMgYW5ub3VuY2VkIGEgcGxhbiB0byBnb2JibGUgdXAgY29tcGV0aXRvciBTZWN1cmV3b3JrcyBpbiBhbiAkODU5IG1pbGxpb24gZGVhbCB0aGF0IHdpbGwgbWFrZSBEZWxsIGhhcHB5LuKApg==</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>VGhlIFUuUy4gQ3liZXJzZWN1cml0eSBhbmQgSW5mcmFzdHJ1Y3R1cmUgU2VjdXJpdHkgQWdlbmN5IChDSVNBKSBvbiBXZWRuZXNkYXkgYWRkZWQgYSBjcml0aWNhbCBzZWN1cml0eSBmbGF3IGltcGFjdGluZyBGb3J0aW5ldCBwcm9kdWN0cyB0byBpdHMgS25vd24gRXhwbG9pdGVkIFZ1bG5lcmFiaWxpdGllcyAoS0VWKSBjYXRhbG9nLCBjaXRpbmcgZeKApiBbKzQyMTMgY2hhcnNd</t>
+          <t>QnJpdGlzaCBzZWN1cml0eSBiaXogU29waG9zIGhhcyBhbm5vdW5jZWQgYSBwbGFuIHRvIGdvYmJsZSB1cCBjb21wZXRpdG9yIFNlY3VyZXdvcmtzIGluIGFuICQ4NTkgbWlsbGlvbiBkZWFsIHRoYXQgd2lsbCBtYWtlIERlbGwgaGFwcHkuDQpUaGUgc2VydmVyIG1ha2VyIGJvdWdodCBTZWN1cmV3b3JrcyBpbiAyMDExLCBhbmQgdHJpZWQgdG8gc3BpbuKApiBbKzIwNzEgY2hhcnNd</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly90aGVoYWNrZXJuZXdzLmNvbS8yMDI0LzEwL2Npc2Etd2FybnMtb2YtY3JpdGljYWwtZm9ydGluZXQtZmxhdy1hcy5odG1s</t>
+          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMjEvc29waG9zX2J1eXNfc2VjdXJld29ya3NfdGhvbWFfYnJhdm8v</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SW50ZXJuZXQ=</t>
+          <t>Rm94IE5ld3M=</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>UmVzZWFyY2hlcnMgRGlzY292ZXIgU2V2ZXJlIFNlY3VyaXR5IEZsYXdzIGluIE1ham9yIEUyRUUgQ2xvdWQgU3RvcmFnZSBQcm92aWRlcnM=</t>
+          <t>V2h5IHlvdSBzaG91bGQgYmUgdXNpbmcgYSBWUE4gdG8gc2FmZWd1YXJkIHlvdXIgc3RvY2sgdHJhZGluZyBhY3Rpdml0aWVz</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>aW5mb0B0aGVoYWNrZXJuZXdzLmNvbSAoVGhlIEhhY2tlciBOZXdzKQ==</t>
+          <t>S3VydCBLbnV0c3NvbiwgQ3liZXJHdXkgUmVwb3J0</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSByZXNlYXJjaGVycyBoYXZlIGRpc2NvdmVyZWQgc2V2ZXJlIGNyeXB0b2dyYXBoaWMgaXNzdWVzIGluIHZhcmlvdXMgZW5kLXRvLWVuZCBlbmNyeXB0ZWQgKEUyRUUpIGNsb3VkIHN0b3JhZ2UgcGxhdGZvcm1zIHRoYXQgY291bGQgYmUgZXhwbG9pdGVkIHRvIGxlYWsgc2Vuc2l0aXZlIGRhdGEuCiJUaGUgdnVsbmVyYWJpbGl0aWVzIHJhbmdlIGluIHNldmVyaXR5OiBpbiBtYW55IGNhc2VzIGEgbWFsaWNpb3VzIHNlcnZlciBjYW4gaeKApg==</t>
+          <t>RXZlcnkgc3RvY2sgdHJhZGVyIHNob3VsZCBjb25zaWRlciBhIFZpcnR1YWwgUHJpdmF0ZSBOZXR3b3JrIHRvIHNhZmVndWFyZCB0aGVpciB0cmFkaW5nLCBhY2NvcmRpbmcgdG8gdGVjaCBndXJ1IEt1cnQgIkN5YmVyR3V5IiBLbnV0c3Nvbi4=</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSByZXNlYXJjaGVycyBoYXZlIGRpc2NvdmVyZWQgc2V2ZXJlIGNyeXB0b2dyYXBoaWMgaXNzdWVzIGluIHZhcmlvdXMgZW5kLXRvLWVuZCBlbmNyeXB0ZWQgKEUyRUUpIGNsb3VkIHN0b3JhZ2UgcGxhdGZvcm1zIHRoYXQgY291bGQgYmUgZXhwbG9pdGVkIHRvIGxlYWsgc2Vuc2l0aXZlIGRhdGEuDQoiVGhlIHZ1bG5lcmFiaWxpdOKApiBbKzQxNTcgY2hhcnNd</t>
+          <t>T25saW5lIHN0b2NrIHRyYWRpbmcgaGFzIGJlY29tZSBpbmNyZWFzaW5nbHkgcG9wdWxhci7CoA0KSG93ZXZlciwgd2l0aCB0aGlzIGNvbnZlbmllbmNlIGNvbWVzIHRoZSBuZWVkIGZvciBoZWlnaHRlbmVkIHNlY3VyaXR5IG1lYXN1cmVzIHRvIHByb3RlY3QgeW91ciBzZW5zaXRpdmUgZmluYW5jaWFsIGluZm9ybWF0aW9uIGFuZCB0cmFkaW5nIGFjdGnigKYgWys4NDIxIGNoYXJzXQ==</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly90aGVoYWNrZXJuZXdzLmNvbS8yMDI0LzEwL3Jlc2VhcmNoZXJzLWRpc2NvdmVyLXNldmVyZS1zZWN1cml0eS5odG1s</t>
+          <t>aHR0cHM6Ly93d3cuZm94bmV3cy5jb20vdGVjaC93aHkteW91LXNob3VsZC11c2luZy12cG4tc2FmZWd1YXJkLXlvdXItc3RvY2stdHJhZGluZy1hY3Rpdml0aWVz</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>U2NobmVpZXIuY29t</t>
+          <t>OXRvNU1hYw==</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RGVlYm90IFJvYm90IFZhY3V1bXMgQXJlIFVzaW5nIFBob3RvcyBhbmQgQXVkaW8gdG8gVHJhaW4gVGhlaXIgQUk=</t>
+          <t>QXBwbGUgQCBXb3JrOiBJbml0aWFsIG1hY09TIFNlcXVvaWEgcmVsZWFzZSBicm9rZSBuZXR3b3JraW5nIGZvciBzZWN1cml0eSBhbmQgVlBOIHRvb2xzIOKAkyB3aG/igJlzIHJlc3BvbnNpYmxlPw==</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>QnJ1Y2UgU2NobmVpZXI=</t>
+          <t>QnJhZGxleSBDaGFtYmVycw==</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>QW4gQXVzdHJhbGlhbiBuZXdzIGFnZW5jeSBpcyByZXBvcnRpbmcgdGhhdCByb2JvdCB2YWN1dW0gY2xlYW5lcnMgZnJvbSB0aGUgQ2hpbmVzZSBjb21wYW55IERlZWJvdCBhcmUgc3VycmVwdGl0aW91c2x5IHRha2luZyBwaG90b3MgYW5kIHJlY29yZGluZyBhdWRpbywgYW5kIHNlbmRpbmcgdGhhdCBkYXRhIGJhY2sgdG8gdGhlIHZlbmRvciB0byB0cmFpbiB0aGVpciBBSXMuCkVjb3ZhY3PigJlzIHByaXZhY3kgcG9saWN54oCUYXZhaWxhYmxlIGVsc2V3aGVyZSDigKY=</t>
+          <t>QXBwbGUgQCBXb3JrIGlzIGV4Y2x1c2l2ZWx5IGJyb3VnaHQgdG8geW91IGJ5IE1vc3lsZSwgdGhlIG9ubHkgQXBwbGUgVW5pZmllZCBQbGF0Zm9ybS4gTW9zeWxlIGlzIHRoZSBvbmx5IHNvbHV0aW9uIHRoYXQgaW50ZWdyYXRlcyBpbiBhIHNpbmdsZSBwcm9mZXNzaW9uYWwtZ3JhZGUgcGxhdGZvcm0gYWxsIHRoZSBzb2x1dGlvbnMgbmVjZXNzYXJ5IHRvIHNlYW1sZXNzbHkgYW5kIGF1dG9tYXRpY2FsbHkgZGVwbG95LCBtYW5hZ2UgJiBwcm90ZWN0IEFwcOKApg==</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>QW4gQXVzdHJhbGlhbiBuZXdzIGFnZW5jeSBpcyByZXBvcnRpbmcgdGhhdCByb2JvdCB2YWN1dW0gY2xlYW5lcnMgZnJvbSB0aGUgQ2hpbmVzZSBjb21wYW55IERlZWJvdCBhcmUgc3VycmVwdGl0aW91c2x5IHRha2luZyBwaG90b3MgYW5kIHJlY29yZGluZyBhdWRpbywgYW5kIHNlbmRpbmcgdGhhdCBkYXRhIGJhY2sgdG8gdGhlIHZlbmRvciB0byB0cuKApiBbKzc3NCBjaGFyc10=</t>
+          <t>QXBwbGUgQCBXb3JrIGlzIGV4Y2x1c2l2ZWx5IGJyb3VnaHQgdG8geW91IGJ5IE1vc3lsZSwgdGhlIG9ubHkgQXBwbGUgVW5pZmllZCBQbGF0Zm9ybS4gTW9zeWxlIGlzIHRoZSBvbmx5IHNvbHV0aW9uIHRoYXQgaW50ZWdyYXRlcyBpbiBhIHNpbmdsZSBwcm9mZXNzaW9uYWwtZ3JhZGUgcGxhdGZvcm0gYWxsIHRoZSBzb2x1dGlvbnMgbmVjZXNzYXJ5IOKApiBbKzQyOTUgY2hhcnNd</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuc2NobmVpZXIuY29tL2Jsb2cvYXJjaGl2ZXMvMjAyNC8xMC9kZWVib3Qtcm9ib3QtdmFjdXVtcy1hcmUtdXNpbmctcGhvdG9zLWFuZC1hdWRpby10by10cmFpbi10aGVpci1haS5odG1s</t>
+          <t>aHR0cHM6Ly85dG81bWFjLmNvbS8yMDI0LzEwLzEyL21hY29zLXNlcXVvaWEtYnJlYWtzLW5ldHdvcmstZm9yLXNlY3VyaXR5LWFuZC12cG4tdG9vbHMtd2hvcy1yZXNwb25zaWJsZS8=</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>QnVzaW5lc3MgSW5zaWRlcg==</t>
+          <t>VGVjaFJhZGFy</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MjNhbmRNZSBpcyBmbG91bmRlcmluZy4gSGVyZSBpcyBob3cgdG8gZGVsZXRlIHlvdXIgZGF0YS4=</t>
+          <t>Q3JlYXRpbmcgdGhlIHBlcmZlY3QgZWNvc3lzdGVtIGZvciBjeWJlcnNlY3VyaXR5</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TGF1cmVuIEVkbW9uZHM=</t>
+          <t>QnJpYW4gU2libGV5</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>MjNhbmRNZSdzIG9uY2UgcmlzaW5nIHN0YXIgaGFzIGRpbW1lZCBhbWlkIGEgc2VyaWVzIG9mIHNldGJhY2tzLCBsZWFkaW5nIHNvbWUgdXNlcnMgdG8gd29uZGVyIHdoYXQgd2lsbCBoYXBwZW4gdG8gdGhlaXIgZ2VuZXRpYyBkYXRhLg==</t>
+          <t>SW1wbGVtZW50aW5nIHNoYXJlZCB0aHJlYXQgaW50ZWxsaWdlbmNlIGFjcm9zcyBhbiBhbGxpYW5jZSBvZiBjeWJlcnNlY3VyaXR5IGV4cGVydHMgY3JlYXRlcyBhIHN0cm9uZ2VyIHNlY3VyaXR5IGFwcHJvYWNoLg==</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MjNhbmRNZSBoYXMgbmF2aWdhdGVkIHNldmVyYWwgb2JzdGFjbGVzIGluIHJlY2VudCB5ZWFycywgdHJpZ2dlcmluZyBjb25jZXJuIGZyb20gY29uc3VtZXJzLkVSSUMgQkFSQURBVC9HZXR0eSBJbWFnZXMNCjx1bD48bGk+MjNhbmRNZSdzIGJ1c2luZXNzIGlzIGZsb3VuZGVyaW5nIGFmdGVyIGEgZGF0YSBoYWNrLCBsYXdzdWl0LCBhbmQgdHVtYmxpbuKApiBbKzQ0OTEgY2hhcnNd</t>
+          <t>Q3liZXJzZWN1cml0eSBpcyBhbiBldmVyLWV2b2x2aW5nIGZpZWxkIGFuZCBjYW5ub3QgYmUgc2V0IHVwIG9uY2UgYW5kIHRoZW4gZm9yZ290dGVuLiBBcyBkYXRhIGFuZCBhcHBsaWNhdGlvbnMgbW92ZSB0byB0aGUgY2xvdWQsIGJ1c2luZXNzZXMgY2FuIGVuam95IHZhcmlvdXMgYmVuZWZpdHMsIGJ1dCBtYW55IHN0cnVnZ2xlIHRvIHByb3RlY3QgdOKApiBbKzY0NTcgY2hhcnNd</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuYnVzaW5lc3NpbnNpZGVyLmNvbS9ob3ctdG8tZGVsZXRlLXlvdXItMjNhbmRtZS1kYXRhLTIwMjQtMTA=</t>
+          <t>aHR0cHM6Ly93d3cudGVjaHJhZGFyLmNvbS9wcm8vY3JlYXRpbmctdGhlLXBlcmZlY3QtZWNvc3lzdGVtLWZvci1jeWJlcnNlY3VyaXR5</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>VVMgbGF3bWFrZXJzIHNlZWsgYW5zd2VycyBvbiBhbGxlZ2VkIFNhbHQgVHlwaG9vbiBicmVhY2ggb2YgdGVsZWNvbSBnaWFudHM=</t>
+          <t>V291bGQgYmFubmluZyByYW5zb213YXJlIGluc3VyYW5jZSBzdG9wIHRoZSBzY291cmdlPw==</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2783,273 +2783,273 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Q3liZXJzcGllcyBhYnVzaW5nIGEgYmFja2Rvb3I/IEdyb3VuZGJyZWFraW5nCkxhd21ha2VycyBhcmUgZGVtYW5kaW5nIGFuc3dlcnMgYWJvdXQgZWFybGllciBuZXdzIHJlcG9ydHMgdGhhdCBDaGluYSdzIFNhbHQgVHlwaG9vbiBjeWJlcnNwaWVzIGJyZWFjaGVkIFVTIHRlbGVjb21tdW5pY2F0aW9ucyBjb21wYW5pZXMgVmVyaXpvbiwgQVQmVCwgYW5kIEx1bWVuIFRlY2hub2xvZ2llcywgYW5kIGhhY2tlZCB0aGVpciB3aXJldGFwcGluZyBzeXN0ZW1zLuKApg==</t>
+          <t>V2hpdGUgSG91c2Ugb2ZmaWNpYWwgbWFrZXMgY2FzZSBmb3IgZW5kaW5nIGV4dG9ydGlvbiByZWltYnVyc2VtZW50cwpSYW5zb213YXJlIGF0dGFja3MgYXJlIGNvc3RpbmcgYnVzaW5lc3NlcyBhbmQgZ292ZXJubWVudHMgYmlsbGlvbnMgb2YgZG9sbGFycyBhbmQgcHV0dGluZyBwZW9wbGUncyBsaXZlcyBhdCByaXNrIOKAkyBpbiBzb21lIGNhc2VzLCByZXBvcnRlZGx5IGNhdXNpbmcgdGhlaXIgZGVhdGhzLuKApjwhLS0jaW5jbHVkZSB2aXJ0dWFsPScvZGF0YV/igKY=</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TGF3bWFrZXJzIGFyZSBkZW1hbmRpbmcgYW5zd2VycyBhYm91dCBlYXJsaWVyIG5ld3MgcmVwb3J0cyB0aGF0IENoaW5hJ3MgU2FsdCBUeXBob29uIGN5YmVyc3BpZXMgYnJlYWNoZWQgVVMgdGVsZWNvbW11bmljYXRpb25zIGNvbXBhbmllcyBWZXJpem9uLCBBVCZhbXA7VCwgYW5kIEx1bWVuIFRlY2hub2xvZ2llcywgYW5kIGhhY2tlZCB0aGVpciB3aeKApiBbKzMxNTQgY2hhcnNd</t>
+          <t>UmFuc29td2FyZSBhdHRhY2tzIGFyZSBjb3N0aW5nIGJ1c2luZXNzZXMgYW5kIGdvdmVybm1lbnRzIGJpbGxpb25zIG9mIGRvbGxhcnMgYW5kIHB1dHRpbmcgcGVvcGxlJ3MgbGl2ZXMgYXQgcmlzayBpbiBzb21lIGNhc2VzLCByZXBvcnRlZGx5IGNhdXNpbmcgdGhlaXIgZGVhdGhzLg0KTm8gb25lIGRpc3B1dGVzIHRoYXQgdGhpcyBwYXJ0aWN1bGFybOKApiBbKzgwNzcgY2hhcnNd</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMTEvdXNfbGF3bWFrZXJzX3NhbHRfdHlwaG9vbi8=</t>
+          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMTQvcmFuc29td2FyZV9pbnN1cmFuY2VfYmFuLw==</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>aGVpc2Ugb25saW5l</t>
+          <t>VGVjaFJhZGFy</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>aGVpc2UtQW5nZWJvdDogaVgtV29ya3Nob3A6IEVpbmbDvGhydW5nIGluIGRpZSBTQVAgQnVzaW5lc3MgVGVjaG5vbG9neSBQbGF0Zm9ybSAoQlRQKQ==</t>
+          <t>TmF2aWdhdGluZyB0aGUgY29tcGxleGl0aWVzIG9mIGhlYWx0aGNhcmUgY3liZXJzZWN1cml0eQ==</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SWxvbmEgS3JhdXNl</t>
+          <t>UmFqYW4gS29obGk=</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>TGVybmVuIFNpZSwgd2llIFNpZSBtaXQgU0FQIEJUUCBBbndlbmR1bmdlbiBlbnR3aWNrZWxuLCBTY2huaXR0c3RlbGxlbiBpbnRlZ3JpZXJlbiB1bmQgR2VzY2jDpGZ0c3Byb3plc3NlIG9wdGltaWVyZW4u</t>
+          <t>SGVhbHRoY2FyZSBpcyBhIGNyaXRpY2FsIHBhcnQgb2YgZXZlcnlkYXkgbGlmZSwgc28gd2h5IGlzIHBhdGllbnQgaW5mb3JtYXRpb24gc3RpbGwgYXQgcmlzayBmcm9tIGN5YmVyYXR0YWNrZXJzPw==</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>RGllIFNBUCBCdXNpbmVzcyBUZWNobm9sb2d5IFBsYXRmb3JtIChTQVAgQlRQKSB2b24gU0FQIHVudGVyc3TDvHR6dCBVbnRlcm5laG1lbiBiZWltIFVtc3RpZWcgaW4gZGllIENsb3VkIHVuZCBiZWkgZGVyIFZlcmJlc3NlcnVuZyBpaHJlciBHZXNjaMOkZnRzcHJvemVzc2UuIFNpZSBzdGVsbHQgZWluZSBWaWVsemFobCB2b24gVG9vbHMgdW5kIERpZW5z4oCmIFsrMTY4NCBjaGFyc10=</t>
+          <t>V2l0aCBjeWJlcmF0dGFja3Mgc2t5cm9ja2V0aW5nIGF0IGFuIGFsYXJtaW5nIHJhdGUsIGhlYWx0aGNhcmUgb3JnYW5pemF0aW9ucyBhcmUgc2NyYW1ibGluZyB0byBpbXBsZW1lbnQgZWZmZWN0aXZlIG1lYXN1cmVzIHRvIHByZXZlbnQgdGhlc2UgdGhyZWF0cy4gQWNjb3JkaW5nIHRvIHRoZSBVLlMuIERlcGFydG1lbnQgb2YgSGVhbHRoIGFuZCBIdeKApiBbKzk3NTMgY2hhcnNd</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuaGVpc2UuZGUvbmV3cy9pWC1Xb3Jrc2hvcC1FaW5mdWVocnVuZy1pbi1kaWUtU0FQLUJ1c2luZXNzLVRlY2hub2xvZ3ktUGxhdGZvcm0tQlRQLTk5NTQ1MDIuaHRtbA==</t>
+          <t>aHR0cHM6Ly93d3cudGVjaHJhZGFyLmNvbS9wcm8vbmF2aWdhdGluZy10aGUtY29tcGxleGl0aWVzLW9mLWhlYWx0aGNhcmUtY3liZXJzZWN1cml0eQ==</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>UXVhcnR6IEluZGlh</t>
+          <t>VGVjaFJhZGFy</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>QWxsIGhvc3BpdGFscyBzaG91bGQgYmUgY29uY2VybmVkIGFib3V0IGN5YmVyYXR0YWNrcy4gSGVyZSdzIHdoeQ==</t>
+          <t>Q2FuIHRoZSBjeWJlcnNlY3VyaXR5IGluZHVzdHJ5IHN0b3AgaGlzdG9yeSByZXBlYXRpbmc/</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>QnJ1Y2UgR2ls</t>
+          <t>R2FyeSBTb3V0aHdlbGw=</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSBhdHRhY2tzIGFnYWluc3QgdGhlIGhlYWx0aCBjYXJlIGluZHVzdHJ5IGFyZSByYXBpZGx5IGluY3JlYXNpbmcgYW5kIHRha2luZyBhIHRvbGwgYm90aCBmaW5hbmNpYWxseSBvbiBob3NwaXRhbHMgYW5kIG9uIHBhdGllbnQgaGVhbHRoLCBhY2NvcmRpbmcgdG8gYSBuZXcgcmVwb3J0IGJ5IE1pY3Jvc29mdCAoTVNGVCkuUmVhZCBtb3JlLi4u</t>
+          <t>Q3liZXJzZWN1cml0eSB2ZW5kb3JzIG11c3QgYWJhbmRvbiB0aGUgInBhdGNoLWFuZC11cGRhdGUiIG1vZGVsIHRvIHByZXZlbnQgZnV0dXJlIGNhdGFzdHJvcGhpYyBJVCBvdXRhZ2VzLg==</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SW4gVGhpcyBTdG9yeQ0KQ3liZXJzZWN1cml0eSBhdHRhY2tzIGFnYWluc3QgdGhlIGhlYWx0aCBjYXJlIGluZHVzdHJ5IGFyZSByYXBpZGx5IGluY3JlYXNpbmcgYW5kIHRha2luZyBhIHRvbGwgYm90aCBmaW5hbmNpYWxseSBvbiBob3NwaXRhbHMgYW5kIG9uIHBhdGllbnQgaGVhbHRoLCBhY2NvcmRpbmcgdG8gYSBuZXcgcmVwb3J0IGJ5IE1pY3Jvc+KApiBbKzU3MTEgY2hhcnNd</t>
+          <t>Q3Jvd2RTdHJpa2Ugd2FzIGJyb3VnaHQgYmVmb3JlIGEgVVMgQ29uZ3Jlc3Npb25hbCBDb21taXR0ZWUgb24gU2VwdGVtYmVyIDI0IHRvIGV4cGxhaW4gd2h5IGl0cyBjeWJlcnNlY3VyaXR5IHNvbHV0aW9uIHRyaWdnZXJlZCBvbmUgb2YgdGhlIGxhcmdlc3QgSVQgb3V0YWdlcyBldmVyIHNlZW4uIEEgc2VuaW9yIG9mZmljaWFsIHRvbGQgQ29uZ3Jlc+KApiBbKzU4NjEgY2hhcnNd</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly9xei5jb20vaG9zcGl0YWwtcmFuc29td2FyZS1yZXBvcnQtbWljcm9zb2Z0LTE4NTE2Nzc5MDE=</t>
+          <t>aHR0cHM6Ly93d3cudGVjaHJhZGFyLmNvbS9wcm8vY2FuLXRoZS1jeWJlcnNlY3VyaXR5LWluZHVzdHJ5LXN0b3AtaGlzdG9yeS1yZXBlYXRpbmc=</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>VGhlcmVnaXN0ZXIuY29t</t>
+          <t>Rm9yYmVz</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>U29waG9zIHRvIHNuYXRjaCBTZWN1cmV3b3JrcyBpbiAkODU5TSBidXlvdXQ6IFdoeSBmaWdodCB3aGVuIHlvdSBjYW4ganVzdCBidXk/</t>
+          <t>QSBOb3ZlbCBBcHByb2FjaCBUbyBDeWJlcnNlY3VyaXR5IEluIEhlYWx0aGNhcmU=</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SWFpbiBUaG9tc29u</t>
+          <t>UmljaCBCaXJoYW56ZWwsIEZvcmJlcyBDb3VuY2lscyBNZW1iZXIsIAogUmljaCBCaXJoYW56ZWwsIEZvcmJlcyBDb3VuY2lscyBNZW1iZXIKIGh0dHBzOi8vd3d3LmZvcmJlcy5jb20vY291bmNpbHMvZm9yYmVzYnVzaW5lc3Njb3VuY2lsL3Blb3BsZS9yaWNoYmlyaGFuemVsLw==</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>UHJpdmF0ZSBlcXVpdHkgZ2lhbnQgVGhvbWEgQnJhdm8gYWRkcyBhbm90aGVyIHRyb3BoeSB0byBpdHMgZ3Jvd2luZyBjb2xsZWN0aW9uCkJyaXRpc2ggc2VjdXJpdHkgYml6IFNvcGhvcyBoYXMgYW5ub3VuY2VkIGEgcGxhbiB0byBnb2JibGUgdXAgY29tcGV0aXRvciBTZWN1cmV3b3JrcyBpbiBhbiAkODU5IG1pbGxpb24gZGVhbCB0aGF0IHdpbGwgbWFrZSBEZWxsIGhhcHB5LuKApg==</t>
+          <t>V2hhdCBpZuKAlGluIGEgd29ybGQgd2hlcmUgc2VjdXJpdHkgYnJlYWNoZXMgYXJlIGNvbW1vbnBsYWNlIGFuZCBpdOKAmXMgbm90IGEgbWF0dGVyIG9mIGlmLCBidXQgd2hlbiwgYW4gb3JnYW5pemF0aW9uIHdpbGwgYmUgYXR0YWNrZWTigJR3ZSBzaGlmdGVkIG91ciBmb2N1cyB0byByZXNpbGllbmNlPw==</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>QnJpdGlzaCBzZWN1cml0eSBiaXogU29waG9zIGhhcyBhbm5vdW5jZWQgYSBwbGFuIHRvIGdvYmJsZSB1cCBjb21wZXRpdG9yIFNlY3VyZXdvcmtzIGluIGFuICQ4NTkgbWlsbGlvbiBkZWFsIHRoYXQgd2lsbCBtYWtlIERlbGwgaGFwcHkuDQpUaGUgc2VydmVyIG1ha2VyIGJvdWdodCBTZWN1cmV3b3JrcyBpbiAyMDExLCBhbmQgdHJpZWQgdG8gc3BpbuKApiBbKzIwNzEgY2hhcnNd</t>
+          <t>UmljaCBCaXJoYW56ZWwsIEFjY2VudHVyZSdzIGdsb2JhbCBoZWFsdGggaW5kdXN0cnkgbGVhZC4NCmdldHR5DQpJdCBmZWVscyBsaWtlIGV2ZXJ5IGRheSB3ZSBoZWFyIGFib3V0IGEgZGlmZmVyZW50IGN5YmVyYXR0YWNrIGluIGhlYWx0aGNhcmUuIEFuIG9yZ2FuaXphdGlvbiBpcyBicmVhY2hlZCBhbmQgb3BlcmF0aW9ucyBhcmUgYnJvdWdodCB0b+KApiBbKzUwMzEgY2hhcnNd</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMjEvc29waG9zX2J1eXNfc2VjdXJld29ya3NfdGhvbWFfYnJhdm8v</t>
+          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXNidXNpbmVzc2NvdW5jaWwvMjAyNC8xMC8wMS9hLW5vdmVsLWFwcHJvYWNoLXRvLWN5YmVyc2VjdXJpdHktaW4taGVhbHRoY2FyZS8=</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>OXRvNU1hYw==</t>
+          <t>Rm9yYmVz</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>QXBwbGUgQCBXb3JrOiBJbml0aWFsIG1hY09TIFNlcXVvaWEgcmVsZWFzZSBicm9rZSBuZXR3b3JraW5nIGZvciBzZWN1cml0eSBhbmQgVlBOIHRvb2xzIOKAkyB3aG/igJlzIHJlc3BvbnNpYmxlPw==</t>
+          <t>VGhlIFVudGFwcGVkIFBvdGVudGlhbCBPZiBXb21lbiBJbiBDeWJlcnNlY3VyaXR5</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>QnJhZGxleSBDaGFtYmVycw==</t>
+          <t>U2hlbGxleSBaYWxpcywgU2VuaW9yIENvbnRyaWJ1dG9yLCAKIFNoZWxsZXkgWmFsaXMsIFNlbmlvciBDb250cmlidXRvcgogaHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9zaXRlcy9zaGVsbGV5emFsaXMvcGVvcGxlL3NoZWxsZXl6YWxpcy8=</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>QXBwbGUgQCBXb3JrIGlzIGV4Y2x1c2l2ZWx5IGJyb3VnaHQgdG8geW91IGJ5IE1vc3lsZSwgdGhlIG9ubHkgQXBwbGUgVW5pZmllZCBQbGF0Zm9ybS4gTW9zeWxlIGlzIHRoZSBvbmx5IHNvbHV0aW9uIHRoYXQgaW50ZWdyYXRlcyBpbiBhIHNpbmdsZSBwcm9mZXNzaW9uYWwtZ3JhZGUgcGxhdGZvcm0gYWxsIHRoZSBzb2x1dGlvbnMgbmVjZXNzYXJ5IHRvIHNlYW1sZXNzbHkgYW5kIGF1dG9tYXRpY2FsbHkgZGVwbG95LCBtYW5hZ2UgJiBwcm90ZWN0IEFwcOKApg==</t>
+          <t>RGVzcGl0ZSBpdHMgZ3Jvd2luZyBpbXBvcnRhbmNlLCB3b21lbiByZW1haW4gdW5kZXJyZXByZXNlbnRlZCBpbiB0aGlzIHJhcGlkbHkgZXhwYW5kaW5nIGZpZWxkLg==</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>QXBwbGUgQCBXb3JrIGlzIGV4Y2x1c2l2ZWx5IGJyb3VnaHQgdG8geW91IGJ5IE1vc3lsZSwgdGhlIG9ubHkgQXBwbGUgVW5pZmllZCBQbGF0Zm9ybS4gTW9zeWxlIGlzIHRoZSBvbmx5IHNvbHV0aW9uIHRoYXQgaW50ZWdyYXRlcyBpbiBhIHNpbmdsZSBwcm9mZXNzaW9uYWwtZ3JhZGUgcGxhdGZvcm0gYWxsIHRoZSBzb2x1dGlvbnMgbmVjZXNzYXJ5IOKApiBbKzQyOTUgY2hhcnNd</t>
+          <t>UE9WIFJlaW1hZ2luZWQ6IFdvbWVuIGluIEN5YmVyc2VjdXJpdHkgcmVzZWFyY2ggcmVwb3J0DQpHZXR0eSANCkN5YmVyc2VjdXJpdHkgaGFzIGV2b2x2ZWQgZnJvbSBhIG5pY2hlIGZpZWxkIGludG8gYSBjcml0aWNhbCBpbmR1c3RyeSB0aGF0IHRvdWNoZXMgZXZlcnkgYXNwZWN0IG9mIG91ciBsaXZlc2Zyb20gcHJvdGVjdGluZyBwZXJzb25hbCBkYeKApiBbKzYwNDUgY2hhcnNd</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly85dG81bWFjLmNvbS8yMDI0LzEwLzEyL21hY29zLXNlcXVvaWEtYnJlYWtzLW5ldHdvcmstZm9yLXNlY3VyaXR5LWFuZC12cG4tdG9vbHMtd2hvcy1yZXNwb25zaWJsZS8=</t>
+          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9zaXRlcy9zaGVsbGV5emFsaXMvMjAyNC8xMC8yMy90aGUtdW50YXBwZWQtcG90ZW50aWFsLW9mLXdvbWVuLWluLWN5YmVyc2VjdXJpdHkv</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>VGVjaFJhZGFy</t>
+          <t>Rm9yYmVz</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Q3JlYXRpbmcgdGhlIHBlcmZlY3QgZWNvc3lzdGVtIGZvciBjeWJlcnNlY3VyaXR5</t>
+          <t>SG93IEN5YmVyc2VjdXJpdHkgSW52ZXN0aWdhdGlvbnMgSGVscCBCdXNpbmVzc2VzIEV4cG9zZSBBdHRhY2tlcnM=</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>QnJpYW4gU2libGV5</t>
+          <t>RGFtb24gRmxldXJ5LCBGb3JiZXMgQ291bmNpbHMgTWVtYmVyLCAKIERhbW9uIEZsZXVyeSwgRm9yYmVzIENvdW5jaWxzIE1lbWJlcgogaHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXN0ZWNoY291bmNpbC9wZW9wbGUvZGFtb25mbGV1cnkv</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SW1wbGVtZW50aW5nIHNoYXJlZCB0aHJlYXQgaW50ZWxsaWdlbmNlIGFjcm9zcyBhbiBhbGxpYW5jZSBvZiBjeWJlcnNlY3VyaXR5IGV4cGVydHMgY3JlYXRlcyBhIHN0cm9uZ2VyIHNlY3VyaXR5IGFwcHJvYWNoLg==</t>
+          <t>Tm8gY3liZXJjcmltaW5hbCBjYW4gY292ZXIgdGhlaXIgdHJhY2tzIGNvbXBsZXRlbHku</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSBpcyBhbiBldmVyLWV2b2x2aW5nIGZpZWxkIGFuZCBjYW5ub3QgYmUgc2V0IHVwIG9uY2UgYW5kIHRoZW4gZm9yZ290dGVuLiBBcyBkYXRhIGFuZCBhcHBsaWNhdGlvbnMgbW92ZSB0byB0aGUgY2xvdWQsIGJ1c2luZXNzZXMgY2FuIGVuam95IHZhcmlvdXMgYmVuZWZpdHMsIGJ1dCBtYW55IHN0cnVnZ2xlIHRvIHByb3RlY3QgdOKApiBbKzY0NTcgY2hhcnNd</t>
+          <t>RGFtb24gRmxldXJ5IGlzIENoaWVmIFByb2R1Y3QgT2ZmaWNlciBvZiBTcHlDbG91ZCwgYSBsZWFkZXIgaW4gb3BlcmF0aW9uYWxpemluZyBDeWJlcmNyaW1lIEFuYWx5dGljcyAoQzJBKS4NCmdldHR5DQpPcmdhbml6YXRpb25zIGhhdmUgc3RydWdnbGVkIHRvIGtlZXAgcGFjZSB3aXRoIHJhcGlkbHkgZXZvbHZpbmcgYW5kIGVzY2FsYXRpbmcgY3liZeKApiBbKzU0NzEgY2hhcnNd</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGVjaHJhZGFyLmNvbS9wcm8vY3JlYXRpbmctdGhlLXBlcmZlY3QtZWNvc3lzdGVtLWZvci1jeWJlcnNlY3VyaXR5</t>
+          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXN0ZWNoY291bmNpbC8yMDI0LzEwLzE3L2hvdy1jeWJlcnNlY3VyaXR5LWludmVzdGlnYXRpb25zLWhlbHAtYnVzaW5lc3Nlcy1leHBvc2UtYXR0YWNrZXJzLw==</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>VGVjaFJhZGFy</t>
+          <t>Rm9yYmVz</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TmF2aWdhdGluZyB0aGUgY29tcGxleGl0aWVzIG9mIGhlYWx0aGNhcmUgY3liZXJzZWN1cml0eQ==</t>
+          <t>Q2FuIEFJIFNhdmUgQ3liZXJzZWN1cml0eSBGcm9tIEl0c2VsZj8=</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>UmFqYW4gS29obGk=</t>
+          <t>U2FrZXQgTW9kaSwgRm9yYmVzIENvdW5jaWxzIE1lbWJlciwgCiBTYWtldCBNb2RpLCBGb3JiZXMgQ291bmNpbHMgTWVtYmVyCiBodHRwczovL3d3dy5mb3JiZXMuY29tL2NvdW5jaWxzL2ZvcmJlc3RlY2hjb3VuY2lsL3Blb3BsZS9zYWtldG1vZGkv</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SGVhbHRoY2FyZSBpcyBhIGNyaXRpY2FsIHBhcnQgb2YgZXZlcnlkYXkgbGlmZSwgc28gd2h5IGlzIHBhdGllbnQgaW5mb3JtYXRpb24gc3RpbGwgYXQgcmlzayBmcm9tIGN5YmVyYXR0YWNrZXJzPw==</t>
+          <t>QUkgY291bGQgYmUgY3liZXJzZWN1cml0eeKAmXMgYmVzdCBzaG90IGF0IHN5bnRoZXNpemluZyB3aXNkb23igJRsZXTigJlzIHVzZSBpdCB3aXNlbHku</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>V2l0aCBjeWJlcmF0dGFja3Mgc2t5cm9ja2V0aW5nIGF0IGFuIGFsYXJtaW5nIHJhdGUsIGhlYWx0aGNhcmUgb3JnYW5pemF0aW9ucyBhcmUgc2NyYW1ibGluZyB0byBpbXBsZW1lbnQgZWZmZWN0aXZlIG1lYXN1cmVzIHRvIHByZXZlbnQgdGhlc2UgdGhyZWF0cy4gQWNjb3JkaW5nIHRvIHRoZSBVLlMuIERlcGFydG1lbnQgb2YgSGVhbHRoIGFuZCBIdeKApiBbKzk3NTMgY2hhcnNd</t>
+          <t>U2FrZXQgTW9kaSBpcyB0aGUgY29mb3VuZGVyIGFuZCBDRU8gb2YgU2FmZSBTZWN1cml0eSwgYSBQYWxvIEFsdG8tYmFzZWQgY3liZXJzZWN1cml0eSBhbmQgZGlnaXRhbCBidXNpbmVzcyByaXNrIHF1YW50aWZpY2F0aW9uIGNvbXBhbnkuDQpnZXR0eQ0KRGVzcGl0ZSBzcGVuZGluZyAkMjAwIGJpbGxpb24gYW5udWFsbHkgb24gY3liZXJzZWN1cml0eeKApiBbKzUwNDYgY2hhcnNd</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGVjaHJhZGFyLmNvbS9wcm8vbmF2aWdhdGluZy10aGUtY29tcGxleGl0aWVzLW9mLWhlYWx0aGNhcmUtY3liZXJzZWN1cml0eQ==</t>
+          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXN0ZWNoY291bmNpbC8yMDI0LzEwLzA0L2Nhbi1haS1zYXZlLWN5YmVyc2VjdXJpdHktZnJvbS1pdHNlbGYv</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>VGVjaFJhZGFy</t>
+          <t>Rm9yYmVz</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Q2FuIHRoZSBjeWJlcnNlY3VyaXR5IGluZHVzdHJ5IHN0b3AgaGlzdG9yeSByZXBlYXRpbmc/</t>
+          <t>TGVnYWN5IE1lZGljYWwgRGV2aWNlIEN5YmVyc2VjdXJpdHk6IENoYWxsZW5nZXMgQW5kIFNvbHV0aW9ucw==</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>R2FyeSBTb3V0aHdlbGw=</t>
+          <t>Q2hyaXN0aWFuIEVzcGlub3NhLCBGb3JiZXMgQ291bmNpbHMgTWVtYmVyLCAKIENocmlzdGlhbiBFc3Bpbm9zYSwgRm9yYmVzIENvdW5jaWxzIE1lbWJlcgogaHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXN0ZWNoY291bmNpbC9wZW9wbGUvY2hyaXN0aWFuZXNwaW5vc2Ev</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSB2ZW5kb3JzIG11c3QgYWJhbmRvbiB0aGUgInBhdGNoLWFuZC11cGRhdGUiIG1vZGVsIHRvIHByZXZlbnQgZnV0dXJlIGNhdGFzdHJvcGhpYyBJVCBvdXRhZ2VzLg==</t>
+          <t>SXTigJlzIGFuIGl0ZXJhdGl2ZSBwcm9jZXNzIGJlY2F1c2UgcmlzayBuZXZlciBkaXNhcHBlYXJzLCBhbmQgcHJvZHVjdHMgbXVzdCBjb250aW51b3VzbHkgZXZvbHZlIHRvIG5ldyBzdGFuZGFyZHMu</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Q3Jvd2RTdHJpa2Ugd2FzIGJyb3VnaHQgYmVmb3JlIGEgVVMgQ29uZ3Jlc3Npb25hbCBDb21taXR0ZWUgb24gU2VwdGVtYmVyIDI0IHRvIGV4cGxhaW4gd2h5IGl0cyBjeWJlcnNlY3VyaXR5IHNvbHV0aW9uIHRyaWdnZXJlZCBvbmUgb2YgdGhlIGxhcmdlc3QgSVQgb3V0YWdlcyBldmVyIHNlZW4uIEEgc2VuaW9yIG9mZmljaWFsIHRvbGQgQ29uZ3Jlc+KApiBbKzU4NjEgY2hhcnNd</t>
+          <t>Qmx1ZSBHb2F0IEN5YmVyIEZvdW5kZXIuIFZldGVyYW4uIE1lZGljYWwgRGV2aWNlIEN5YmVyc2VjdXJpdHkgRXhwZXJ0LiBLZXlub3RlIFNwZWFrZXIuIEF1dGhvci4gMjR4IElyb25tYW4gRmluaXNoZXIuIEJsb29kIENsb3QgU3Vydml2b3IuDQpnZXR0eQ0KTXVjaCBvZiB0aGUgY29udmVyc2F0aW9uIGFib3V0IG1lZGljYWwgZGV2aWNlIGN5YmVyc+KApiBbKzUxMjQgY2hhcnNd</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGVjaHJhZGFyLmNvbS9wcm8vY2FuLXRoZS1jeWJlcnNlY3VyaXR5LWluZHVzdHJ5LXN0b3AtaGlzdG9yeS1yZXBlYXRpbmc=</t>
+          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXN0ZWNoY291bmNpbC8yMDI0LzEwLzE2L2xlZ2FjeS1tZWRpY2FsLWRldmljZS1jeWJlcnNlY3VyaXR5LWNoYWxsZW5nZXMtYW5kLXNvbHV0aW9ucy8=</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>VGhlcmVnaXN0ZXIuY29t</t>
+          <t>Rm9yYmVz</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>V291bGQgYmFubmluZyByYW5zb213YXJlIGluc3VyYW5jZSBzdG9wIHRoZSBzY291cmdlPw==</t>
+          <t>Q3liZXJzZWN1cml0eTogQSBTdHJhdGVnaWMgSW1wZXJhdGl2ZSBGb3IgQnVzaW5lc3MgTGVhZGVycw==</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SmVzc2ljYSBMeW9ucw==</t>
+          <t>RGFuaWVsIEJhaXosIEZvcmJlcyBDb3VuY2lscyBNZW1iZXIsIAogRGFuaWVsIEJhaXosIEZvcmJlcyBDb3VuY2lscyBNZW1iZXIKIGh0dHBzOi8vd3d3LmZvcmJlcy5jb20vY291bmNpbHMvZm9yYmVzYnVzaW5lc3Njb3VuY2lsL3Blb3BsZS9kYW5pZWxiYWl6Lw==</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>V2hpdGUgSG91c2Ugb2ZmaWNpYWwgbWFrZXMgY2FzZSBmb3IgZW5kaW5nIGV4dG9ydGlvbiByZWltYnVyc2VtZW50cwpSYW5zb213YXJlIGF0dGFja3MgYXJlIGNvc3RpbmcgYnVzaW5lc3NlcyBhbmQgZ292ZXJubWVudHMgYmlsbGlvbnMgb2YgZG9sbGFycyBhbmQgcHV0dGluZyBwZW9wbGUncyBsaXZlcyBhdCByaXNrIOKAkyBpbiBzb21lIGNhc2VzLCByZXBvcnRlZGx5IGNhdXNpbmcgdGhlaXIgZGVhdGhzLuKApjwhLS0jaW5jbHVkZSB2aXJ0dWFsPScvZGF0YV/igKY=</t>
+          <t>Rm9yIGJ1c2luZXNzZXMgaG91c2luZyB2YWx1YWJsZSBkYXRhIGJ1dCBsYWNraW5nIHRoZSBkZWZlbnNlcyBvZiBsYXJnZXIgY29ycG9yYXRpb25zLCBhIGN5YmVyc2VjdXJpdHkgdGhyZWF0IGlzIHR5cGljYWxseSBhIG1hdHRlciBvZiB3aGVuLCBub3QgaWYu</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>UmFuc29td2FyZSBhdHRhY2tzIGFyZSBjb3N0aW5nIGJ1c2luZXNzZXMgYW5kIGdvdmVybm1lbnRzIGJpbGxpb25zIG9mIGRvbGxhcnMgYW5kIHB1dHRpbmcgcGVvcGxlJ3MgbGl2ZXMgYXQgcmlzayBpbiBzb21lIGNhc2VzLCByZXBvcnRlZGx5IGNhdXNpbmcgdGhlaXIgZGVhdGhzLg0KTm8gb25lIGRpc3B1dGVzIHRoYXQgdGhpcyBwYXJ0aWN1bGFybOKApiBbKzgwNzcgY2hhcnNd</t>
+          <t>RGFuaWVsIEJhaXosIEhhcnZhcmQgTUJBIGFuZCBDRU8gb2YgT25lQXhpb20gLSBhIGxlYWRlciBpbiBnbG9iYWwgY3liZXJzZWN1cml0eSBzb2x1dGlvbnMgYW5kIGFkdmFuY2VkIGRlZmVuc2Ugc3lzdGVtcy4NCmdldHR5DQpBcyB0aGUgQ0VPIG9mIGEgY3liZXJzZWN1cml0eSBmaXJtLCBJJ3ZlIHdpdG5lc3NlZCB0aGUgZXZvbHV0aW9uIG9mIGN5YuKApiBbKzcwNDIgY2hhcnNd</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cudGhlcmVnaXN0ZXIuY29tLzIwMjQvMTAvMTQvcmFuc29td2FyZV9pbnN1cmFuY2VfYmFuLw==</t>
+          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXNidXNpbmVzc2NvdW5jaWwvMjAyNC8xMC8xMC9jeWJlcnNlY3VyaXR5LWEtc3RyYXRlZ2ljLWltcGVyYXRpdmUtZm9yLWJ1c2luZXNzLWxlYWRlcnMv</t>
         </is>
       </c>
     </row>
@@ -3061,27 +3061,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>QSBOb3ZlbCBBcHByb2FjaCBUbyBDeWJlcnNlY3VyaXR5IEluIEhlYWx0aGNhcmU=</t>
+          <t>UHJvdGVjdGlvbiBGcm9tIFdpdGhpbjogQ3liZXJzZWN1cml0eSBDb21tdW5pY2F0aW9uIFN0cmF0ZWdpZXM=</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>UmljaCBCaXJoYW56ZWwsIEZvcmJlcyBDb3VuY2lscyBNZW1iZXIsIAogUmljaCBCaXJoYW56ZWwsIEZvcmJlcyBDb3VuY2lscyBNZW1iZXIKIGh0dHBzOi8vd3d3LmZvcmJlcy5jb20vY291bmNpbHMvZm9yYmVzYnVzaW5lc3Njb3VuY2lsL3Blb3BsZS9yaWNoYmlyaGFuemVsLw==</t>
+          <t>VmljdG9yaWEgWmFtYml0bywgRm9yYmVzIENvdW5jaWxzIE1lbWJlciwgCiBWaWN0b3JpYSBaYW1iaXRvLCBGb3JiZXMgQ291bmNpbHMgTWVtYmVyCiBodHRwczovL3d3dy5mb3JiZXMuY29tL2NvdW5jaWxzL2ZvcmJlc2NvbW11bmljYXRpb25zY291bmNpbC9wZW9wbGUvdmljdG9yaWF6YW1iaXRvLw==</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>V2hhdCBpZuKAlGluIGEgd29ybGQgd2hlcmUgc2VjdXJpdHkgYnJlYWNoZXMgYXJlIGNvbW1vbnBsYWNlIGFuZCBpdOKAmXMgbm90IGEgbWF0dGVyIG9mIGlmLCBidXQgd2hlbiwgYW4gb3JnYW5pemF0aW9uIHdpbGwgYmUgYXR0YWNrZWTigJR3ZSBzaGlmdGVkIG91ciBmb2N1cyB0byByZXNpbGllbmNlPw==</t>
+          <t>SW4gYW4gZW52aXJvbm1lbnQgd2hlcmUgY3liZXJzZWN1cml0eSBpcyBhIHJlZ3VsYXIgdG9waWMgb2YgY29udmVyc2F0aW9uLCB5b3UgYXJlIG11Y2ggbW9yZSBsaWtlbHkgdG8gcHJldmVudCBhIGRldmFzdGF0aW5nIGJyZWFjaCBiZWZvcmUgaXQgaGFwcGVucy4=</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>UmljaCBCaXJoYW56ZWwsIEFjY2VudHVyZSdzIGdsb2JhbCBoZWFsdGggaW5kdXN0cnkgbGVhZC4NCmdldHR5DQpJdCBmZWVscyBsaWtlIGV2ZXJ5IGRheSB3ZSBoZWFyIGFib3V0IGEgZGlmZmVyZW50IGN5YmVyYXR0YWNrIGluIGhlYWx0aGNhcmUuIEFuIG9yZ2FuaXphdGlvbiBpcyBicmVhY2hlZCBhbmQgb3BlcmF0aW9ucyBhcmUgYnJvdWdodCB0b+KApiBbKzUwMzEgY2hhcnNd</t>
+          <t>VmljdG9yaWEgWmFtYml0byBpcyBFVlAgb2YgQ29tbXVuaWNhdGlvbnMgJmFtcDsgQnJhbmQgYXQgVmVjdG9yIFNvbHV0aW9ucywgbGVhZGluZyBjb3Jwb3JhdGUgY29tbXVuaWNhdGlvbnMsIGJyYW5kIGFuZCBwdWJsaWMgcmVsYXRpb25zLg0KZ2V0dHkNClRoZXJlIHdlcmUgYSB0b3RhbCBvZiAzNDMsMzQ4LDk2NCB2aWN0aW1zIG9mIGN5YmVyYXR0YeKApiBbKzY1MTcgY2hhcnNd</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXNidXNpbmVzc2NvdW5jaWwvMjAyNC8xMC8wMS9hLW5vdmVsLWFwcHJvYWNoLXRvLWN5YmVyc2VjdXJpdHktaW4taGVhbHRoY2FyZS8=</t>
+          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXNjb21tdW5pY2F0aW9uc2NvdW5jaWwvMjAyNC8xMC8wMS9wcm90ZWN0aW9uLWZyb20td2l0aGluLWN5YmVyc2VjdXJpdHktY29tbXVuaWNhdGlvbi1zdHJhdGVnaWVzLw==</t>
         </is>
       </c>
     </row>
@@ -3093,27 +3093,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>VGhlIFVudGFwcGVkIFBvdGVudGlhbCBPZiBXb21lbiBJbiBDeWJlcnNlY3VyaXR5</t>
+          <t>VGhlIFJpc2luZyBUaWRlIE9mIEN5YmVyc2VjdXJpdHkgUmlzaw==</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>U2hlbGxleSBaYWxpcywgU2VuaW9yIENvbnRyaWJ1dG9yLCAKIFNoZWxsZXkgWmFsaXMsIFNlbmlvciBDb250cmlidXRvcgogaHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9zaXRlcy9zaGVsbGV5emFsaXMvcGVvcGxlL3NoZWxsZXl6YWxpcy8=</t>
+          <t>Q3JhaWcgQnVybGFuZCwgRm9yYmVzIENvdW5jaWxzIE1lbWJlciwgCiBDcmFpZyBCdXJsYW5kLCBGb3JiZXMgQ291bmNpbHMgTWVtYmVyCiBodHRwczovL3d3dy5mb3JiZXMuY29tL2NvdW5jaWxzL2ZvcmJlc3RlY2hjb3VuY2lsL3Blb3BsZS9jcmFpZ2J1cmxhbmQv</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RGVzcGl0ZSBpdHMgZ3Jvd2luZyBpbXBvcnRhbmNlLCB3b21lbiByZW1haW4gdW5kZXJyZXByZXNlbnRlZCBpbiB0aGlzIHJhcGlkbHkgZXhwYW5kaW5nIGZpZWxkLg==</t>
+          <t>RXZlbiBhcyBvcmdhbml6YXRpb25zIGhhdmUgaW52ZXN0ZWQgbW9yZSBpbiB0ZWNobm9sb2d5IGFuZCBjeWJlcnNlY3VyaXR5LCBnbG9iYWwgY3liZXIgdGhyZWF0cyBoYXZlIG91dHBhY2VkIHRoZWlyIGVmZm9ydHMu</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>UE9WIFJlaW1hZ2luZWQ6IFdvbWVuIGluIEN5YmVyc2VjdXJpdHkgcmVzZWFyY2ggcmVwb3J0DQpHZXR0eSANCkN5YmVyc2VjdXJpdHkgaGFzIGV2b2x2ZWQgZnJvbSBhIG5pY2hlIGZpZWxkIGludG8gYSBjcml0aWNhbCBpbmR1c3RyeSB0aGF0IHRvdWNoZXMgZXZlcnkgYXNwZWN0IG9mIG91ciBsaXZlc2Zyb20gcHJvdGVjdGluZyBwZXJzb25hbCBkYeKApiBbKzYwNDUgY2hhcnNd</t>
+          <t>Q3JhaWcgQnVybGFuZCBpcyBhIENoaWVmIEluZm9ybWF0aW9uIFNlY3VyaXR5IE9mZmljZXIgd2l0aCBJbnZlcnNpb242Lg0KZ2V0dHkNCkpvaG4gRi4gS2VubmVkeSBmYW1vdXNseSBzdGF0ZWQsIEEgcmlzaW5nIHRpZGUgbGlmdHMgYWxsIGJvYXRzIGluIHRoZSAxOTYwcyB3aGlsZSBwcm9tb3RpbmcgZ292ZXJubWVudCBpbmZyYXN0cnVjdHVyZSBpbuKApiBbKzU0NjcgY2hhcnNd</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9zaXRlcy9zaGVsbGV5emFsaXMvMjAyNC8xMC8yMy90aGUtdW50YXBwZWQtcG90ZW50aWFsLW9mLXdvbWVuLWluLWN5YmVyc2VjdXJpdHkv</t>
+          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXN0ZWNoY291bmNpbC8yMDI0LzA5LzI3L3RoZS1yaXNpbmctdGlkZS1vZi1jeWJlcnNlY3VyaXR5LXJpc2sv</t>
         </is>
       </c>
     </row>
@@ -3125,27 +3125,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SG93IEN5YmVyc2VjdXJpdHkgSW52ZXN0aWdhdGlvbnMgSGVscCBCdXNpbmVzc2VzIEV4cG9zZSBBdHRhY2tlcnM=</t>
+          <t>V2hhdCBDSU9zIE11c3QgQ29uc2lkZXIgV2l0aCBTb3Bob3MgQnV5aW5nIFNlY3VyZXdvcmtz</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>RGFtb24gRmxldXJ5LCBGb3JiZXMgQ291bmNpbHMgTWVtYmVyLCAKIERhbW9uIEZsZXVyeSwgRm9yYmVzIENvdW5jaWxzIE1lbWJlcgogaHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXN0ZWNoY291bmNpbC9wZW9wbGUvZGFtb25mbGV1cnkv</t>
+          <t>RGF2aWQgQ2hvdSwgQ29udHJpYnV0b3IsIAogRGF2aWQgQ2hvdSwgQ29udHJpYnV0b3IKIGh0dHBzOi8vd3d3LmZvcmJlcy5jb20vc2l0ZXMvZGF2aWRjaG91Lw==</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tm8gY3liZXJjcmltaW5hbCBjYW4gY292ZXIgdGhlaXIgdHJhY2tzIGNvbXBsZXRlbHku</t>
+          <t>VGhvbWEgQnJhdm8tYmFja2VkIGN5YmVyc2VjdXJpdHkgZmlybSBTb3Bob3MgaGFzIGFubm91bmNlZCBpdHMgYWNxdWlzaXRpb24gb2YgU2VjdXJld29ya3MsIGEgY3liZXJzZWN1cml0eSBzZXJ2aWNlIHByb3ZpZGVyLCBmb3IgYXBwcm94aW1hdGVseSAkODU5IG1pbGxpb24gdG8gc3RyZW5ndGguLi4=</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>RGFtb24gRmxldXJ5IGlzIENoaWVmIFByb2R1Y3QgT2ZmaWNlciBvZiBTcHlDbG91ZCwgYSBsZWFkZXIgaW4gb3BlcmF0aW9uYWxpemluZyBDeWJlcmNyaW1lIEFuYWx5dGljcyAoQzJBKS4NCmdldHR5DQpPcmdhbml6YXRpb25zIGhhdmUgc3RydWdnbGVkIHRvIGtlZXAgcGFjZSB3aXRoIHJhcGlkbHkgZXZvbHZpbmcgYW5kIGVzY2FsYXRpbmcgY3liZeKApiBbKzU0NzEgY2hhcnNd</t>
+          <t>U29waG9zDQp1bGxzdGVpbiBiaWxkIHZpYSBHZXR0eSBJbWFnZXMNClRob21hIEJyYXZvLWJhY2tlZCBjeWJlcnNlY3VyaXR5IGZpcm0gU29waG9zIGhhcyBhbm5vdW5jZWQgaXRzIGFjcXVpc2l0aW9uIG9mIFNlY3VyZXdvcmtzLCBhIGN5YmVyc2VjdXJpdHkgc2VydmljZSBwcm92aWRlciwgZm9yIGFwcHJveGltYXRlbHkgJDg1OSBtaWxsaW9uIHRvIOKApiBbKzI5NzIgY2hhcnNd</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXN0ZWNoY291bmNpbC8yMDI0LzEwLzE3L2hvdy1jeWJlcnNlY3VyaXR5LWludmVzdGlnYXRpb25zLWhlbHAtYnVzaW5lc3Nlcy1leHBvc2UtYXR0YWNrZXJzLw==</t>
+          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9zaXRlcy9kYXZpZGNob3UvMjAyNC8xMC8yMS93aGF0LWNpb3MtbXVzdC1jb25zaWRlci13aXRoLXNvcGhvcy1idXlpbmctc2VjdXJld29ya3Mv</t>
         </is>
       </c>
     </row>
@@ -3157,27 +3157,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSBTdG9ja3MgU2VlaW5nIEVhcmx5IEFJIEdhaW5z</t>
+          <t>RGVmZW5kaW5nIFRoZSBOYXRpb27igJlzIEluZnJhc3RydWN0dXJlIFdpdGggQSBTaGFyZWQgQ3VsdHVyZSBPZiBDeWJlcnNlY3VyaXR5</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>QmV0aCBLaW5kaWcsIENvbnRyaWJ1dG9yLCAKIEJldGggS2luZGlnLCBDb250cmlidXRvcgogaHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9zaXRlcy9iZXRoa2luZGlnLw==</t>
+          <t>U3R1IFNqb3V3ZXJtYW4sIEZvcmJlcyBDb3VuY2lscyBNZW1iZXIsIAogU3R1IFNqb3V3ZXJtYW4sIEZvcmJlcyBDb3VuY2lscyBNZW1iZXIKIGh0dHBzOi8vd3d3LmZvcmJlcy5jb20vY291bmNpbHMvZm9yYmVzdGVjaGNvdW5jaWwvcGVvcGxlL3N0dXNqb3V3ZXJtYW4xLw==</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Rm91ciBsZWFkaW5nIGN5YmVyc2VjdXJpdHkgZmlybXMgYXJlIHNlZWluZyBBSSBpbXBhY3QgcmV2ZW51ZSBhbmQgcGF2ZSB0aGUgd2F5IGZvciBzdXN0YWluYWJsZSBsb25nLXRlcm0gZ3Jvd3RoLiBXZSBkdWcgdXAgc29tZSBpbXBvcnRhbnQgbmV2ZXItYmVmb3JlIHB1Ymxpc2hlZCBkYXRhIC4uLg==</t>
+          <t>TGV04oCZcyBleHBsb3JlIHNvbWUgYmVzdCBwcmFjdGljZXMgdGhhdCBjYW4gaGVscCBvcmdhbml6YXRpb25zIGJyZWVkIGEgY3VsdHVyZSBvZiBjeWJlcnNlY3VyaXR5IHdoaWNoIGNvdWxkIHRoZW4gcGx1ZyBpbnRvIGEgbGFyZ2VyIG5hdGlvbmFsIGN5YmVyc2VjdXJpdHkgb2JqZWN0aXZlLg==</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eSBpcyBiZWNvbWluZyBpbmNyZWFzaW5nbHkgaW1wb3J0YW50IGluIHRoZSBhZ2Ugb2YgQUksIGFzIHRoZSBudW1iZXIgYW5kIHNvcGhpc3RpY2F0aW9uIG9mIHRocmVhdHMgaW5jcmVhc2UuIENvbWJpbmluZyBjeWJlcnNlY3VyaXR5IHdpdGggQUkgaGFzIGEgbmF0dXJhbCBhZmZpbml0eSBhcyBjeWJlcmF0dGFja3MgYXJlIGNvbeKApiBbKzE0Mzk3IGNoYXJzXQ==</t>
+          <t>U3R1IFNqb3V3ZXJtYW4gaXMgdGhlIGZvdW5kZXIgYW5kIENFTyBvZiBLbm93QmU0IEluYy4sIGEgc2VjdXJpdHkgYXdhcmVuZXNzIHRyYWluaW5nIGFuZCBzaW11bGF0ZWQgcGhpc2hpbmcgcGxhdGZvcm0uDQpnZXR0eQ0KSW4gTWF5IDIwMjMsIENoaW5hLWJhY2tlZCB0aHJlYXQgYWN0b3JzIGNhbGxlZCBWb2x0IFR5cGhvb24gY29tcHJvbWlzZWQgTeKApiBbKzU2MzkgY2hhcnNd</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9zaXRlcy9iZXRoa2luZGlnLzIwMjQvMDkvMjYvY3liZXJzZWN1cml0eS1zdG9ja3Mtc2VlaW5nLWVhcmx5LWFpLWdhaW5zLw==</t>
+          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXN0ZWNoY291bmNpbC8yMDI0LzEwLzAxL2RlZmVuZGluZy10aGUtbmF0aW9ucy1pbmZyYXN0cnVjdHVyZS13aXRoLWEtc2hhcmVkLWN1bHR1cmUtb2YtY3liZXJzZWN1cml0eS8=</t>
         </is>
       </c>
     </row>
@@ -3189,91 +3189,87 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Q2FuIEFJIFNhdmUgQ3liZXJzZWN1cml0eSBGcm9tIEl0c2VsZj8=</t>
+          <t>Q3liZXJzZWN1cml0eSBSaXNrczogV2hlbiBBSSBCZWNvbWVzIEEgVG9vbCBGb3IgRXZpbA==</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>U2FrZXQgTW9kaSwgRm9yYmVzIENvdW5jaWxzIE1lbWJlciwgCiBTYWtldCBNb2RpLCBGb3JiZXMgQ291bmNpbHMgTWVtYmVyCiBodHRwczovL3d3dy5mb3JiZXMuY29tL2NvdW5jaWxzL2ZvcmJlc3RlY2hjb3VuY2lsL3Blb3BsZS9zYWtldG1vZGkv</t>
+          <t>RW1pbCBTYXllZ2gsIENvbnRyaWJ1dG9yLCAKIEVtaWwgU2F5ZWdoLCBDb250cmlidXRvcgogaHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9zaXRlcy9lbWlsc2F5ZWdoLw==</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>QUkgY291bGQgYmUgY3liZXJzZWN1cml0eeKAmXMgYmVzdCBzaG90IGF0IHN5bnRoZXNpemluZyB3aXNkb23igJRsZXTigJlzIHVzZSBpdCB3aXNlbHku</t>
+          <t>RXhwbG9yZSB0aGUgZHVhbC1lZGdlZCBzd29yZCBvZiBBSSBpbiBjeWJlcnNlY3VyaXR5LCB3aGVyZSAgTExNcyBhcmUgdXNlZCBmb3IgYm90aCBkZWZlbnNlIGFuZCBtYWxpY2lvdXMgZXhwbG9pdHMuIFB1Ymxpc2hlZCBpbiBob25vciBvZiBDeWJlcnNlY3VyaXR5IEF3YXJlbmVzcyBNb250aC4=</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>U2FrZXQgTW9kaSBpcyB0aGUgY29mb3VuZGVyIGFuZCBDRU8gb2YgU2FmZSBTZWN1cml0eSwgYSBQYWxvIEFsdG8tYmFzZWQgY3liZXJzZWN1cml0eSBhbmQgZGlnaXRhbCBidXNpbmVzcyByaXNrIHF1YW50aWZpY2F0aW9uIGNvbXBhbnkuDQpnZXR0eQ0KRGVzcGl0ZSBzcGVuZGluZyAkMjAwIGJpbGxpb24gYW5udWFsbHkgb24gY3liZXJzZWN1cml0eeKApiBbKzUwNDYgY2hhcnNd</t>
+          <t>SGFja2VycyBhcmUgbGV2ZXJhZ2luZyBBSSB0byBhdXRvbWF0ZSBhbmQgc2NhbGUgYXR0YWNrcywgcHVzaGluZyB0aGUgYm91bmRhcmllcyBvZiB0cmFkaXRpb25hbCAuLi4gWytdIGN5YmVyc2VjdXJpdHkgZGVmZW5zZXMNCmdldHR5DQpPY3RvYmVyIG1hcmtzIEN5YmVyc2VjdXJpdHkgQXdhcmVuZXNzIE1vbnRoLCBhIHBlcmZlY3QgbW9tZW50IHRvIOKApiBbKzU1MDAgY2hhcnNd</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXN0ZWNoY291bmNpbC8yMDI0LzEwLzA0L2Nhbi1haS1zYXZlLWN5YmVyc2VjdXJpdHktZnJvbS1pdHNlbGYv</t>
+          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9zaXRlcy9lbWlsc2F5ZWdoLzIwMjQvMTAvMDgvY3liZXJzZWN1cml0eS1yaXNrcy13aGVuLWFpLWJlY29tZXMtYS10b29sLWZvci1ldmlsLw==</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rm9yYmVz</t>
+          <t>SGRibG9nLml0</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TGVnYWN5IE1lZGljYWwgRGV2aWNlIEN5YmVyc2VjdXJpdHk6IENoYWxsZW5nZXMgQW5kIFNvbHV0aW9ucw==</t>
+          <t>Q3liZXJzZWN1cml0eSBzaXN0ZW1pIGZvdG92b2x0YWljaTogbCdpbmRhZ2luZSBkZWwgRGl2ZCAoT2xhbmRhKQ==</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Q2hyaXN0aWFuIEVzcGlub3NhLCBGb3JiZXMgQ291bmNpbHMgTWVtYmVyLCAKIENocmlzdGlhbiBFc3Bpbm9zYSwgRm9yYmVzIENvdW5jaWxzIE1lbWJlcgogaHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXN0ZWNoY291bmNpbC9wZW9wbGUvY2hyaXN0aWFuZXNwaW5vc2Ev</t>
+          <t>SERibG9nLml0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SXTigJlzIGFuIGl0ZXJhdGl2ZSBwcm9jZXNzIGJlY2F1c2UgcmlzayBuZXZlciBkaXNhcHBlYXJzLCBhbmQgcHJvZHVjdHMgbXVzdCBjb250aW51b3VzbHkgZXZvbHZlIHRvIG5ldyBzdGFuZGFyZHMu</t>
+          <t>SSByaWNlcmNhdG9yaSBkZWwgRGl2ZCAoT2xhbmRhKSBoYW5ubyBzY29wZXJ0byBlIHNmcnV0dGF0byB2dWxuZXJhYmlsaXTDoCBzdSBhbGN1bmkgc2lzdGVtaSBkaSBjb250cm9sbG8gZGVnbGkgaW1waWFudGkgZm90b3ZvbHRhaWNpLCBjb2xsYWJvcmFuZG8gYWxsYSBsb3JvIHJpc29sdXppb25lLiBJbiBldmlkZW56YSBpIHJpc2NoaSBkZWxsZSBpbnRlcmZhY2NlIElvVC4=</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Qmx1ZSBHb2F0IEN5YmVyIEZvdW5kZXIuIFZldGVyYW4uIE1lZGljYWwgRGV2aWNlIEN5YmVyc2VjdXJpdHkgRXhwZXJ0LiBLZXlub3RlIFNwZWFrZXIuIEF1dGhvci4gMjR4IElyb25tYW4gRmluaXNoZXIuIEJsb29kIENsb3QgU3Vydml2b3IuDQpnZXR0eQ0KTXVjaCBvZiB0aGUgY29udmVyc2F0aW9uIGFib3V0IG1lZGljYWwgZGV2aWNlIGN5YmVyc+KApiBbKzUxMjQgY2hhcnNd</t>
+          <t>TmVsbCdlcmEgZGVsbCdJb1QgKEludGVybmV0IG9mIFRoaW5ncykgbmVzc3VuIGRpc3Bvc2l0aXZvIGNvbm5lc3NvIGFsbGEgcmV0ZSBwdcOyIHJpdGVuZXJzaSBhbCBzaWN1cm8gbmVpIGNvbmZyb250aSBkaSB1biBhdHRhY2NvIGRpIHNpY3VyZXp6YSBpbmZvcm1hdGljYS4gTm9uIGZhbm5vIGVjY2V6aW9uZSBnbGkgaW1waWFudGkgZm90b3ZvbHRhaWPigKYgWys0NDU0IGNoYXJzXQ==</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXN0ZWNoY291bmNpbC8yMDI0LzEwLzE2L2xlZ2FjeS1tZWRpY2FsLWRldmljZS1jeWJlcnNlY3VyaXR5LWNoYWxsZW5nZXMtYW5kLXNvbHV0aW9ucy8=</t>
+          <t>aHR0cHM6Ly93d3cuaGRibG9nLml0L2dyZWVuL2FydGljb2xpL241OTQ1NzgvY3liZXJzZWN1cml0eS1zaXN0ZW1hLWZvdG92b2x0YWljby12dWxuZXJhYmlsaXRhLw==</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Rm9yYmVz</t>
+          <t>VGVjaG1lbWUuY29t</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Q3liZXJzZWN1cml0eTogQSBTdHJhdGVnaWMgSW1wZXJhdGl2ZSBGb3IgQnVzaW5lc3MgTGVhZGVycw==</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>RGFuaWVsIEJhaXosIEZvcmJlcyBDb3VuY2lscyBNZW1iZXIsIAogRGFuaWVsIEJhaXosIEZvcmJlcyBDb3VuY2lscyBNZW1iZXIKIGh0dHBzOi8vd3d3LmZvcmJlcy5jb20vY291bmNpbHMvZm9yYmVzYnVzaW5lc3Njb3VuY2lsL3Blb3BsZS9kYW5pZWxiYWl6Lw==</t>
-        </is>
-      </c>
+          <t>QW4gaW52ZXN0aWdhdGlvbiBmaW5kcyBvdmVyIGEgZG96ZW4gY3J5cHRvIGNvbXBhbmllcyB1bmtub3dpbmdseSBoaXJlZCBJVCB3b3JrZXJzLCB3aG8gdXNlZCBmYWtlIElEcyBhbmQgc3VjY2Vzc2Z1bGx5IG5hdmlnYXRlZCBpbnRlcnZpZXdzLCBmcm9tIE5vcnRoIEtvcmVhIChTYW0gS2Vzc2xlci9Db2luRGVzayk=</t>
+        </is>
+      </c>
+      <c r="C101"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Rm9yIGJ1c2luZXNzZXMgaG91c2luZyB2YWx1YWJsZSBkYXRhIGJ1dCBsYWNraW5nIHRoZSBkZWZlbnNlcyBvZiBsYXJnZXIgY29ycG9yYXRpb25zLCBhIGN5YmVyc2VjdXJpdHkgdGhyZWF0IGlzIHR5cGljYWxseSBhIG1hdHRlciBvZiB3aGVuLCBub3QgaWYu</t>
+          <t>U2FtIEtlc3NsZXIgLyBDb2luRGVzazoKQW4gaW52ZXN0aWdhdGlvbiBmaW5kcyBvdmVyIGEgZG96ZW4gY3J5cHRvIGNvbXBhbmllcyB1bmtub3dpbmdseSBoaXJlZCBJVCB3b3JrZXJzLCB3aG8gdXNlZCBmYWtlIElEcyBhbmQgc3VjY2Vzc2Z1bGx5IG5hdmlnYXRlZCBpbnRlcnZpZXdzLCBmcm9tIE5vcnRoIEtvcmVhwqAg4oCUwqAgTW9yZSB0aGFuIGEgZG96ZW4gYmxvY2tjaGFpbiBmaXJtcyBpbmFkdmVydGVudGx5IGhpcmVkIHVuZGVyY292ZXIgSVQgd29ya2XigKY=</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>RGFuaWVsIEJhaXosIEhhcnZhcmQgTUJBIGFuZCBDRU8gb2YgT25lQXhpb20gLSBhIGxlYWRlciBpbiBnbG9iYWwgY3liZXJzZWN1cml0eSBzb2x1dGlvbnMgYW5kIGFkdmFuY2VkIGRlZmVuc2Ugc3lzdGVtcy4NCmdldHR5DQpBcyB0aGUgQ0VPIG9mIGEgY3liZXJzZWN1cml0eSBmaXJtLCBJJ3ZlIHdpdG5lc3NlZCB0aGUgZXZvbHV0aW9uIG9mIGN5YuKApiBbKzcwNDIgY2hhcnNd</t>
+          <t>QWJvdXQgVGhpcyBQYWdlDQpUaGlzIGlzIGEgVGVjaG1lbWUgYXJjaGl2ZSBwYWdlLg0KSXQgc2hvd3MgaG93IHRoZSBzaXRlIGFwcGVhcmVkIGF0IDExOjE1wqBQTcKgRVQsIE9jdG9iZXLCoDIswqAyMDI0Lg0KVGhlIG1vc3QgY3VycmVudCB2ZXJzaW9uIG9mIHRoZSBzaXRlIGFzIGFsd2F5cyBpcyBhdmFpbGFibGUgYXQgb3VyIGhvbWUgcGFnZS4NClRvIHbigKYgWysxNjQgY2hhcnNd</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>aHR0cHM6Ly93d3cuZm9yYmVzLmNvbS9jb3VuY2lscy9mb3JiZXNidXNpbmVzc2NvdW5jaWwvMjAyNC8xMC8xMC9jeWJlcnNlY3VyaXR5LWEtc3RyYXRlZ2ljLWltcGVyYXRpdmUtZm9yLWJ1c2luZXNzLWxlYWRlcnMv</t>
+          <t>aHR0cHM6Ly93d3cudGVjaG1lbWUuY29tLzI0MTAwMi9wMzY=</t>
         </is>
       </c>
     </row>
